--- a/findmylaptop.xlsx
+++ b/findmylaptop.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Christian Dowe\Documents\Dell Outlet Australia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Christian Dowe\Documents\GitHub\shiny-palm-tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" tabRatio="796"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" tabRatio="796" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Latitude Web Data" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Input Selection" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="latitude?c_au_l_en_s_dfo" localSheetId="0">'Latitude Web Data'!$A$1:$W$579</definedName>
+    <definedName name="latitude?c_au_l_en_s_dfo" localSheetId="0">'Latitude Web Data'!$A$1:$W$399</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Laptop Designation</t>
   </si>
@@ -82,6 +82,18 @@
   </si>
   <si>
     <t xml:space="preserve">Internal Dual Pointing Backlight </t>
+  </si>
+  <si>
+    <t>i5-8350U</t>
+  </si>
+  <si>
+    <t>i7-8650U</t>
+  </si>
+  <si>
+    <t>i7</t>
+  </si>
+  <si>
+    <t>i5</t>
   </si>
 </sst>
 </file>
@@ -263,8 +275,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:A2" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A1:A2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:A7" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A1:A7"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Laptop Designation"/>
   </tableColumns>
@@ -273,8 +285,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="B1:B3" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="B1:B3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="B1:B7" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="B1:B7"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Processor"/>
   </tableColumns>
@@ -619,25 +631,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V579"/>
+  <dimension ref="A1:V399"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="60.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="80.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="63.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="36.42578125" bestFit="1" customWidth="1"/>
@@ -685,52 +700,12 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-      <c r="R21"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
       <c r="R23" s="1"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
       <c r="R24" s="1"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -740,30 +715,20 @@
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
+      <c r="G25"/>
       <c r="H25"/>
       <c r="I25"/>
+      <c r="J25"/>
       <c r="K25"/>
       <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
       <c r="P25"/>
       <c r="Q25"/>
       <c r="R25" s="1"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
       <c r="R26" s="1"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -772,7 +737,6 @@
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
-      <c r="F27"/>
       <c r="I27"/>
       <c r="K27"/>
       <c r="L27"/>
@@ -791,9 +755,10 @@
       <c r="F28"/>
       <c r="H28"/>
       <c r="I28"/>
+      <c r="J28"/>
       <c r="K28"/>
       <c r="L28"/>
-      <c r="N28"/>
+      <c r="M28"/>
       <c r="P28"/>
       <c r="Q28"/>
       <c r="R28" s="1"/>
@@ -807,9 +772,10 @@
       <c r="F29"/>
       <c r="H29"/>
       <c r="I29"/>
+      <c r="J29"/>
       <c r="K29"/>
       <c r="L29"/>
-      <c r="N29"/>
+      <c r="M29"/>
       <c r="P29"/>
       <c r="Q29"/>
       <c r="R29" s="1"/>
@@ -823,6 +789,7 @@
       <c r="F30"/>
       <c r="H30"/>
       <c r="I30"/>
+      <c r="J30"/>
       <c r="K30"/>
       <c r="L30"/>
       <c r="M30"/>
@@ -841,7 +808,7 @@
       <c r="I31"/>
       <c r="K31"/>
       <c r="L31"/>
-      <c r="M31"/>
+      <c r="N31"/>
       <c r="P31"/>
       <c r="Q31"/>
       <c r="R31" s="1"/>
@@ -903,7 +870,6 @@
       <c r="F35"/>
       <c r="H35"/>
       <c r="I35"/>
-      <c r="J35"/>
       <c r="K35"/>
       <c r="L35"/>
       <c r="M35"/>
@@ -920,7 +886,6 @@
       <c r="F36"/>
       <c r="H36"/>
       <c r="I36"/>
-      <c r="J36"/>
       <c r="K36"/>
       <c r="L36"/>
       <c r="M36"/>
@@ -937,7 +902,6 @@
       <c r="F37"/>
       <c r="H37"/>
       <c r="I37"/>
-      <c r="J37"/>
       <c r="K37"/>
       <c r="L37"/>
       <c r="M37"/>
@@ -954,7 +918,6 @@
       <c r="F38"/>
       <c r="H38"/>
       <c r="I38"/>
-      <c r="J38"/>
       <c r="K38"/>
       <c r="L38"/>
       <c r="M38"/>
@@ -971,7 +934,6 @@
       <c r="F39"/>
       <c r="H39"/>
       <c r="I39"/>
-      <c r="J39"/>
       <c r="K39"/>
       <c r="L39"/>
       <c r="M39"/>
@@ -988,7 +950,6 @@
       <c r="F40"/>
       <c r="H40"/>
       <c r="I40"/>
-      <c r="J40"/>
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40"/>
@@ -1008,7 +969,6 @@
       <c r="K41"/>
       <c r="L41"/>
       <c r="M41"/>
-      <c r="N41"/>
       <c r="P41"/>
       <c r="Q41"/>
       <c r="R41" s="1"/>
@@ -1024,7 +984,7 @@
       <c r="I42"/>
       <c r="K42"/>
       <c r="L42"/>
-      <c r="N42"/>
+      <c r="M42"/>
       <c r="P42"/>
       <c r="Q42"/>
       <c r="R42" s="1"/>
@@ -1040,7 +1000,6 @@
       <c r="I43"/>
       <c r="K43"/>
       <c r="L43"/>
-      <c r="M43"/>
       <c r="P43"/>
       <c r="Q43"/>
       <c r="R43" s="1"/>
@@ -1054,10 +1013,8 @@
       <c r="F44"/>
       <c r="H44"/>
       <c r="I44"/>
-      <c r="J44"/>
       <c r="K44"/>
       <c r="L44"/>
-      <c r="M44"/>
       <c r="P44"/>
       <c r="Q44"/>
       <c r="R44" s="1"/>
@@ -1086,11 +1043,12 @@
       <c r="D46"/>
       <c r="E46"/>
       <c r="F46"/>
+      <c r="H46"/>
       <c r="I46"/>
+      <c r="J46"/>
       <c r="K46"/>
       <c r="L46"/>
       <c r="M46"/>
-      <c r="N46"/>
       <c r="P46"/>
       <c r="Q46"/>
       <c r="R46" s="1"/>
@@ -1104,8 +1062,10 @@
       <c r="F47"/>
       <c r="H47"/>
       <c r="I47"/>
+      <c r="J47"/>
       <c r="K47"/>
       <c r="L47"/>
+      <c r="M47"/>
       <c r="N47"/>
       <c r="P47"/>
       <c r="Q47"/>
@@ -1120,9 +1080,10 @@
       <c r="F48"/>
       <c r="H48"/>
       <c r="I48"/>
+      <c r="J48"/>
       <c r="K48"/>
       <c r="L48"/>
-      <c r="N48"/>
+      <c r="M48"/>
       <c r="P48"/>
       <c r="Q48"/>
       <c r="R48" s="1"/>
@@ -1296,6 +1257,7 @@
       <c r="F59"/>
       <c r="H59"/>
       <c r="I59"/>
+      <c r="J59"/>
       <c r="K59"/>
       <c r="L59"/>
       <c r="M59"/>
@@ -1312,6 +1274,7 @@
       <c r="F60"/>
       <c r="H60"/>
       <c r="I60"/>
+      <c r="J60"/>
       <c r="K60"/>
       <c r="L60"/>
       <c r="M60"/>
@@ -1328,6 +1291,7 @@
       <c r="F61"/>
       <c r="H61"/>
       <c r="I61"/>
+      <c r="J61"/>
       <c r="K61"/>
       <c r="L61"/>
       <c r="M61"/>
@@ -1344,6 +1308,7 @@
       <c r="F62"/>
       <c r="H62"/>
       <c r="I62"/>
+      <c r="J62"/>
       <c r="K62"/>
       <c r="L62"/>
       <c r="M62"/>
@@ -1360,6 +1325,7 @@
       <c r="F63"/>
       <c r="H63"/>
       <c r="I63"/>
+      <c r="J63"/>
       <c r="K63"/>
       <c r="L63"/>
       <c r="M63"/>
@@ -1376,6 +1342,7 @@
       <c r="F64"/>
       <c r="H64"/>
       <c r="I64"/>
+      <c r="J64"/>
       <c r="K64"/>
       <c r="L64"/>
       <c r="M64"/>
@@ -1392,6 +1359,7 @@
       <c r="F65"/>
       <c r="H65"/>
       <c r="I65"/>
+      <c r="J65"/>
       <c r="K65"/>
       <c r="L65"/>
       <c r="M65"/>
@@ -1459,8 +1427,10 @@
       <c r="F69"/>
       <c r="H69"/>
       <c r="I69"/>
+      <c r="J69"/>
       <c r="K69"/>
       <c r="L69"/>
+      <c r="M69"/>
       <c r="P69"/>
       <c r="Q69"/>
       <c r="R69" s="1"/>
@@ -1474,8 +1444,11 @@
       <c r="F70"/>
       <c r="H70"/>
       <c r="I70"/>
+      <c r="J70"/>
       <c r="K70"/>
       <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
       <c r="P70"/>
       <c r="Q70"/>
       <c r="R70" s="1"/>
@@ -1489,8 +1462,10 @@
       <c r="F71"/>
       <c r="H71"/>
       <c r="I71"/>
+      <c r="J71"/>
       <c r="K71"/>
       <c r="L71"/>
+      <c r="M71"/>
       <c r="P71"/>
       <c r="Q71"/>
       <c r="R71" s="1"/>
@@ -1506,6 +1481,8 @@
       <c r="I72"/>
       <c r="K72"/>
       <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
       <c r="P72"/>
       <c r="Q72"/>
       <c r="R72" s="1"/>
@@ -1517,10 +1494,6 @@
       <c r="D73"/>
       <c r="E73"/>
       <c r="F73"/>
-      <c r="H73"/>
-      <c r="I73"/>
-      <c r="J73"/>
-      <c r="K73"/>
       <c r="L73"/>
       <c r="M73"/>
       <c r="P73"/>
@@ -1534,10 +1507,6 @@
       <c r="D74"/>
       <c r="E74"/>
       <c r="F74"/>
-      <c r="H74"/>
-      <c r="I74"/>
-      <c r="J74"/>
-      <c r="K74"/>
       <c r="L74"/>
       <c r="M74"/>
       <c r="P74"/>
@@ -1551,10 +1520,8 @@
       <c r="D75"/>
       <c r="E75"/>
       <c r="F75"/>
-      <c r="H75"/>
-      <c r="I75"/>
-      <c r="K75"/>
       <c r="L75"/>
+      <c r="M75"/>
       <c r="P75"/>
       <c r="Q75"/>
       <c r="R75" s="1"/>
@@ -1566,10 +1533,6 @@
       <c r="D76"/>
       <c r="E76"/>
       <c r="F76"/>
-      <c r="H76"/>
-      <c r="I76"/>
-      <c r="J76"/>
-      <c r="K76"/>
       <c r="L76"/>
       <c r="M76"/>
       <c r="P76"/>
@@ -1583,11 +1546,8 @@
       <c r="D77"/>
       <c r="E77"/>
       <c r="F77"/>
-      <c r="H77"/>
-      <c r="I77"/>
-      <c r="K77"/>
       <c r="L77"/>
-      <c r="N77"/>
+      <c r="M77"/>
       <c r="P77"/>
       <c r="Q77"/>
       <c r="R77" s="1"/>
@@ -1601,9 +1561,10 @@
       <c r="F78"/>
       <c r="H78"/>
       <c r="I78"/>
+      <c r="J78"/>
       <c r="K78"/>
       <c r="L78"/>
-      <c r="N78"/>
+      <c r="M78"/>
       <c r="P78"/>
       <c r="Q78"/>
       <c r="R78" s="1"/>
@@ -1617,6 +1578,7 @@
       <c r="F79"/>
       <c r="H79"/>
       <c r="I79"/>
+      <c r="J79"/>
       <c r="K79"/>
       <c r="L79"/>
       <c r="M79"/>
@@ -1633,6 +1595,7 @@
       <c r="F80"/>
       <c r="H80"/>
       <c r="I80"/>
+      <c r="J80"/>
       <c r="K80"/>
       <c r="L80"/>
       <c r="M80"/>
@@ -1649,10 +1612,10 @@
       <c r="F81"/>
       <c r="H81"/>
       <c r="I81"/>
+      <c r="J81"/>
       <c r="K81"/>
       <c r="L81"/>
       <c r="M81"/>
-      <c r="N81"/>
       <c r="P81"/>
       <c r="Q81"/>
       <c r="R81" s="1"/>
@@ -1666,10 +1629,10 @@
       <c r="F82"/>
       <c r="H82"/>
       <c r="I82"/>
+      <c r="J82"/>
       <c r="K82"/>
       <c r="L82"/>
       <c r="M82"/>
-      <c r="N82"/>
       <c r="P82"/>
       <c r="Q82"/>
       <c r="R82" s="1"/>
@@ -1681,11 +1644,12 @@
       <c r="D83"/>
       <c r="E83"/>
       <c r="F83"/>
+      <c r="H83"/>
       <c r="I83"/>
+      <c r="J83"/>
       <c r="K83"/>
       <c r="L83"/>
       <c r="M83"/>
-      <c r="N83"/>
       <c r="P83"/>
       <c r="Q83"/>
       <c r="R83" s="1"/>
@@ -1716,9 +1680,10 @@
       <c r="F85"/>
       <c r="H85"/>
       <c r="I85"/>
+      <c r="J85"/>
       <c r="K85"/>
       <c r="L85"/>
-      <c r="N85"/>
+      <c r="M85"/>
       <c r="P85"/>
       <c r="Q85"/>
       <c r="R85" s="1"/>
@@ -1732,9 +1697,10 @@
       <c r="F86"/>
       <c r="H86"/>
       <c r="I86"/>
+      <c r="J86"/>
       <c r="K86"/>
       <c r="L86"/>
-      <c r="N86"/>
+      <c r="M86"/>
       <c r="P86"/>
       <c r="Q86"/>
       <c r="R86" s="1"/>
@@ -1748,9 +1714,10 @@
       <c r="F87"/>
       <c r="H87"/>
       <c r="I87"/>
+      <c r="J87"/>
       <c r="K87"/>
       <c r="L87"/>
-      <c r="N87"/>
+      <c r="M87"/>
       <c r="P87"/>
       <c r="Q87"/>
       <c r="R87" s="1"/>
@@ -1764,6 +1731,7 @@
       <c r="F88"/>
       <c r="H88"/>
       <c r="I88"/>
+      <c r="J88"/>
       <c r="K88"/>
       <c r="L88"/>
       <c r="M88"/>
@@ -1780,6 +1748,7 @@
       <c r="F89"/>
       <c r="H89"/>
       <c r="I89"/>
+      <c r="J89"/>
       <c r="K89"/>
       <c r="L89"/>
       <c r="M89"/>
@@ -1844,7 +1813,6 @@
       <c r="F93"/>
       <c r="H93"/>
       <c r="I93"/>
-      <c r="J93"/>
       <c r="K93"/>
       <c r="L93"/>
       <c r="M93"/>
@@ -1863,7 +1831,7 @@
       <c r="I94"/>
       <c r="K94"/>
       <c r="L94"/>
-      <c r="N94"/>
+      <c r="M94"/>
       <c r="P94"/>
       <c r="Q94"/>
       <c r="R94" s="1"/>
@@ -1879,7 +1847,7 @@
       <c r="I95"/>
       <c r="K95"/>
       <c r="L95"/>
-      <c r="N95"/>
+      <c r="M95"/>
       <c r="P95"/>
       <c r="Q95"/>
       <c r="R95" s="1"/>
@@ -1895,7 +1863,6 @@
       <c r="I96"/>
       <c r="K96"/>
       <c r="L96"/>
-      <c r="N96"/>
       <c r="P96"/>
       <c r="Q96"/>
       <c r="R96" s="1"/>
@@ -1909,7 +1876,6 @@
       <c r="F97"/>
       <c r="H97"/>
       <c r="I97"/>
-      <c r="J97"/>
       <c r="K97"/>
       <c r="L97"/>
       <c r="M97"/>
@@ -1924,6 +1890,7 @@
       <c r="D98"/>
       <c r="E98"/>
       <c r="F98"/>
+      <c r="G98"/>
       <c r="H98"/>
       <c r="I98"/>
       <c r="J98"/>
@@ -1960,7 +1927,6 @@
       <c r="F100"/>
       <c r="H100"/>
       <c r="I100"/>
-      <c r="J100"/>
       <c r="K100"/>
       <c r="L100"/>
       <c r="M100"/>
@@ -2028,9 +1994,10 @@
       <c r="F104"/>
       <c r="H104"/>
       <c r="I104"/>
+      <c r="J104"/>
       <c r="K104"/>
       <c r="L104"/>
-      <c r="N104"/>
+      <c r="M104"/>
       <c r="P104"/>
       <c r="Q104"/>
       <c r="R104" s="1"/>
@@ -2044,6 +2011,7 @@
       <c r="F105"/>
       <c r="H105"/>
       <c r="I105"/>
+      <c r="J105"/>
       <c r="K105"/>
       <c r="L105"/>
       <c r="M105"/>
@@ -2060,6 +2028,7 @@
       <c r="F106"/>
       <c r="H106"/>
       <c r="I106"/>
+      <c r="J106"/>
       <c r="K106"/>
       <c r="L106"/>
       <c r="M106"/>
@@ -2112,6 +2081,7 @@
       <c r="K109"/>
       <c r="L109"/>
       <c r="M109"/>
+      <c r="N109"/>
       <c r="P109"/>
       <c r="Q109"/>
       <c r="R109" s="1"/>
@@ -2125,7 +2095,6 @@
       <c r="F110"/>
       <c r="H110"/>
       <c r="I110"/>
-      <c r="J110"/>
       <c r="K110"/>
       <c r="L110"/>
       <c r="M110"/>
@@ -2142,7 +2111,6 @@
       <c r="F111"/>
       <c r="H111"/>
       <c r="I111"/>
-      <c r="J111"/>
       <c r="K111"/>
       <c r="L111"/>
       <c r="M111"/>
@@ -2159,7 +2127,6 @@
       <c r="F112"/>
       <c r="H112"/>
       <c r="I112"/>
-      <c r="J112"/>
       <c r="K112"/>
       <c r="L112"/>
       <c r="M112"/>
@@ -2176,7 +2143,6 @@
       <c r="F113"/>
       <c r="H113"/>
       <c r="I113"/>
-      <c r="J113"/>
       <c r="K113"/>
       <c r="L113"/>
       <c r="M113"/>
@@ -2193,7 +2159,6 @@
       <c r="F114"/>
       <c r="H114"/>
       <c r="I114"/>
-      <c r="J114"/>
       <c r="K114"/>
       <c r="L114"/>
       <c r="M114"/>
@@ -2380,9 +2345,10 @@
       <c r="F125"/>
       <c r="H125"/>
       <c r="I125"/>
+      <c r="J125"/>
       <c r="K125"/>
       <c r="L125"/>
-      <c r="N125"/>
+      <c r="M125"/>
       <c r="P125"/>
       <c r="Q125"/>
       <c r="R125" s="1"/>
@@ -2395,10 +2361,9 @@
       <c r="E126"/>
       <c r="F126"/>
       <c r="H126"/>
-      <c r="I126"/>
       <c r="K126"/>
       <c r="L126"/>
-      <c r="N126"/>
+      <c r="M126"/>
       <c r="P126"/>
       <c r="Q126"/>
       <c r="R126" s="1"/>
@@ -2414,6 +2379,7 @@
       <c r="I127"/>
       <c r="K127"/>
       <c r="L127"/>
+      <c r="M127"/>
       <c r="P127"/>
       <c r="Q127"/>
       <c r="R127" s="1"/>
@@ -2427,7 +2393,6 @@
       <c r="F128"/>
       <c r="H128"/>
       <c r="I128"/>
-      <c r="J128"/>
       <c r="K128"/>
       <c r="L128"/>
       <c r="M128"/>
@@ -2444,10 +2409,9 @@
       <c r="F129"/>
       <c r="H129"/>
       <c r="I129"/>
-      <c r="J129"/>
       <c r="K129"/>
       <c r="L129"/>
-      <c r="M129"/>
+      <c r="N129"/>
       <c r="P129"/>
       <c r="Q129"/>
       <c r="R129" s="1"/>
@@ -2510,14 +2474,12 @@
       <c r="D133"/>
       <c r="E133"/>
       <c r="F133"/>
-      <c r="G133"/>
       <c r="H133"/>
       <c r="I133"/>
       <c r="J133"/>
       <c r="K133"/>
       <c r="L133"/>
       <c r="M133"/>
-      <c r="N133"/>
       <c r="P133"/>
       <c r="Q133"/>
       <c r="R133" s="1"/>
@@ -2546,14 +2508,12 @@
       <c r="D135"/>
       <c r="E135"/>
       <c r="F135"/>
-      <c r="G135"/>
       <c r="H135"/>
       <c r="I135"/>
       <c r="J135"/>
       <c r="K135"/>
       <c r="L135"/>
       <c r="M135"/>
-      <c r="N135"/>
       <c r="P135"/>
       <c r="Q135"/>
       <c r="R135" s="1"/>
@@ -2565,14 +2525,12 @@
       <c r="D136"/>
       <c r="E136"/>
       <c r="F136"/>
-      <c r="G136"/>
       <c r="H136"/>
       <c r="I136"/>
       <c r="J136"/>
       <c r="K136"/>
       <c r="L136"/>
       <c r="M136"/>
-      <c r="N136"/>
       <c r="P136"/>
       <c r="Q136"/>
       <c r="R136" s="1"/>
@@ -2583,11 +2541,7 @@
       <c r="C137"/>
       <c r="D137"/>
       <c r="E137"/>
-      <c r="F137"/>
-      <c r="G137"/>
-      <c r="H137"/>
       <c r="I137"/>
-      <c r="J137"/>
       <c r="K137"/>
       <c r="L137"/>
       <c r="M137"/>
@@ -2602,11 +2556,7 @@
       <c r="C138"/>
       <c r="D138"/>
       <c r="E138"/>
-      <c r="F138"/>
-      <c r="G138"/>
-      <c r="H138"/>
       <c r="I138"/>
-      <c r="J138"/>
       <c r="K138"/>
       <c r="L138"/>
       <c r="M138"/>
@@ -2621,11 +2571,7 @@
       <c r="C139"/>
       <c r="D139"/>
       <c r="E139"/>
-      <c r="F139"/>
-      <c r="G139"/>
-      <c r="H139"/>
       <c r="I139"/>
-      <c r="J139"/>
       <c r="K139"/>
       <c r="L139"/>
       <c r="M139"/>
@@ -2641,14 +2587,10 @@
       <c r="D140"/>
       <c r="E140"/>
       <c r="F140"/>
-      <c r="G140"/>
       <c r="H140"/>
       <c r="I140"/>
-      <c r="J140"/>
       <c r="K140"/>
       <c r="L140"/>
-      <c r="M140"/>
-      <c r="N140"/>
       <c r="P140"/>
       <c r="Q140"/>
       <c r="R140" s="1"/>
@@ -2660,14 +2602,10 @@
       <c r="D141"/>
       <c r="E141"/>
       <c r="F141"/>
-      <c r="G141"/>
       <c r="H141"/>
       <c r="I141"/>
-      <c r="J141"/>
       <c r="K141"/>
       <c r="L141"/>
-      <c r="M141"/>
-      <c r="N141"/>
       <c r="P141"/>
       <c r="Q141"/>
       <c r="R141" s="1"/>
@@ -2679,14 +2617,10 @@
       <c r="D142"/>
       <c r="E142"/>
       <c r="F142"/>
-      <c r="G142"/>
       <c r="H142"/>
       <c r="I142"/>
-      <c r="J142"/>
       <c r="K142"/>
       <c r="L142"/>
-      <c r="M142"/>
-      <c r="N142"/>
       <c r="P142"/>
       <c r="Q142"/>
       <c r="R142" s="1"/>
@@ -2698,7 +2632,6 @@
       <c r="D143"/>
       <c r="E143"/>
       <c r="F143"/>
-      <c r="G143"/>
       <c r="H143"/>
       <c r="I143"/>
       <c r="J143"/>
@@ -2717,7 +2650,6 @@
       <c r="D144"/>
       <c r="E144"/>
       <c r="F144"/>
-      <c r="G144"/>
       <c r="H144"/>
       <c r="I144"/>
       <c r="J144"/>
@@ -2736,10 +2668,7 @@
       <c r="D145"/>
       <c r="E145"/>
       <c r="F145"/>
-      <c r="G145"/>
-      <c r="H145"/>
       <c r="I145"/>
-      <c r="J145"/>
       <c r="K145"/>
       <c r="L145"/>
       <c r="M145"/>
@@ -2755,8 +2684,6 @@
       <c r="D146"/>
       <c r="E146"/>
       <c r="F146"/>
-      <c r="G146"/>
-      <c r="H146"/>
       <c r="I146"/>
       <c r="J146"/>
       <c r="K146"/>
@@ -2774,8 +2701,6 @@
       <c r="D147"/>
       <c r="E147"/>
       <c r="F147"/>
-      <c r="G147"/>
-      <c r="H147"/>
       <c r="I147"/>
       <c r="J147"/>
       <c r="K147"/>
@@ -2793,14 +2718,12 @@
       <c r="D148"/>
       <c r="E148"/>
       <c r="F148"/>
-      <c r="G148"/>
       <c r="H148"/>
       <c r="I148"/>
       <c r="J148"/>
       <c r="K148"/>
       <c r="L148"/>
       <c r="M148"/>
-      <c r="N148"/>
       <c r="P148"/>
       <c r="Q148"/>
       <c r="R148" s="1"/>
@@ -2812,14 +2735,12 @@
       <c r="D149"/>
       <c r="E149"/>
       <c r="F149"/>
-      <c r="G149"/>
       <c r="H149"/>
       <c r="I149"/>
       <c r="J149"/>
       <c r="K149"/>
       <c r="L149"/>
       <c r="M149"/>
-      <c r="N149"/>
       <c r="P149"/>
       <c r="Q149"/>
       <c r="R149" s="1"/>
@@ -2831,13 +2752,10 @@
       <c r="D150"/>
       <c r="E150"/>
       <c r="F150"/>
-      <c r="G150"/>
       <c r="H150"/>
       <c r="I150"/>
-      <c r="J150"/>
       <c r="K150"/>
       <c r="L150"/>
-      <c r="M150"/>
       <c r="N150"/>
       <c r="P150"/>
       <c r="Q150"/>
@@ -2850,13 +2768,10 @@
       <c r="D151"/>
       <c r="E151"/>
       <c r="F151"/>
-      <c r="G151"/>
       <c r="H151"/>
       <c r="I151"/>
-      <c r="J151"/>
       <c r="K151"/>
       <c r="L151"/>
-      <c r="M151"/>
       <c r="N151"/>
       <c r="P151"/>
       <c r="Q151"/>
@@ -2869,13 +2784,10 @@
       <c r="D152"/>
       <c r="E152"/>
       <c r="F152"/>
-      <c r="G152"/>
       <c r="H152"/>
       <c r="I152"/>
-      <c r="J152"/>
       <c r="K152"/>
       <c r="L152"/>
-      <c r="M152"/>
       <c r="N152"/>
       <c r="P152"/>
       <c r="Q152"/>
@@ -2888,13 +2800,10 @@
       <c r="D153"/>
       <c r="E153"/>
       <c r="F153"/>
-      <c r="G153"/>
       <c r="H153"/>
       <c r="I153"/>
-      <c r="J153"/>
       <c r="K153"/>
       <c r="L153"/>
-      <c r="M153"/>
       <c r="N153"/>
       <c r="P153"/>
       <c r="Q153"/>
@@ -2907,13 +2816,10 @@
       <c r="D154"/>
       <c r="E154"/>
       <c r="F154"/>
-      <c r="G154"/>
       <c r="H154"/>
       <c r="I154"/>
-      <c r="J154"/>
       <c r="K154"/>
       <c r="L154"/>
-      <c r="M154"/>
       <c r="N154"/>
       <c r="P154"/>
       <c r="Q154"/>
@@ -2926,13 +2832,10 @@
       <c r="D155"/>
       <c r="E155"/>
       <c r="F155"/>
-      <c r="G155"/>
       <c r="H155"/>
       <c r="I155"/>
-      <c r="J155"/>
       <c r="K155"/>
       <c r="L155"/>
-      <c r="M155"/>
       <c r="N155"/>
       <c r="P155"/>
       <c r="Q155"/>
@@ -2945,13 +2848,10 @@
       <c r="D156"/>
       <c r="E156"/>
       <c r="F156"/>
-      <c r="G156"/>
       <c r="H156"/>
       <c r="I156"/>
-      <c r="J156"/>
       <c r="K156"/>
       <c r="L156"/>
-      <c r="M156"/>
       <c r="N156"/>
       <c r="P156"/>
       <c r="Q156"/>
@@ -2964,13 +2864,10 @@
       <c r="D157"/>
       <c r="E157"/>
       <c r="F157"/>
-      <c r="G157"/>
       <c r="H157"/>
       <c r="I157"/>
-      <c r="J157"/>
       <c r="K157"/>
       <c r="L157"/>
-      <c r="M157"/>
       <c r="N157"/>
       <c r="P157"/>
       <c r="Q157"/>
@@ -2983,13 +2880,10 @@
       <c r="D158"/>
       <c r="E158"/>
       <c r="F158"/>
-      <c r="G158"/>
       <c r="H158"/>
       <c r="I158"/>
-      <c r="J158"/>
       <c r="K158"/>
       <c r="L158"/>
-      <c r="M158"/>
       <c r="N158"/>
       <c r="P158"/>
       <c r="Q158"/>
@@ -3002,13 +2896,10 @@
       <c r="D159"/>
       <c r="E159"/>
       <c r="F159"/>
-      <c r="G159"/>
       <c r="H159"/>
       <c r="I159"/>
-      <c r="J159"/>
       <c r="K159"/>
       <c r="L159"/>
-      <c r="M159"/>
       <c r="N159"/>
       <c r="P159"/>
       <c r="Q159"/>
@@ -3021,13 +2912,10 @@
       <c r="D160"/>
       <c r="E160"/>
       <c r="F160"/>
-      <c r="G160"/>
       <c r="H160"/>
       <c r="I160"/>
-      <c r="J160"/>
       <c r="K160"/>
       <c r="L160"/>
-      <c r="M160"/>
       <c r="N160"/>
       <c r="P160"/>
       <c r="Q160"/>
@@ -3040,13 +2928,10 @@
       <c r="D161"/>
       <c r="E161"/>
       <c r="F161"/>
-      <c r="G161"/>
       <c r="H161"/>
       <c r="I161"/>
-      <c r="J161"/>
       <c r="K161"/>
       <c r="L161"/>
-      <c r="M161"/>
       <c r="N161"/>
       <c r="P161"/>
       <c r="Q161"/>
@@ -3059,13 +2944,10 @@
       <c r="D162"/>
       <c r="E162"/>
       <c r="F162"/>
-      <c r="G162"/>
       <c r="H162"/>
       <c r="I162"/>
-      <c r="J162"/>
       <c r="K162"/>
       <c r="L162"/>
-      <c r="M162"/>
       <c r="N162"/>
       <c r="P162"/>
       <c r="Q162"/>
@@ -3078,13 +2960,10 @@
       <c r="D163"/>
       <c r="E163"/>
       <c r="F163"/>
-      <c r="G163"/>
       <c r="H163"/>
       <c r="I163"/>
-      <c r="J163"/>
       <c r="K163"/>
       <c r="L163"/>
-      <c r="M163"/>
       <c r="N163"/>
       <c r="P163"/>
       <c r="Q163"/>
@@ -3097,13 +2976,10 @@
       <c r="D164"/>
       <c r="E164"/>
       <c r="F164"/>
-      <c r="G164"/>
       <c r="H164"/>
       <c r="I164"/>
-      <c r="J164"/>
       <c r="K164"/>
       <c r="L164"/>
-      <c r="M164"/>
       <c r="N164"/>
       <c r="P164"/>
       <c r="Q164"/>
@@ -3116,13 +2992,10 @@
       <c r="D165"/>
       <c r="E165"/>
       <c r="F165"/>
-      <c r="G165"/>
       <c r="H165"/>
       <c r="I165"/>
-      <c r="J165"/>
       <c r="K165"/>
       <c r="L165"/>
-      <c r="M165"/>
       <c r="N165"/>
       <c r="P165"/>
       <c r="Q165"/>
@@ -3135,13 +3008,10 @@
       <c r="D166"/>
       <c r="E166"/>
       <c r="F166"/>
-      <c r="G166"/>
       <c r="H166"/>
       <c r="I166"/>
-      <c r="J166"/>
       <c r="K166"/>
       <c r="L166"/>
-      <c r="M166"/>
       <c r="N166"/>
       <c r="P166"/>
       <c r="Q166"/>
@@ -3154,13 +3024,10 @@
       <c r="D167"/>
       <c r="E167"/>
       <c r="F167"/>
-      <c r="G167"/>
       <c r="H167"/>
       <c r="I167"/>
-      <c r="J167"/>
       <c r="K167"/>
       <c r="L167"/>
-      <c r="M167"/>
       <c r="N167"/>
       <c r="P167"/>
       <c r="Q167"/>
@@ -3173,14 +3040,11 @@
       <c r="D168"/>
       <c r="E168"/>
       <c r="F168"/>
-      <c r="G168"/>
       <c r="H168"/>
       <c r="I168"/>
-      <c r="J168"/>
       <c r="K168"/>
       <c r="L168"/>
       <c r="M168"/>
-      <c r="N168"/>
       <c r="P168"/>
       <c r="Q168"/>
       <c r="R168" s="1"/>
@@ -3192,14 +3056,11 @@
       <c r="D169"/>
       <c r="E169"/>
       <c r="F169"/>
-      <c r="G169"/>
       <c r="H169"/>
       <c r="I169"/>
-      <c r="J169"/>
       <c r="K169"/>
       <c r="L169"/>
       <c r="M169"/>
-      <c r="N169"/>
       <c r="P169"/>
       <c r="Q169"/>
       <c r="R169" s="1"/>
@@ -3211,14 +3072,11 @@
       <c r="D170"/>
       <c r="E170"/>
       <c r="F170"/>
-      <c r="G170"/>
       <c r="H170"/>
       <c r="I170"/>
-      <c r="J170"/>
       <c r="K170"/>
       <c r="L170"/>
       <c r="M170"/>
-      <c r="N170"/>
       <c r="P170"/>
       <c r="Q170"/>
       <c r="R170" s="1"/>
@@ -3230,14 +3088,11 @@
       <c r="D171"/>
       <c r="E171"/>
       <c r="F171"/>
-      <c r="G171"/>
       <c r="H171"/>
       <c r="I171"/>
-      <c r="J171"/>
       <c r="K171"/>
       <c r="L171"/>
       <c r="M171"/>
-      <c r="N171"/>
       <c r="P171"/>
       <c r="Q171"/>
       <c r="R171" s="1"/>
@@ -3249,14 +3104,11 @@
       <c r="D172"/>
       <c r="E172"/>
       <c r="F172"/>
-      <c r="G172"/>
       <c r="H172"/>
       <c r="I172"/>
-      <c r="J172"/>
       <c r="K172"/>
       <c r="L172"/>
       <c r="M172"/>
-      <c r="N172"/>
       <c r="P172"/>
       <c r="Q172"/>
       <c r="R172" s="1"/>
@@ -3268,14 +3120,11 @@
       <c r="D173"/>
       <c r="E173"/>
       <c r="F173"/>
-      <c r="G173"/>
       <c r="H173"/>
       <c r="I173"/>
-      <c r="J173"/>
       <c r="K173"/>
       <c r="L173"/>
       <c r="M173"/>
-      <c r="N173"/>
       <c r="P173"/>
       <c r="Q173"/>
       <c r="R173" s="1"/>
@@ -3287,14 +3136,11 @@
       <c r="D174"/>
       <c r="E174"/>
       <c r="F174"/>
-      <c r="G174"/>
       <c r="H174"/>
       <c r="I174"/>
-      <c r="J174"/>
       <c r="K174"/>
       <c r="L174"/>
       <c r="M174"/>
-      <c r="N174"/>
       <c r="P174"/>
       <c r="Q174"/>
       <c r="R174" s="1"/>
@@ -3306,14 +3152,11 @@
       <c r="D175"/>
       <c r="E175"/>
       <c r="F175"/>
-      <c r="G175"/>
       <c r="H175"/>
       <c r="I175"/>
-      <c r="J175"/>
       <c r="K175"/>
       <c r="L175"/>
       <c r="M175"/>
-      <c r="N175"/>
       <c r="P175"/>
       <c r="Q175"/>
       <c r="R175" s="1"/>
@@ -3325,14 +3168,11 @@
       <c r="D176"/>
       <c r="E176"/>
       <c r="F176"/>
-      <c r="G176"/>
       <c r="H176"/>
       <c r="I176"/>
-      <c r="J176"/>
       <c r="K176"/>
       <c r="L176"/>
       <c r="M176"/>
-      <c r="N176"/>
       <c r="P176"/>
       <c r="Q176"/>
       <c r="R176" s="1"/>
@@ -3344,14 +3184,11 @@
       <c r="D177"/>
       <c r="E177"/>
       <c r="F177"/>
-      <c r="G177"/>
       <c r="H177"/>
       <c r="I177"/>
-      <c r="J177"/>
       <c r="K177"/>
       <c r="L177"/>
       <c r="M177"/>
-      <c r="N177"/>
       <c r="P177"/>
       <c r="Q177"/>
       <c r="R177" s="1"/>
@@ -3378,11 +3215,12 @@
       <c r="C179"/>
       <c r="D179"/>
       <c r="E179"/>
+      <c r="F179"/>
+      <c r="H179"/>
       <c r="I179"/>
       <c r="K179"/>
       <c r="L179"/>
       <c r="M179"/>
-      <c r="N179"/>
       <c r="P179"/>
       <c r="Q179"/>
       <c r="R179" s="1"/>
@@ -3398,7 +3236,7 @@
       <c r="I180"/>
       <c r="K180"/>
       <c r="L180"/>
-      <c r="N180"/>
+      <c r="M180"/>
       <c r="P180"/>
       <c r="Q180"/>
       <c r="R180" s="1"/>
@@ -3414,7 +3252,7 @@
       <c r="I181"/>
       <c r="K181"/>
       <c r="L181"/>
-      <c r="N181"/>
+      <c r="M181"/>
       <c r="P181"/>
       <c r="Q181"/>
       <c r="R181" s="1"/>
@@ -3444,6 +3282,7 @@
       <c r="F183"/>
       <c r="H183"/>
       <c r="I183"/>
+      <c r="J183"/>
       <c r="K183"/>
       <c r="L183"/>
       <c r="M183"/>
@@ -3460,6 +3299,7 @@
       <c r="F184"/>
       <c r="H184"/>
       <c r="I184"/>
+      <c r="J184"/>
       <c r="K184"/>
       <c r="L184"/>
       <c r="M184"/>
@@ -3476,6 +3316,7 @@
       <c r="F185"/>
       <c r="H185"/>
       <c r="I185"/>
+      <c r="J185"/>
       <c r="K185"/>
       <c r="L185"/>
       <c r="M185"/>
@@ -3492,6 +3333,7 @@
       <c r="F186"/>
       <c r="H186"/>
       <c r="I186"/>
+      <c r="J186"/>
       <c r="K186"/>
       <c r="L186"/>
       <c r="M186"/>
@@ -3506,11 +3348,11 @@
       <c r="D187"/>
       <c r="E187"/>
       <c r="F187"/>
+      <c r="G187"/>
       <c r="H187"/>
       <c r="I187"/>
       <c r="K187"/>
       <c r="L187"/>
-      <c r="M187"/>
       <c r="P187"/>
       <c r="Q187"/>
       <c r="R187" s="1"/>
@@ -3526,7 +3368,6 @@
       <c r="I188"/>
       <c r="K188"/>
       <c r="L188"/>
-      <c r="M188"/>
       <c r="P188"/>
       <c r="Q188"/>
       <c r="R188" s="1"/>
@@ -3542,7 +3383,6 @@
       <c r="I189"/>
       <c r="K189"/>
       <c r="L189"/>
-      <c r="M189"/>
       <c r="P189"/>
       <c r="Q189"/>
       <c r="R189" s="1"/>
@@ -3558,7 +3398,6 @@
       <c r="I190"/>
       <c r="K190"/>
       <c r="L190"/>
-      <c r="M190"/>
       <c r="P190"/>
       <c r="Q190"/>
       <c r="R190" s="1"/>
@@ -3574,7 +3413,6 @@
       <c r="I191"/>
       <c r="K191"/>
       <c r="L191"/>
-      <c r="M191"/>
       <c r="P191"/>
       <c r="Q191"/>
       <c r="R191" s="1"/>
@@ -3588,10 +3426,8 @@
       <c r="F192"/>
       <c r="H192"/>
       <c r="I192"/>
-      <c r="J192"/>
       <c r="K192"/>
       <c r="L192"/>
-      <c r="M192"/>
       <c r="P192"/>
       <c r="Q192"/>
       <c r="R192" s="1"/>
@@ -3622,7 +3458,6 @@
       <c r="I194"/>
       <c r="K194"/>
       <c r="L194"/>
-      <c r="M194"/>
       <c r="P194"/>
       <c r="Q194"/>
       <c r="R194" s="1"/>
@@ -3638,7 +3473,6 @@
       <c r="I195"/>
       <c r="K195"/>
       <c r="L195"/>
-      <c r="M195"/>
       <c r="P195"/>
       <c r="Q195"/>
       <c r="R195" s="1"/>
@@ -3654,7 +3488,6 @@
       <c r="I196"/>
       <c r="K196"/>
       <c r="L196"/>
-      <c r="M196"/>
       <c r="P196"/>
       <c r="Q196"/>
       <c r="R196" s="1"/>
@@ -3671,6 +3504,7 @@
       <c r="K197"/>
       <c r="L197"/>
       <c r="M197"/>
+      <c r="N197"/>
       <c r="P197"/>
       <c r="Q197"/>
       <c r="R197" s="1"/>
@@ -3684,9 +3518,11 @@
       <c r="F198"/>
       <c r="H198"/>
       <c r="I198"/>
+      <c r="J198"/>
       <c r="K198"/>
       <c r="L198"/>
       <c r="M198"/>
+      <c r="N198"/>
       <c r="P198"/>
       <c r="Q198"/>
       <c r="R198" s="1"/>
@@ -3700,9 +3536,11 @@
       <c r="F199"/>
       <c r="H199"/>
       <c r="I199"/>
+      <c r="J199"/>
       <c r="K199"/>
       <c r="L199"/>
       <c r="M199"/>
+      <c r="N199"/>
       <c r="P199"/>
       <c r="Q199"/>
       <c r="R199" s="1"/>
@@ -3716,9 +3554,11 @@
       <c r="F200"/>
       <c r="H200"/>
       <c r="I200"/>
+      <c r="J200"/>
       <c r="K200"/>
       <c r="L200"/>
       <c r="M200"/>
+      <c r="N200"/>
       <c r="P200"/>
       <c r="Q200"/>
       <c r="R200" s="1"/>
@@ -3732,9 +3572,11 @@
       <c r="F201"/>
       <c r="H201"/>
       <c r="I201"/>
+      <c r="J201"/>
       <c r="K201"/>
       <c r="L201"/>
       <c r="M201"/>
+      <c r="N201"/>
       <c r="P201"/>
       <c r="Q201"/>
       <c r="R201" s="1"/>
@@ -3815,6 +3657,7 @@
       <c r="K206"/>
       <c r="L206"/>
       <c r="M206"/>
+      <c r="N206"/>
       <c r="P206"/>
       <c r="Q206"/>
       <c r="R206" s="1"/>
@@ -3828,6 +3671,7 @@
       <c r="F207"/>
       <c r="H207"/>
       <c r="I207"/>
+      <c r="J207"/>
       <c r="K207"/>
       <c r="L207"/>
       <c r="M207"/>
@@ -3844,6 +3688,7 @@
       <c r="F208"/>
       <c r="H208"/>
       <c r="I208"/>
+      <c r="J208"/>
       <c r="K208"/>
       <c r="L208"/>
       <c r="M208"/>
@@ -3860,6 +3705,7 @@
       <c r="F209"/>
       <c r="H209"/>
       <c r="I209"/>
+      <c r="J209"/>
       <c r="K209"/>
       <c r="L209"/>
       <c r="M209"/>
@@ -3876,6 +3722,7 @@
       <c r="F210"/>
       <c r="H210"/>
       <c r="I210"/>
+      <c r="J210"/>
       <c r="K210"/>
       <c r="L210"/>
       <c r="M210"/>
@@ -3892,6 +3739,7 @@
       <c r="F211"/>
       <c r="H211"/>
       <c r="I211"/>
+      <c r="J211"/>
       <c r="K211"/>
       <c r="L211"/>
       <c r="M211"/>
@@ -3908,6 +3756,7 @@
       <c r="F212"/>
       <c r="H212"/>
       <c r="I212"/>
+      <c r="J212"/>
       <c r="K212"/>
       <c r="L212"/>
       <c r="M212"/>
@@ -3924,6 +3773,7 @@
       <c r="F213"/>
       <c r="H213"/>
       <c r="I213"/>
+      <c r="J213"/>
       <c r="K213"/>
       <c r="L213"/>
       <c r="M213"/>
@@ -3940,6 +3790,7 @@
       <c r="F214"/>
       <c r="H214"/>
       <c r="I214"/>
+      <c r="J214"/>
       <c r="K214"/>
       <c r="L214"/>
       <c r="M214"/>
@@ -3956,6 +3807,7 @@
       <c r="F215"/>
       <c r="H215"/>
       <c r="I215"/>
+      <c r="J215"/>
       <c r="K215"/>
       <c r="L215"/>
       <c r="M215"/>
@@ -3972,6 +3824,7 @@
       <c r="F216"/>
       <c r="H216"/>
       <c r="I216"/>
+      <c r="J216"/>
       <c r="K216"/>
       <c r="L216"/>
       <c r="M216"/>
@@ -3986,8 +3839,10 @@
       <c r="D217"/>
       <c r="E217"/>
       <c r="F217"/>
+      <c r="G217"/>
       <c r="H217"/>
       <c r="I217"/>
+      <c r="J217"/>
       <c r="K217"/>
       <c r="L217"/>
       <c r="M217"/>
@@ -4004,6 +3859,7 @@
       <c r="F218"/>
       <c r="H218"/>
       <c r="I218"/>
+      <c r="J218"/>
       <c r="K218"/>
       <c r="L218"/>
       <c r="M218"/>
@@ -4020,6 +3876,7 @@
       <c r="F219"/>
       <c r="H219"/>
       <c r="I219"/>
+      <c r="J219"/>
       <c r="K219"/>
       <c r="L219"/>
       <c r="M219"/>
@@ -4036,6 +3893,7 @@
       <c r="F220"/>
       <c r="H220"/>
       <c r="I220"/>
+      <c r="J220"/>
       <c r="K220"/>
       <c r="L220"/>
       <c r="M220"/>
@@ -4052,6 +3910,7 @@
       <c r="F221"/>
       <c r="H221"/>
       <c r="I221"/>
+      <c r="J221"/>
       <c r="K221"/>
       <c r="L221"/>
       <c r="M221"/>
@@ -4068,6 +3927,7 @@
       <c r="F222"/>
       <c r="H222"/>
       <c r="I222"/>
+      <c r="J222"/>
       <c r="K222"/>
       <c r="L222"/>
       <c r="M222"/>
@@ -4084,6 +3944,7 @@
       <c r="F223"/>
       <c r="H223"/>
       <c r="I223"/>
+      <c r="J223"/>
       <c r="K223"/>
       <c r="L223"/>
       <c r="M223"/>
@@ -4100,6 +3961,7 @@
       <c r="F224"/>
       <c r="H224"/>
       <c r="I224"/>
+      <c r="J224"/>
       <c r="K224"/>
       <c r="L224"/>
       <c r="M224"/>
@@ -4116,6 +3978,7 @@
       <c r="F225"/>
       <c r="H225"/>
       <c r="I225"/>
+      <c r="J225"/>
       <c r="K225"/>
       <c r="L225"/>
       <c r="M225"/>
@@ -4132,6 +3995,7 @@
       <c r="F226"/>
       <c r="H226"/>
       <c r="I226"/>
+      <c r="J226"/>
       <c r="K226"/>
       <c r="L226"/>
       <c r="M226"/>
@@ -4148,6 +4012,7 @@
       <c r="F227"/>
       <c r="H227"/>
       <c r="I227"/>
+      <c r="J227"/>
       <c r="K227"/>
       <c r="L227"/>
       <c r="M227"/>
@@ -4164,6 +4029,7 @@
       <c r="F228"/>
       <c r="H228"/>
       <c r="I228"/>
+      <c r="J228"/>
       <c r="K228"/>
       <c r="L228"/>
       <c r="M228"/>
@@ -4180,6 +4046,7 @@
       <c r="F229"/>
       <c r="H229"/>
       <c r="I229"/>
+      <c r="J229"/>
       <c r="K229"/>
       <c r="L229"/>
       <c r="M229"/>
@@ -4196,6 +4063,7 @@
       <c r="F230"/>
       <c r="H230"/>
       <c r="I230"/>
+      <c r="J230"/>
       <c r="K230"/>
       <c r="L230"/>
       <c r="M230"/>
@@ -4212,6 +4080,7 @@
       <c r="F231"/>
       <c r="H231"/>
       <c r="I231"/>
+      <c r="J231"/>
       <c r="K231"/>
       <c r="L231"/>
       <c r="M231"/>
@@ -4228,6 +4097,7 @@
       <c r="F232"/>
       <c r="H232"/>
       <c r="I232"/>
+      <c r="J232"/>
       <c r="K232"/>
       <c r="L232"/>
       <c r="M232"/>
@@ -4244,6 +4114,7 @@
       <c r="F233"/>
       <c r="H233"/>
       <c r="I233"/>
+      <c r="J233"/>
       <c r="K233"/>
       <c r="L233"/>
       <c r="M233"/>
@@ -4260,6 +4131,7 @@
       <c r="F234"/>
       <c r="H234"/>
       <c r="I234"/>
+      <c r="J234"/>
       <c r="K234"/>
       <c r="L234"/>
       <c r="M234"/>
@@ -4344,10 +4216,8 @@
       <c r="F239"/>
       <c r="H239"/>
       <c r="I239"/>
-      <c r="J239"/>
       <c r="K239"/>
       <c r="L239"/>
-      <c r="M239"/>
       <c r="P239"/>
       <c r="Q239"/>
       <c r="R239" s="1"/>
@@ -4361,10 +4231,8 @@
       <c r="F240"/>
       <c r="H240"/>
       <c r="I240"/>
-      <c r="J240"/>
       <c r="K240"/>
       <c r="L240"/>
-      <c r="M240"/>
       <c r="P240"/>
       <c r="Q240"/>
       <c r="R240" s="1"/>
@@ -4378,10 +4246,8 @@
       <c r="F241"/>
       <c r="H241"/>
       <c r="I241"/>
-      <c r="J241"/>
       <c r="K241"/>
       <c r="L241"/>
-      <c r="M241"/>
       <c r="P241"/>
       <c r="Q241"/>
       <c r="R241" s="1"/>
@@ -4399,6 +4265,7 @@
       <c r="K242"/>
       <c r="L242"/>
       <c r="M242"/>
+      <c r="N242"/>
       <c r="P242"/>
       <c r="Q242"/>
       <c r="R242" s="1"/>
@@ -4416,6 +4283,7 @@
       <c r="K243"/>
       <c r="L243"/>
       <c r="M243"/>
+      <c r="N243"/>
       <c r="P243"/>
       <c r="Q243"/>
       <c r="R243" s="1"/>
@@ -4427,12 +4295,11 @@
       <c r="D244"/>
       <c r="E244"/>
       <c r="F244"/>
-      <c r="H244"/>
       <c r="I244"/>
-      <c r="J244"/>
       <c r="K244"/>
       <c r="L244"/>
       <c r="M244"/>
+      <c r="N244"/>
       <c r="P244"/>
       <c r="Q244"/>
       <c r="R244" s="1"/>
@@ -4444,12 +4311,12 @@
       <c r="D245"/>
       <c r="E245"/>
       <c r="F245"/>
-      <c r="H245"/>
       <c r="I245"/>
       <c r="J245"/>
       <c r="K245"/>
       <c r="L245"/>
       <c r="M245"/>
+      <c r="N245"/>
       <c r="P245"/>
       <c r="Q245"/>
       <c r="R245" s="1"/>
@@ -4461,12 +4328,12 @@
       <c r="D246"/>
       <c r="E246"/>
       <c r="F246"/>
-      <c r="H246"/>
       <c r="I246"/>
       <c r="J246"/>
       <c r="K246"/>
       <c r="L246"/>
       <c r="M246"/>
+      <c r="N246"/>
       <c r="P246"/>
       <c r="Q246"/>
       <c r="R246" s="1"/>
@@ -4480,6 +4347,7 @@
       <c r="F247"/>
       <c r="H247"/>
       <c r="I247"/>
+      <c r="J247"/>
       <c r="K247"/>
       <c r="L247"/>
       <c r="M247"/>
@@ -4496,8 +4364,10 @@
       <c r="F248"/>
       <c r="H248"/>
       <c r="I248"/>
+      <c r="J248"/>
       <c r="K248"/>
       <c r="L248"/>
+      <c r="M248"/>
       <c r="P248"/>
       <c r="Q248"/>
       <c r="R248" s="1"/>
@@ -4511,10 +4381,9 @@
       <c r="F249"/>
       <c r="H249"/>
       <c r="I249"/>
-      <c r="J249"/>
       <c r="K249"/>
       <c r="L249"/>
-      <c r="M249"/>
+      <c r="N249"/>
       <c r="P249"/>
       <c r="Q249"/>
       <c r="R249" s="1"/>
@@ -4528,10 +4397,9 @@
       <c r="F250"/>
       <c r="H250"/>
       <c r="I250"/>
-      <c r="J250"/>
       <c r="K250"/>
       <c r="L250"/>
-      <c r="M250"/>
+      <c r="N250"/>
       <c r="P250"/>
       <c r="Q250"/>
       <c r="R250" s="1"/>
@@ -4545,10 +4413,9 @@
       <c r="F251"/>
       <c r="H251"/>
       <c r="I251"/>
-      <c r="J251"/>
       <c r="K251"/>
       <c r="L251"/>
-      <c r="M251"/>
+      <c r="N251"/>
       <c r="P251"/>
       <c r="Q251"/>
       <c r="R251" s="1"/>
@@ -4562,10 +4429,9 @@
       <c r="F252"/>
       <c r="H252"/>
       <c r="I252"/>
-      <c r="J252"/>
       <c r="K252"/>
       <c r="L252"/>
-      <c r="M252"/>
+      <c r="N252"/>
       <c r="P252"/>
       <c r="Q252"/>
       <c r="R252" s="1"/>
@@ -4577,11 +4443,11 @@
       <c r="D253"/>
       <c r="E253"/>
       <c r="F253"/>
-      <c r="G253"/>
       <c r="H253"/>
       <c r="I253"/>
-      <c r="J253"/>
-      <c r="O253"/>
+      <c r="K253"/>
+      <c r="L253"/>
+      <c r="N253"/>
       <c r="P253"/>
       <c r="Q253"/>
       <c r="R253" s="1"/>
@@ -4629,7 +4495,7 @@
       <c r="I256"/>
       <c r="K256"/>
       <c r="L256"/>
-      <c r="M256"/>
+      <c r="N256"/>
       <c r="P256"/>
       <c r="Q256"/>
       <c r="R256" s="1"/>
@@ -4645,7 +4511,7 @@
       <c r="I257"/>
       <c r="K257"/>
       <c r="L257"/>
-      <c r="M257"/>
+      <c r="N257"/>
       <c r="P257"/>
       <c r="Q257"/>
       <c r="R257" s="1"/>
@@ -4661,7 +4527,7 @@
       <c r="I258"/>
       <c r="K258"/>
       <c r="L258"/>
-      <c r="M258"/>
+      <c r="N258"/>
       <c r="P258"/>
       <c r="Q258"/>
       <c r="R258" s="1"/>
@@ -4677,7 +4543,7 @@
       <c r="I259"/>
       <c r="K259"/>
       <c r="L259"/>
-      <c r="M259"/>
+      <c r="N259"/>
       <c r="P259"/>
       <c r="Q259"/>
       <c r="R259" s="1"/>
@@ -4693,7 +4559,7 @@
       <c r="I260"/>
       <c r="K260"/>
       <c r="L260"/>
-      <c r="M260"/>
+      <c r="N260"/>
       <c r="P260"/>
       <c r="Q260"/>
       <c r="R260" s="1"/>
@@ -4709,7 +4575,7 @@
       <c r="I261"/>
       <c r="K261"/>
       <c r="L261"/>
-      <c r="M261"/>
+      <c r="N261"/>
       <c r="P261"/>
       <c r="Q261"/>
       <c r="R261" s="1"/>
@@ -4723,10 +4589,9 @@
       <c r="F262"/>
       <c r="H262"/>
       <c r="I262"/>
-      <c r="J262"/>
       <c r="K262"/>
       <c r="L262"/>
-      <c r="M262"/>
+      <c r="N262"/>
       <c r="P262"/>
       <c r="Q262"/>
       <c r="R262" s="1"/>
@@ -4742,6 +4607,7 @@
       <c r="I263"/>
       <c r="K263"/>
       <c r="L263"/>
+      <c r="N263"/>
       <c r="P263"/>
       <c r="Q263"/>
       <c r="R263" s="1"/>
@@ -4757,6 +4623,7 @@
       <c r="I264"/>
       <c r="K264"/>
       <c r="L264"/>
+      <c r="N264"/>
       <c r="P264"/>
       <c r="Q264"/>
       <c r="R264" s="1"/>
@@ -4772,7 +4639,6 @@
       <c r="I265"/>
       <c r="K265"/>
       <c r="L265"/>
-      <c r="M265"/>
       <c r="N265"/>
       <c r="P265"/>
       <c r="Q265"/>
@@ -4785,11 +4651,11 @@
       <c r="D266"/>
       <c r="E266"/>
       <c r="F266"/>
+      <c r="H266"/>
       <c r="I266"/>
-      <c r="J266"/>
       <c r="K266"/>
       <c r="L266"/>
-      <c r="M266"/>
+      <c r="N266"/>
       <c r="P266"/>
       <c r="Q266"/>
       <c r="R266" s="1"/>
@@ -4803,7 +4669,6 @@
       <c r="F267"/>
       <c r="H267"/>
       <c r="I267"/>
-      <c r="J267"/>
       <c r="K267"/>
       <c r="L267"/>
       <c r="M267"/>
@@ -4820,7 +4685,6 @@
       <c r="F268"/>
       <c r="H268"/>
       <c r="I268"/>
-      <c r="J268"/>
       <c r="K268"/>
       <c r="L268"/>
       <c r="M268"/>
@@ -4837,7 +4701,6 @@
       <c r="F269"/>
       <c r="H269"/>
       <c r="I269"/>
-      <c r="J269"/>
       <c r="K269"/>
       <c r="L269"/>
       <c r="M269"/>
@@ -4854,7 +4717,6 @@
       <c r="F270"/>
       <c r="H270"/>
       <c r="I270"/>
-      <c r="J270"/>
       <c r="K270"/>
       <c r="L270"/>
       <c r="M270"/>
@@ -4871,7 +4733,6 @@
       <c r="F271"/>
       <c r="H271"/>
       <c r="I271"/>
-      <c r="J271"/>
       <c r="K271"/>
       <c r="L271"/>
       <c r="M271"/>
@@ -4888,7 +4749,6 @@
       <c r="F272"/>
       <c r="H272"/>
       <c r="I272"/>
-      <c r="J272"/>
       <c r="K272"/>
       <c r="L272"/>
       <c r="M272"/>
@@ -4905,7 +4765,6 @@
       <c r="F273"/>
       <c r="H273"/>
       <c r="I273"/>
-      <c r="J273"/>
       <c r="K273"/>
       <c r="L273"/>
       <c r="M273"/>
@@ -4924,7 +4783,7 @@
       <c r="I274"/>
       <c r="K274"/>
       <c r="L274"/>
-      <c r="N274"/>
+      <c r="M274"/>
       <c r="P274"/>
       <c r="Q274"/>
       <c r="R274" s="1"/>
@@ -4940,7 +4799,7 @@
       <c r="I275"/>
       <c r="K275"/>
       <c r="L275"/>
-      <c r="N275"/>
+      <c r="M275"/>
       <c r="P275"/>
       <c r="Q275"/>
       <c r="R275" s="1"/>
@@ -4952,14 +4811,11 @@
       <c r="D276"/>
       <c r="E276"/>
       <c r="F276"/>
-      <c r="G276"/>
       <c r="H276"/>
       <c r="I276"/>
-      <c r="J276"/>
       <c r="K276"/>
       <c r="L276"/>
       <c r="M276"/>
-      <c r="N276"/>
       <c r="P276"/>
       <c r="Q276"/>
       <c r="R276" s="1"/>
@@ -5019,11 +4875,11 @@
       <c r="D280"/>
       <c r="E280"/>
       <c r="F280"/>
+      <c r="H280"/>
       <c r="I280"/>
       <c r="K280"/>
       <c r="L280"/>
       <c r="M280"/>
-      <c r="N280"/>
       <c r="P280"/>
       <c r="Q280"/>
       <c r="R280" s="1"/>
@@ -5035,11 +4891,11 @@
       <c r="D281"/>
       <c r="E281"/>
       <c r="F281"/>
+      <c r="H281"/>
       <c r="I281"/>
       <c r="K281"/>
       <c r="L281"/>
       <c r="M281"/>
-      <c r="N281"/>
       <c r="P281"/>
       <c r="Q281"/>
       <c r="R281" s="1"/>
@@ -5051,11 +4907,12 @@
       <c r="D282"/>
       <c r="E282"/>
       <c r="F282"/>
+      <c r="H282"/>
       <c r="I282"/>
+      <c r="J282"/>
       <c r="K282"/>
       <c r="L282"/>
       <c r="M282"/>
-      <c r="N282"/>
       <c r="P282"/>
       <c r="Q282"/>
       <c r="R282" s="1"/>
@@ -5067,11 +4924,12 @@
       <c r="D283"/>
       <c r="E283"/>
       <c r="F283"/>
+      <c r="H283"/>
       <c r="I283"/>
+      <c r="J283"/>
       <c r="K283"/>
       <c r="L283"/>
       <c r="M283"/>
-      <c r="N283"/>
       <c r="P283"/>
       <c r="Q283"/>
       <c r="R283" s="1"/>
@@ -5085,9 +4943,10 @@
       <c r="F284"/>
       <c r="H284"/>
       <c r="I284"/>
+      <c r="J284"/>
       <c r="K284"/>
       <c r="L284"/>
-      <c r="N284"/>
+      <c r="M284"/>
       <c r="P284"/>
       <c r="Q284"/>
       <c r="R284" s="1"/>
@@ -5101,9 +4960,10 @@
       <c r="F285"/>
       <c r="H285"/>
       <c r="I285"/>
+      <c r="J285"/>
       <c r="K285"/>
       <c r="L285"/>
-      <c r="N285"/>
+      <c r="M285"/>
       <c r="P285"/>
       <c r="Q285"/>
       <c r="R285" s="1"/>
@@ -5115,11 +4975,11 @@
       <c r="D286"/>
       <c r="E286"/>
       <c r="F286"/>
+      <c r="G286"/>
       <c r="H286"/>
       <c r="I286"/>
       <c r="K286"/>
       <c r="L286"/>
-      <c r="N286"/>
       <c r="P286"/>
       <c r="Q286"/>
       <c r="R286" s="1"/>
@@ -5135,7 +4995,6 @@
       <c r="I287"/>
       <c r="K287"/>
       <c r="L287"/>
-      <c r="N287"/>
       <c r="P287"/>
       <c r="Q287"/>
       <c r="R287" s="1"/>
@@ -5151,7 +5010,6 @@
       <c r="I288"/>
       <c r="K288"/>
       <c r="L288"/>
-      <c r="N288"/>
       <c r="P288"/>
       <c r="Q288"/>
       <c r="R288" s="1"/>
@@ -5167,7 +5025,6 @@
       <c r="I289"/>
       <c r="K289"/>
       <c r="L289"/>
-      <c r="M289"/>
       <c r="P289"/>
       <c r="Q289"/>
       <c r="R289" s="1"/>
@@ -5183,7 +5040,6 @@
       <c r="I290"/>
       <c r="K290"/>
       <c r="L290"/>
-      <c r="M290"/>
       <c r="P290"/>
       <c r="Q290"/>
       <c r="R290" s="1"/>
@@ -5199,7 +5055,6 @@
       <c r="I291"/>
       <c r="K291"/>
       <c r="L291"/>
-      <c r="M291"/>
       <c r="P291"/>
       <c r="Q291"/>
       <c r="R291" s="1"/>
@@ -5215,7 +5070,6 @@
       <c r="I292"/>
       <c r="K292"/>
       <c r="L292"/>
-      <c r="M292"/>
       <c r="P292"/>
       <c r="Q292"/>
       <c r="R292" s="1"/>
@@ -5274,10 +5128,10 @@
       <c r="F296"/>
       <c r="H296"/>
       <c r="I296"/>
-      <c r="J296"/>
       <c r="K296"/>
       <c r="L296"/>
       <c r="M296"/>
+      <c r="N296"/>
       <c r="P296"/>
       <c r="Q296"/>
       <c r="R296" s="1"/>
@@ -5295,6 +5149,7 @@
       <c r="K297"/>
       <c r="L297"/>
       <c r="M297"/>
+      <c r="N297"/>
       <c r="P297"/>
       <c r="Q297"/>
       <c r="R297" s="1"/>
@@ -5312,6 +5167,7 @@
       <c r="K298"/>
       <c r="L298"/>
       <c r="M298"/>
+      <c r="N298"/>
       <c r="P298"/>
       <c r="Q298"/>
       <c r="R298" s="1"/>
@@ -5329,6 +5185,7 @@
       <c r="K299"/>
       <c r="L299"/>
       <c r="M299"/>
+      <c r="N299"/>
       <c r="P299"/>
       <c r="Q299"/>
       <c r="R299" s="1"/>
@@ -5346,6 +5203,7 @@
       <c r="K300"/>
       <c r="L300"/>
       <c r="M300"/>
+      <c r="N300"/>
       <c r="P300"/>
       <c r="Q300"/>
       <c r="R300" s="1"/>
@@ -5359,7 +5217,6 @@
       <c r="F301"/>
       <c r="H301"/>
       <c r="I301"/>
-      <c r="J301"/>
       <c r="K301"/>
       <c r="L301"/>
       <c r="M301"/>
@@ -5376,7 +5233,6 @@
       <c r="F302"/>
       <c r="H302"/>
       <c r="I302"/>
-      <c r="J302"/>
       <c r="K302"/>
       <c r="L302"/>
       <c r="M302"/>
@@ -5393,7 +5249,6 @@
       <c r="F303"/>
       <c r="H303"/>
       <c r="I303"/>
-      <c r="J303"/>
       <c r="K303"/>
       <c r="L303"/>
       <c r="M303"/>
@@ -5410,7 +5265,6 @@
       <c r="F304"/>
       <c r="H304"/>
       <c r="I304"/>
-      <c r="J304"/>
       <c r="K304"/>
       <c r="L304"/>
       <c r="M304"/>
@@ -5427,10 +5281,10 @@
       <c r="F305"/>
       <c r="H305"/>
       <c r="I305"/>
-      <c r="J305"/>
       <c r="K305"/>
       <c r="L305"/>
       <c r="M305"/>
+      <c r="N305"/>
       <c r="P305"/>
       <c r="Q305"/>
       <c r="R305" s="1"/>
@@ -5612,6 +5466,7 @@
       <c r="D316"/>
       <c r="E316"/>
       <c r="F316"/>
+      <c r="G316"/>
       <c r="H316"/>
       <c r="I316"/>
       <c r="J316"/>
@@ -6124,10 +5979,10 @@
       <c r="F346"/>
       <c r="H346"/>
       <c r="I346"/>
+      <c r="J346"/>
       <c r="K346"/>
       <c r="L346"/>
       <c r="M346"/>
-      <c r="N346"/>
       <c r="P346"/>
       <c r="Q346"/>
       <c r="R346" s="1"/>
@@ -6175,6 +6030,7 @@
       <c r="F349"/>
       <c r="H349"/>
       <c r="I349"/>
+      <c r="J349"/>
       <c r="K349"/>
       <c r="L349"/>
       <c r="M349"/>
@@ -6191,9 +6047,10 @@
       <c r="F350"/>
       <c r="H350"/>
       <c r="I350"/>
+      <c r="J350"/>
       <c r="K350"/>
       <c r="L350"/>
-      <c r="N350"/>
+      <c r="M350"/>
       <c r="P350"/>
       <c r="Q350"/>
       <c r="R350" s="1"/>
@@ -6258,6 +6115,7 @@
       <c r="F354"/>
       <c r="H354"/>
       <c r="I354"/>
+      <c r="J354"/>
       <c r="K354"/>
       <c r="L354"/>
       <c r="M354"/>
@@ -6274,6 +6132,7 @@
       <c r="F355"/>
       <c r="H355"/>
       <c r="I355"/>
+      <c r="J355"/>
       <c r="K355"/>
       <c r="L355"/>
       <c r="M355"/>
@@ -6294,7 +6153,6 @@
       <c r="K356"/>
       <c r="L356"/>
       <c r="M356"/>
-      <c r="N356"/>
       <c r="P356"/>
       <c r="Q356"/>
       <c r="R356" s="1"/>
@@ -6312,7 +6170,6 @@
       <c r="K357"/>
       <c r="L357"/>
       <c r="M357"/>
-      <c r="N357"/>
       <c r="P357"/>
       <c r="Q357"/>
       <c r="R357" s="1"/>
@@ -6330,7 +6187,6 @@
       <c r="K358"/>
       <c r="L358"/>
       <c r="M358"/>
-      <c r="N358"/>
       <c r="P358"/>
       <c r="Q358"/>
       <c r="R358" s="1"/>
@@ -6348,7 +6204,6 @@
       <c r="K359"/>
       <c r="L359"/>
       <c r="M359"/>
-      <c r="N359"/>
       <c r="P359"/>
       <c r="Q359"/>
       <c r="R359" s="1"/>
@@ -6360,12 +6215,12 @@
       <c r="D360"/>
       <c r="E360"/>
       <c r="F360"/>
+      <c r="H360"/>
       <c r="I360"/>
       <c r="J360"/>
       <c r="K360"/>
       <c r="L360"/>
       <c r="M360"/>
-      <c r="N360"/>
       <c r="P360"/>
       <c r="Q360"/>
       <c r="R360" s="1"/>
@@ -6377,7 +6232,10 @@
       <c r="D361"/>
       <c r="E361"/>
       <c r="F361"/>
+      <c r="G361"/>
+      <c r="H361"/>
       <c r="I361"/>
+      <c r="J361"/>
       <c r="K361"/>
       <c r="L361"/>
       <c r="M361"/>
@@ -6393,6 +6251,8 @@
       <c r="D362"/>
       <c r="E362"/>
       <c r="F362"/>
+      <c r="G362"/>
+      <c r="H362"/>
       <c r="I362"/>
       <c r="J362"/>
       <c r="K362"/>
@@ -6410,6 +6270,8 @@
       <c r="D363"/>
       <c r="E363"/>
       <c r="F363"/>
+      <c r="G363"/>
+      <c r="H363"/>
       <c r="I363"/>
       <c r="J363"/>
       <c r="K363"/>
@@ -6427,6 +6289,8 @@
       <c r="D364"/>
       <c r="E364"/>
       <c r="F364"/>
+      <c r="G364"/>
+      <c r="H364"/>
       <c r="I364"/>
       <c r="J364"/>
       <c r="K364"/>
@@ -6444,12 +6308,14 @@
       <c r="D365"/>
       <c r="E365"/>
       <c r="F365"/>
+      <c r="G365"/>
       <c r="H365"/>
       <c r="I365"/>
       <c r="J365"/>
       <c r="K365"/>
       <c r="L365"/>
       <c r="M365"/>
+      <c r="N365"/>
       <c r="P365"/>
       <c r="Q365"/>
       <c r="R365" s="1"/>
@@ -6480,9 +6346,10 @@
       <c r="F367"/>
       <c r="H367"/>
       <c r="I367"/>
+      <c r="J367"/>
       <c r="K367"/>
       <c r="L367"/>
-      <c r="N367"/>
+      <c r="M367"/>
       <c r="P367"/>
       <c r="Q367"/>
       <c r="R367" s="1"/>
@@ -6496,9 +6363,10 @@
       <c r="F368"/>
       <c r="H368"/>
       <c r="I368"/>
+      <c r="J368"/>
       <c r="K368"/>
       <c r="L368"/>
-      <c r="N368"/>
+      <c r="M368"/>
       <c r="P368"/>
       <c r="Q368"/>
       <c r="R368" s="1"/>
@@ -6512,9 +6380,10 @@
       <c r="F369"/>
       <c r="H369"/>
       <c r="I369"/>
+      <c r="J369"/>
       <c r="K369"/>
       <c r="L369"/>
-      <c r="N369"/>
+      <c r="M369"/>
       <c r="P369"/>
       <c r="Q369"/>
       <c r="R369" s="1"/>
@@ -6528,6 +6397,7 @@
       <c r="F370"/>
       <c r="H370"/>
       <c r="I370"/>
+      <c r="J370"/>
       <c r="K370"/>
       <c r="L370"/>
       <c r="M370"/>
@@ -6544,6 +6414,7 @@
       <c r="F371"/>
       <c r="H371"/>
       <c r="I371"/>
+      <c r="J371"/>
       <c r="K371"/>
       <c r="L371"/>
       <c r="M371"/>
@@ -6560,6 +6431,7 @@
       <c r="F372"/>
       <c r="H372"/>
       <c r="I372"/>
+      <c r="J372"/>
       <c r="K372"/>
       <c r="L372"/>
       <c r="M372"/>
@@ -6576,6 +6448,7 @@
       <c r="F373"/>
       <c r="H373"/>
       <c r="I373"/>
+      <c r="J373"/>
       <c r="K373"/>
       <c r="L373"/>
       <c r="M373"/>
@@ -6592,6 +6465,7 @@
       <c r="F374"/>
       <c r="H374"/>
       <c r="I374"/>
+      <c r="J374"/>
       <c r="K374"/>
       <c r="L374"/>
       <c r="M374"/>
@@ -6608,6 +6482,7 @@
       <c r="F375"/>
       <c r="H375"/>
       <c r="I375"/>
+      <c r="J375"/>
       <c r="K375"/>
       <c r="L375"/>
       <c r="M375"/>
@@ -6624,6 +6499,7 @@
       <c r="F376"/>
       <c r="H376"/>
       <c r="I376"/>
+      <c r="J376"/>
       <c r="K376"/>
       <c r="L376"/>
       <c r="M376"/>
@@ -6640,6 +6516,7 @@
       <c r="F377"/>
       <c r="H377"/>
       <c r="I377"/>
+      <c r="J377"/>
       <c r="K377"/>
       <c r="L377"/>
       <c r="M377"/>
@@ -6656,6 +6533,7 @@
       <c r="F378"/>
       <c r="H378"/>
       <c r="I378"/>
+      <c r="J378"/>
       <c r="K378"/>
       <c r="L378"/>
       <c r="M378"/>
@@ -6672,6 +6550,7 @@
       <c r="F379"/>
       <c r="H379"/>
       <c r="I379"/>
+      <c r="J379"/>
       <c r="K379"/>
       <c r="L379"/>
       <c r="M379"/>
@@ -6688,6 +6567,7 @@
       <c r="F380"/>
       <c r="H380"/>
       <c r="I380"/>
+      <c r="J380"/>
       <c r="K380"/>
       <c r="L380"/>
       <c r="M380"/>
@@ -6702,11 +6582,14 @@
       <c r="D381"/>
       <c r="E381"/>
       <c r="F381"/>
+      <c r="G381"/>
       <c r="H381"/>
       <c r="I381"/>
+      <c r="J381"/>
       <c r="K381"/>
       <c r="L381"/>
       <c r="M381"/>
+      <c r="N381"/>
       <c r="P381"/>
       <c r="Q381"/>
       <c r="R381" s="1"/>
@@ -6718,11 +6601,14 @@
       <c r="D382"/>
       <c r="E382"/>
       <c r="F382"/>
+      <c r="G382"/>
       <c r="H382"/>
       <c r="I382"/>
+      <c r="J382"/>
       <c r="K382"/>
       <c r="L382"/>
       <c r="M382"/>
+      <c r="N382"/>
       <c r="P382"/>
       <c r="Q382"/>
       <c r="R382" s="1"/>
@@ -6734,11 +6620,14 @@
       <c r="D383"/>
       <c r="E383"/>
       <c r="F383"/>
+      <c r="G383"/>
       <c r="H383"/>
       <c r="I383"/>
+      <c r="J383"/>
       <c r="K383"/>
       <c r="L383"/>
       <c r="M383"/>
+      <c r="N383"/>
       <c r="P383"/>
       <c r="Q383"/>
       <c r="R383" s="1"/>
@@ -6750,3170 +6639,152 @@
       <c r="D384"/>
       <c r="E384"/>
       <c r="F384"/>
+      <c r="G384"/>
       <c r="H384"/>
       <c r="I384"/>
+      <c r="J384"/>
       <c r="K384"/>
       <c r="L384"/>
       <c r="M384"/>
+      <c r="N384"/>
       <c r="P384"/>
       <c r="Q384"/>
       <c r="R384" s="1"/>
     </row>
-    <row r="385" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A385"/>
       <c r="B385"/>
       <c r="C385"/>
       <c r="D385"/>
       <c r="E385"/>
       <c r="F385"/>
+      <c r="G385"/>
       <c r="H385"/>
       <c r="I385"/>
+      <c r="J385"/>
       <c r="K385"/>
       <c r="L385"/>
       <c r="M385"/>
+      <c r="N385"/>
       <c r="P385"/>
       <c r="Q385"/>
       <c r="R385" s="1"/>
     </row>
-    <row r="386" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A386"/>
       <c r="B386"/>
       <c r="C386"/>
       <c r="D386"/>
       <c r="E386"/>
       <c r="F386"/>
+      <c r="G386"/>
       <c r="H386"/>
       <c r="I386"/>
+      <c r="J386"/>
       <c r="K386"/>
       <c r="L386"/>
       <c r="M386"/>
+      <c r="N386"/>
       <c r="P386"/>
       <c r="Q386"/>
       <c r="R386" s="1"/>
     </row>
-    <row r="387" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A387"/>
       <c r="B387"/>
       <c r="C387"/>
       <c r="D387"/>
       <c r="E387"/>
       <c r="F387"/>
+      <c r="G387"/>
       <c r="H387"/>
       <c r="I387"/>
+      <c r="J387"/>
       <c r="K387"/>
       <c r="L387"/>
       <c r="M387"/>
+      <c r="N387"/>
       <c r="P387"/>
       <c r="Q387"/>
       <c r="R387" s="1"/>
     </row>
-    <row r="388" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A388"/>
       <c r="B388"/>
       <c r="C388"/>
       <c r="D388"/>
       <c r="E388"/>
       <c r="F388"/>
+      <c r="G388"/>
       <c r="H388"/>
       <c r="I388"/>
       <c r="J388"/>
       <c r="K388"/>
       <c r="L388"/>
       <c r="M388"/>
+      <c r="N388"/>
       <c r="P388"/>
       <c r="Q388"/>
       <c r="R388" s="1"/>
     </row>
-    <row r="389" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A389"/>
-      <c r="B389"/>
-      <c r="C389"/>
-      <c r="D389"/>
-      <c r="E389"/>
-      <c r="F389"/>
-      <c r="H389"/>
-      <c r="I389"/>
-      <c r="J389"/>
-      <c r="K389"/>
-      <c r="L389"/>
-      <c r="M389"/>
-      <c r="P389"/>
-      <c r="Q389"/>
       <c r="R389" s="1"/>
-    </row>
-    <row r="390" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S389"/>
+      <c r="T389"/>
+      <c r="U389"/>
+    </row>
+    <row r="390" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A390"/>
-      <c r="B390"/>
-      <c r="C390"/>
-      <c r="D390"/>
-      <c r="E390"/>
-      <c r="F390"/>
-      <c r="H390"/>
-      <c r="I390"/>
-      <c r="J390"/>
-      <c r="K390"/>
-      <c r="L390"/>
-      <c r="M390"/>
-      <c r="P390"/>
-      <c r="Q390"/>
       <c r="R390" s="1"/>
-    </row>
-    <row r="391" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S390"/>
+      <c r="T390"/>
+      <c r="U390"/>
+    </row>
+    <row r="391" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A391"/>
-      <c r="B391"/>
-      <c r="C391"/>
-      <c r="D391"/>
-      <c r="E391"/>
-      <c r="F391"/>
-      <c r="H391"/>
-      <c r="I391"/>
-      <c r="K391"/>
-      <c r="L391"/>
-      <c r="P391"/>
-      <c r="Q391"/>
       <c r="R391" s="1"/>
-    </row>
-    <row r="392" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A392"/>
-      <c r="B392"/>
-      <c r="C392"/>
-      <c r="D392"/>
-      <c r="E392"/>
-      <c r="F392"/>
-      <c r="H392"/>
-      <c r="I392"/>
-      <c r="K392"/>
-      <c r="L392"/>
-      <c r="P392"/>
-      <c r="Q392"/>
+      <c r="S391"/>
+      <c r="T391"/>
+      <c r="U391"/>
+    </row>
+    <row r="392" spans="1:22" x14ac:dyDescent="0.25">
       <c r="R392" s="1"/>
-    </row>
-    <row r="393" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A393"/>
-      <c r="B393"/>
-      <c r="C393"/>
-      <c r="D393"/>
-      <c r="E393"/>
-      <c r="F393"/>
-      <c r="H393"/>
-      <c r="I393"/>
-      <c r="K393"/>
-      <c r="L393"/>
-      <c r="P393"/>
-      <c r="Q393"/>
+      <c r="S392"/>
+      <c r="T392"/>
+      <c r="U392"/>
+    </row>
+    <row r="393" spans="1:22" x14ac:dyDescent="0.25">
       <c r="R393" s="1"/>
-    </row>
-    <row r="394" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A394"/>
-      <c r="B394"/>
-      <c r="C394"/>
-      <c r="D394"/>
-      <c r="E394"/>
-      <c r="F394"/>
-      <c r="H394"/>
-      <c r="I394"/>
-      <c r="K394"/>
-      <c r="L394"/>
-      <c r="P394"/>
-      <c r="Q394"/>
+      <c r="S393"/>
+      <c r="T393"/>
+      <c r="U393"/>
+    </row>
+    <row r="394" spans="1:22" x14ac:dyDescent="0.25">
       <c r="R394" s="1"/>
-    </row>
-    <row r="395" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A395"/>
-      <c r="B395"/>
-      <c r="C395"/>
-      <c r="D395"/>
-      <c r="E395"/>
-      <c r="F395"/>
-      <c r="H395"/>
-      <c r="I395"/>
-      <c r="K395"/>
-      <c r="L395"/>
-      <c r="M395"/>
-      <c r="P395"/>
-      <c r="Q395"/>
+      <c r="S394"/>
+      <c r="T394"/>
+    </row>
+    <row r="395" spans="1:22" x14ac:dyDescent="0.25">
       <c r="R395" s="1"/>
-    </row>
-    <row r="396" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A396"/>
-      <c r="B396"/>
-      <c r="C396"/>
-      <c r="D396"/>
-      <c r="E396"/>
-      <c r="F396"/>
-      <c r="H396"/>
-      <c r="I396"/>
-      <c r="J396"/>
-      <c r="K396"/>
-      <c r="L396"/>
-      <c r="M396"/>
-      <c r="N396"/>
-      <c r="P396"/>
-      <c r="Q396"/>
+      <c r="S395"/>
+      <c r="T395"/>
+    </row>
+    <row r="396" spans="1:22" x14ac:dyDescent="0.25">
       <c r="R396" s="1"/>
-    </row>
-    <row r="397" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V396"/>
+    </row>
+    <row r="397" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A397"/>
-      <c r="B397"/>
-      <c r="C397"/>
-      <c r="D397"/>
-      <c r="E397"/>
-      <c r="F397"/>
-      <c r="H397"/>
-      <c r="I397"/>
-      <c r="J397"/>
-      <c r="K397"/>
-      <c r="L397"/>
-      <c r="M397"/>
-      <c r="N397"/>
-      <c r="P397"/>
-      <c r="Q397"/>
       <c r="R397" s="1"/>
     </row>
-    <row r="398" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A398"/>
-      <c r="B398"/>
-      <c r="C398"/>
-      <c r="D398"/>
-      <c r="E398"/>
-      <c r="F398"/>
-      <c r="H398"/>
-      <c r="I398"/>
-      <c r="J398"/>
-      <c r="K398"/>
-      <c r="L398"/>
-      <c r="M398"/>
-      <c r="N398"/>
-      <c r="P398"/>
-      <c r="Q398"/>
       <c r="R398" s="1"/>
     </row>
-    <row r="399" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A399"/>
-      <c r="B399"/>
-      <c r="C399"/>
-      <c r="D399"/>
-      <c r="E399"/>
-      <c r="F399"/>
-      <c r="H399"/>
-      <c r="I399"/>
-      <c r="J399"/>
-      <c r="K399"/>
-      <c r="L399"/>
-      <c r="M399"/>
-      <c r="N399"/>
-      <c r="P399"/>
-      <c r="Q399"/>
       <c r="R399" s="1"/>
-    </row>
-    <row r="400" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A400"/>
-      <c r="B400"/>
-      <c r="C400"/>
-      <c r="D400"/>
-      <c r="E400"/>
-      <c r="F400"/>
-      <c r="H400"/>
-      <c r="I400"/>
-      <c r="J400"/>
-      <c r="K400"/>
-      <c r="L400"/>
-      <c r="M400"/>
-      <c r="N400"/>
-      <c r="P400"/>
-      <c r="Q400"/>
-      <c r="R400" s="1"/>
-    </row>
-    <row r="401" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A401"/>
-      <c r="B401"/>
-      <c r="C401"/>
-      <c r="D401"/>
-      <c r="E401"/>
-      <c r="F401"/>
-      <c r="H401"/>
-      <c r="I401"/>
-      <c r="J401"/>
-      <c r="K401"/>
-      <c r="L401"/>
-      <c r="M401"/>
-      <c r="N401"/>
-      <c r="P401"/>
-      <c r="Q401"/>
-      <c r="R401" s="1"/>
-    </row>
-    <row r="402" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A402"/>
-      <c r="B402"/>
-      <c r="C402"/>
-      <c r="D402"/>
-      <c r="E402"/>
-      <c r="F402"/>
-      <c r="H402"/>
-      <c r="I402"/>
-      <c r="J402"/>
-      <c r="K402"/>
-      <c r="L402"/>
-      <c r="M402"/>
-      <c r="P402"/>
-      <c r="Q402"/>
-      <c r="R402" s="1"/>
-    </row>
-    <row r="403" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A403"/>
-      <c r="B403"/>
-      <c r="C403"/>
-      <c r="D403"/>
-      <c r="E403"/>
-      <c r="F403"/>
-      <c r="H403"/>
-      <c r="I403"/>
-      <c r="J403"/>
-      <c r="K403"/>
-      <c r="L403"/>
-      <c r="M403"/>
-      <c r="P403"/>
-      <c r="Q403"/>
-      <c r="R403" s="1"/>
-    </row>
-    <row r="404" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A404"/>
-      <c r="B404"/>
-      <c r="C404"/>
-      <c r="D404"/>
-      <c r="E404"/>
-      <c r="F404"/>
-      <c r="H404"/>
-      <c r="I404"/>
-      <c r="J404"/>
-      <c r="K404"/>
-      <c r="L404"/>
-      <c r="M404"/>
-      <c r="P404"/>
-      <c r="Q404"/>
-      <c r="R404" s="1"/>
-    </row>
-    <row r="405" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A405"/>
-      <c r="B405"/>
-      <c r="C405"/>
-      <c r="D405"/>
-      <c r="E405"/>
-      <c r="F405"/>
-      <c r="H405"/>
-      <c r="I405"/>
-      <c r="J405"/>
-      <c r="K405"/>
-      <c r="L405"/>
-      <c r="M405"/>
-      <c r="P405"/>
-      <c r="Q405"/>
-      <c r="R405" s="1"/>
-    </row>
-    <row r="406" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A406"/>
-      <c r="B406"/>
-      <c r="C406"/>
-      <c r="D406"/>
-      <c r="E406"/>
-      <c r="F406"/>
-      <c r="H406"/>
-      <c r="I406"/>
-      <c r="J406"/>
-      <c r="K406"/>
-      <c r="L406"/>
-      <c r="M406"/>
-      <c r="P406"/>
-      <c r="Q406"/>
-      <c r="R406" s="1"/>
-    </row>
-    <row r="407" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A407"/>
-      <c r="B407"/>
-      <c r="C407"/>
-      <c r="D407"/>
-      <c r="E407"/>
-      <c r="F407"/>
-      <c r="H407"/>
-      <c r="I407"/>
-      <c r="J407"/>
-      <c r="K407"/>
-      <c r="L407"/>
-      <c r="M407"/>
-      <c r="P407"/>
-      <c r="Q407"/>
-      <c r="R407" s="1"/>
-    </row>
-    <row r="408" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A408"/>
-      <c r="B408"/>
-      <c r="C408"/>
-      <c r="D408"/>
-      <c r="E408"/>
-      <c r="F408"/>
-      <c r="H408"/>
-      <c r="I408"/>
-      <c r="J408"/>
-      <c r="K408"/>
-      <c r="L408"/>
-      <c r="M408"/>
-      <c r="P408"/>
-      <c r="Q408"/>
-      <c r="R408" s="1"/>
-    </row>
-    <row r="409" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A409"/>
-      <c r="B409"/>
-      <c r="C409"/>
-      <c r="D409"/>
-      <c r="E409"/>
-      <c r="F409"/>
-      <c r="H409"/>
-      <c r="I409"/>
-      <c r="J409"/>
-      <c r="K409"/>
-      <c r="L409"/>
-      <c r="M409"/>
-      <c r="P409"/>
-      <c r="Q409"/>
-      <c r="R409" s="1"/>
-    </row>
-    <row r="410" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A410"/>
-      <c r="B410"/>
-      <c r="C410"/>
-      <c r="D410"/>
-      <c r="E410"/>
-      <c r="F410"/>
-      <c r="H410"/>
-      <c r="I410"/>
-      <c r="J410"/>
-      <c r="K410"/>
-      <c r="L410"/>
-      <c r="M410"/>
-      <c r="P410"/>
-      <c r="Q410"/>
-      <c r="R410" s="1"/>
-    </row>
-    <row r="411" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A411"/>
-      <c r="B411"/>
-      <c r="C411"/>
-      <c r="D411"/>
-      <c r="E411"/>
-      <c r="F411"/>
-      <c r="H411"/>
-      <c r="I411"/>
-      <c r="J411"/>
-      <c r="K411"/>
-      <c r="L411"/>
-      <c r="M411"/>
-      <c r="P411"/>
-      <c r="Q411"/>
-      <c r="R411" s="1"/>
-    </row>
-    <row r="412" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A412"/>
-      <c r="B412"/>
-      <c r="C412"/>
-      <c r="D412"/>
-      <c r="E412"/>
-      <c r="F412"/>
-      <c r="H412"/>
-      <c r="I412"/>
-      <c r="J412"/>
-      <c r="K412"/>
-      <c r="L412"/>
-      <c r="M412"/>
-      <c r="P412"/>
-      <c r="Q412"/>
-      <c r="R412" s="1"/>
-    </row>
-    <row r="413" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A413"/>
-      <c r="B413"/>
-      <c r="C413"/>
-      <c r="D413"/>
-      <c r="E413"/>
-      <c r="F413"/>
-      <c r="H413"/>
-      <c r="I413"/>
-      <c r="J413"/>
-      <c r="K413"/>
-      <c r="L413"/>
-      <c r="M413"/>
-      <c r="P413"/>
-      <c r="Q413"/>
-      <c r="R413" s="1"/>
-    </row>
-    <row r="414" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A414"/>
-      <c r="B414"/>
-      <c r="C414"/>
-      <c r="D414"/>
-      <c r="E414"/>
-      <c r="F414"/>
-      <c r="H414"/>
-      <c r="I414"/>
-      <c r="K414"/>
-      <c r="L414"/>
-      <c r="M414"/>
-      <c r="P414"/>
-      <c r="Q414"/>
-      <c r="R414" s="1"/>
-    </row>
-    <row r="415" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A415"/>
-      <c r="B415"/>
-      <c r="C415"/>
-      <c r="D415"/>
-      <c r="E415"/>
-      <c r="F415"/>
-      <c r="H415"/>
-      <c r="I415"/>
-      <c r="J415"/>
-      <c r="K415"/>
-      <c r="L415"/>
-      <c r="M415"/>
-      <c r="P415"/>
-      <c r="Q415"/>
-      <c r="R415" s="1"/>
-    </row>
-    <row r="416" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A416"/>
-      <c r="B416"/>
-      <c r="C416"/>
-      <c r="D416"/>
-      <c r="E416"/>
-      <c r="F416"/>
-      <c r="H416"/>
-      <c r="I416"/>
-      <c r="J416"/>
-      <c r="K416"/>
-      <c r="L416"/>
-      <c r="M416"/>
-      <c r="P416"/>
-      <c r="Q416"/>
-      <c r="R416" s="1"/>
-    </row>
-    <row r="417" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A417"/>
-      <c r="B417"/>
-      <c r="C417"/>
-      <c r="D417"/>
-      <c r="E417"/>
-      <c r="F417"/>
-      <c r="H417"/>
-      <c r="I417"/>
-      <c r="J417"/>
-      <c r="K417"/>
-      <c r="L417"/>
-      <c r="M417"/>
-      <c r="P417"/>
-      <c r="Q417"/>
-      <c r="R417" s="1"/>
-    </row>
-    <row r="418" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A418"/>
-      <c r="B418"/>
-      <c r="C418"/>
-      <c r="D418"/>
-      <c r="E418"/>
-      <c r="F418"/>
-      <c r="H418"/>
-      <c r="I418"/>
-      <c r="J418"/>
-      <c r="K418"/>
-      <c r="L418"/>
-      <c r="M418"/>
-      <c r="P418"/>
-      <c r="Q418"/>
-      <c r="R418" s="1"/>
-    </row>
-    <row r="419" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A419"/>
-      <c r="B419"/>
-      <c r="C419"/>
-      <c r="D419"/>
-      <c r="E419"/>
-      <c r="F419"/>
-      <c r="H419"/>
-      <c r="I419"/>
-      <c r="J419"/>
-      <c r="K419"/>
-      <c r="L419"/>
-      <c r="M419"/>
-      <c r="P419"/>
-      <c r="Q419"/>
-      <c r="R419" s="1"/>
-    </row>
-    <row r="420" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A420"/>
-      <c r="B420"/>
-      <c r="C420"/>
-      <c r="D420"/>
-      <c r="E420"/>
-      <c r="F420"/>
-      <c r="H420"/>
-      <c r="I420"/>
-      <c r="J420"/>
-      <c r="K420"/>
-      <c r="L420"/>
-      <c r="M420"/>
-      <c r="P420"/>
-      <c r="Q420"/>
-      <c r="R420" s="1"/>
-    </row>
-    <row r="421" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A421"/>
-      <c r="B421"/>
-      <c r="C421"/>
-      <c r="D421"/>
-      <c r="E421"/>
-      <c r="F421"/>
-      <c r="H421"/>
-      <c r="I421"/>
-      <c r="J421"/>
-      <c r="K421"/>
-      <c r="L421"/>
-      <c r="M421"/>
-      <c r="P421"/>
-      <c r="Q421"/>
-      <c r="R421" s="1"/>
-    </row>
-    <row r="422" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A422"/>
-      <c r="B422"/>
-      <c r="C422"/>
-      <c r="D422"/>
-      <c r="E422"/>
-      <c r="F422"/>
-      <c r="H422"/>
-      <c r="I422"/>
-      <c r="J422"/>
-      <c r="K422"/>
-      <c r="L422"/>
-      <c r="M422"/>
-      <c r="P422"/>
-      <c r="Q422"/>
-      <c r="R422" s="1"/>
-    </row>
-    <row r="423" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A423"/>
-      <c r="B423"/>
-      <c r="C423"/>
-      <c r="D423"/>
-      <c r="E423"/>
-      <c r="F423"/>
-      <c r="H423"/>
-      <c r="I423"/>
-      <c r="K423"/>
-      <c r="L423"/>
-      <c r="M423"/>
-      <c r="N423"/>
-      <c r="P423"/>
-      <c r="Q423"/>
-      <c r="R423" s="1"/>
-    </row>
-    <row r="424" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A424"/>
-      <c r="B424"/>
-      <c r="C424"/>
-      <c r="D424"/>
-      <c r="E424"/>
-      <c r="F424"/>
-      <c r="H424"/>
-      <c r="I424"/>
-      <c r="K424"/>
-      <c r="L424"/>
-      <c r="M424"/>
-      <c r="N424"/>
-      <c r="P424"/>
-      <c r="Q424"/>
-      <c r="R424" s="1"/>
-    </row>
-    <row r="425" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A425"/>
-      <c r="B425"/>
-      <c r="C425"/>
-      <c r="D425"/>
-      <c r="E425"/>
-      <c r="F425"/>
-      <c r="H425"/>
-      <c r="I425"/>
-      <c r="K425"/>
-      <c r="L425"/>
-      <c r="M425"/>
-      <c r="P425"/>
-      <c r="Q425"/>
-      <c r="R425" s="1"/>
-    </row>
-    <row r="426" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A426"/>
-      <c r="B426"/>
-      <c r="C426"/>
-      <c r="D426"/>
-      <c r="E426"/>
-      <c r="F426"/>
-      <c r="H426"/>
-      <c r="I426"/>
-      <c r="J426"/>
-      <c r="K426"/>
-      <c r="L426"/>
-      <c r="M426"/>
-      <c r="P426"/>
-      <c r="Q426"/>
-      <c r="R426" s="1"/>
-    </row>
-    <row r="427" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A427"/>
-      <c r="B427"/>
-      <c r="C427"/>
-      <c r="D427"/>
-      <c r="E427"/>
-      <c r="F427"/>
-      <c r="G427"/>
-      <c r="H427"/>
-      <c r="I427"/>
-      <c r="J427"/>
-      <c r="K427"/>
-      <c r="L427"/>
-      <c r="M427"/>
-      <c r="N427"/>
-      <c r="P427"/>
-      <c r="Q427"/>
-      <c r="R427" s="1"/>
-    </row>
-    <row r="428" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A428"/>
-      <c r="B428"/>
-      <c r="C428"/>
-      <c r="D428"/>
-      <c r="E428"/>
-      <c r="F428"/>
-      <c r="H428"/>
-      <c r="I428"/>
-      <c r="K428"/>
-      <c r="L428"/>
-      <c r="M428"/>
-      <c r="N428"/>
-      <c r="P428"/>
-      <c r="Q428"/>
-      <c r="R428" s="1"/>
-    </row>
-    <row r="429" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A429"/>
-      <c r="B429"/>
-      <c r="C429"/>
-      <c r="D429"/>
-      <c r="E429"/>
-      <c r="F429"/>
-      <c r="H429"/>
-      <c r="I429"/>
-      <c r="J429"/>
-      <c r="K429"/>
-      <c r="L429"/>
-      <c r="M429"/>
-      <c r="P429"/>
-      <c r="Q429"/>
-      <c r="R429" s="1"/>
-    </row>
-    <row r="430" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A430"/>
-      <c r="B430"/>
-      <c r="C430"/>
-      <c r="D430"/>
-      <c r="E430"/>
-      <c r="F430"/>
-      <c r="H430"/>
-      <c r="I430"/>
-      <c r="J430"/>
-      <c r="K430"/>
-      <c r="L430"/>
-      <c r="M430"/>
-      <c r="P430"/>
-      <c r="Q430"/>
-      <c r="R430" s="1"/>
-    </row>
-    <row r="431" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A431"/>
-      <c r="B431"/>
-      <c r="C431"/>
-      <c r="D431"/>
-      <c r="E431"/>
-      <c r="F431"/>
-      <c r="H431"/>
-      <c r="I431"/>
-      <c r="J431"/>
-      <c r="K431"/>
-      <c r="L431"/>
-      <c r="M431"/>
-      <c r="P431"/>
-      <c r="Q431"/>
-      <c r="R431" s="1"/>
-    </row>
-    <row r="432" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A432"/>
-      <c r="B432"/>
-      <c r="C432"/>
-      <c r="D432"/>
-      <c r="E432"/>
-      <c r="F432"/>
-      <c r="H432"/>
-      <c r="I432"/>
-      <c r="J432"/>
-      <c r="K432"/>
-      <c r="L432"/>
-      <c r="M432"/>
-      <c r="P432"/>
-      <c r="Q432"/>
-      <c r="R432" s="1"/>
-    </row>
-    <row r="433" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A433"/>
-      <c r="B433"/>
-      <c r="C433"/>
-      <c r="D433"/>
-      <c r="E433"/>
-      <c r="F433"/>
-      <c r="H433"/>
-      <c r="I433"/>
-      <c r="J433"/>
-      <c r="K433"/>
-      <c r="L433"/>
-      <c r="M433"/>
-      <c r="P433"/>
-      <c r="Q433"/>
-      <c r="R433" s="1"/>
-    </row>
-    <row r="434" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A434"/>
-      <c r="B434"/>
-      <c r="C434"/>
-      <c r="D434"/>
-      <c r="E434"/>
-      <c r="F434"/>
-      <c r="H434"/>
-      <c r="I434"/>
-      <c r="J434"/>
-      <c r="K434"/>
-      <c r="L434"/>
-      <c r="M434"/>
-      <c r="P434"/>
-      <c r="Q434"/>
-      <c r="R434" s="1"/>
-    </row>
-    <row r="435" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A435"/>
-      <c r="B435"/>
-      <c r="C435"/>
-      <c r="D435"/>
-      <c r="E435"/>
-      <c r="F435"/>
-      <c r="H435"/>
-      <c r="I435"/>
-      <c r="J435"/>
-      <c r="K435"/>
-      <c r="L435"/>
-      <c r="M435"/>
-      <c r="P435"/>
-      <c r="Q435"/>
-      <c r="R435" s="1"/>
-    </row>
-    <row r="436" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A436"/>
-      <c r="B436"/>
-      <c r="C436"/>
-      <c r="D436"/>
-      <c r="E436"/>
-      <c r="F436"/>
-      <c r="H436"/>
-      <c r="I436"/>
-      <c r="J436"/>
-      <c r="K436"/>
-      <c r="L436"/>
-      <c r="M436"/>
-      <c r="P436"/>
-      <c r="Q436"/>
-      <c r="R436" s="1"/>
-    </row>
-    <row r="437" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A437"/>
-      <c r="B437"/>
-      <c r="C437"/>
-      <c r="D437"/>
-      <c r="E437"/>
-      <c r="F437"/>
-      <c r="H437"/>
-      <c r="I437"/>
-      <c r="J437"/>
-      <c r="K437"/>
-      <c r="L437"/>
-      <c r="M437"/>
-      <c r="P437"/>
-      <c r="Q437"/>
-      <c r="R437" s="1"/>
-    </row>
-    <row r="438" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A438"/>
-      <c r="B438"/>
-      <c r="C438"/>
-      <c r="D438"/>
-      <c r="E438"/>
-      <c r="F438"/>
-      <c r="H438"/>
-      <c r="I438"/>
-      <c r="J438"/>
-      <c r="K438"/>
-      <c r="L438"/>
-      <c r="M438"/>
-      <c r="P438"/>
-      <c r="Q438"/>
-      <c r="R438" s="1"/>
-    </row>
-    <row r="439" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A439"/>
-      <c r="B439"/>
-      <c r="C439"/>
-      <c r="D439"/>
-      <c r="E439"/>
-      <c r="F439"/>
-      <c r="H439"/>
-      <c r="I439"/>
-      <c r="J439"/>
-      <c r="K439"/>
-      <c r="L439"/>
-      <c r="M439"/>
-      <c r="P439"/>
-      <c r="Q439"/>
-      <c r="R439" s="1"/>
-    </row>
-    <row r="440" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A440"/>
-      <c r="B440"/>
-      <c r="C440"/>
-      <c r="D440"/>
-      <c r="E440"/>
-      <c r="F440"/>
-      <c r="H440"/>
-      <c r="I440"/>
-      <c r="J440"/>
-      <c r="K440"/>
-      <c r="L440"/>
-      <c r="M440"/>
-      <c r="P440"/>
-      <c r="Q440"/>
-      <c r="R440" s="1"/>
-    </row>
-    <row r="441" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A441"/>
-      <c r="B441"/>
-      <c r="C441"/>
-      <c r="D441"/>
-      <c r="E441"/>
-      <c r="F441"/>
-      <c r="H441"/>
-      <c r="I441"/>
-      <c r="J441"/>
-      <c r="K441"/>
-      <c r="L441"/>
-      <c r="M441"/>
-      <c r="P441"/>
-      <c r="Q441"/>
-      <c r="R441" s="1"/>
-    </row>
-    <row r="442" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A442"/>
-      <c r="B442"/>
-      <c r="C442"/>
-      <c r="D442"/>
-      <c r="E442"/>
-      <c r="F442"/>
-      <c r="H442"/>
-      <c r="I442"/>
-      <c r="J442"/>
-      <c r="K442"/>
-      <c r="L442"/>
-      <c r="M442"/>
-      <c r="P442"/>
-      <c r="Q442"/>
-      <c r="R442" s="1"/>
-    </row>
-    <row r="443" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A443"/>
-      <c r="B443"/>
-      <c r="C443"/>
-      <c r="D443"/>
-      <c r="E443"/>
-      <c r="F443"/>
-      <c r="H443"/>
-      <c r="I443"/>
-      <c r="J443"/>
-      <c r="K443"/>
-      <c r="L443"/>
-      <c r="M443"/>
-      <c r="P443"/>
-      <c r="Q443"/>
-      <c r="R443" s="1"/>
-    </row>
-    <row r="444" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A444"/>
-      <c r="B444"/>
-      <c r="C444"/>
-      <c r="D444"/>
-      <c r="E444"/>
-      <c r="F444"/>
-      <c r="H444"/>
-      <c r="I444"/>
-      <c r="J444"/>
-      <c r="K444"/>
-      <c r="L444"/>
-      <c r="M444"/>
-      <c r="P444"/>
-      <c r="Q444"/>
-      <c r="R444" s="1"/>
-    </row>
-    <row r="445" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A445"/>
-      <c r="B445"/>
-      <c r="C445"/>
-      <c r="D445"/>
-      <c r="E445"/>
-      <c r="F445"/>
-      <c r="H445"/>
-      <c r="I445"/>
-      <c r="J445"/>
-      <c r="K445"/>
-      <c r="L445"/>
-      <c r="M445"/>
-      <c r="P445"/>
-      <c r="Q445"/>
-      <c r="R445" s="1"/>
-    </row>
-    <row r="446" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A446"/>
-      <c r="B446"/>
-      <c r="C446"/>
-      <c r="D446"/>
-      <c r="E446"/>
-      <c r="F446"/>
-      <c r="H446"/>
-      <c r="I446"/>
-      <c r="J446"/>
-      <c r="K446"/>
-      <c r="L446"/>
-      <c r="M446"/>
-      <c r="P446"/>
-      <c r="Q446"/>
-      <c r="R446" s="1"/>
-    </row>
-    <row r="447" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A447"/>
-      <c r="B447"/>
-      <c r="C447"/>
-      <c r="D447"/>
-      <c r="E447"/>
-      <c r="F447"/>
-      <c r="H447"/>
-      <c r="I447"/>
-      <c r="J447"/>
-      <c r="K447"/>
-      <c r="L447"/>
-      <c r="M447"/>
-      <c r="P447"/>
-      <c r="Q447"/>
-      <c r="R447" s="1"/>
-    </row>
-    <row r="448" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A448"/>
-      <c r="B448"/>
-      <c r="C448"/>
-      <c r="D448"/>
-      <c r="E448"/>
-      <c r="F448"/>
-      <c r="H448"/>
-      <c r="I448"/>
-      <c r="J448"/>
-      <c r="K448"/>
-      <c r="L448"/>
-      <c r="M448"/>
-      <c r="P448"/>
-      <c r="Q448"/>
-      <c r="R448" s="1"/>
-    </row>
-    <row r="449" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A449"/>
-      <c r="B449"/>
-      <c r="C449"/>
-      <c r="D449"/>
-      <c r="E449"/>
-      <c r="F449"/>
-      <c r="H449"/>
-      <c r="I449"/>
-      <c r="J449"/>
-      <c r="K449"/>
-      <c r="L449"/>
-      <c r="M449"/>
-      <c r="P449"/>
-      <c r="Q449"/>
-      <c r="R449" s="1"/>
-    </row>
-    <row r="450" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A450"/>
-      <c r="B450"/>
-      <c r="C450"/>
-      <c r="D450"/>
-      <c r="E450"/>
-      <c r="F450"/>
-      <c r="H450"/>
-      <c r="I450"/>
-      <c r="J450"/>
-      <c r="K450"/>
-      <c r="L450"/>
-      <c r="M450"/>
-      <c r="P450"/>
-      <c r="Q450"/>
-      <c r="R450" s="1"/>
-    </row>
-    <row r="451" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A451"/>
-      <c r="B451"/>
-      <c r="C451"/>
-      <c r="D451"/>
-      <c r="E451"/>
-      <c r="F451"/>
-      <c r="H451"/>
-      <c r="I451"/>
-      <c r="J451"/>
-      <c r="K451"/>
-      <c r="L451"/>
-      <c r="M451"/>
-      <c r="P451"/>
-      <c r="Q451"/>
-      <c r="R451" s="1"/>
-    </row>
-    <row r="452" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A452"/>
-      <c r="B452"/>
-      <c r="C452"/>
-      <c r="D452"/>
-      <c r="E452"/>
-      <c r="F452"/>
-      <c r="H452"/>
-      <c r="I452"/>
-      <c r="J452"/>
-      <c r="K452"/>
-      <c r="L452"/>
-      <c r="M452"/>
-      <c r="P452"/>
-      <c r="Q452"/>
-      <c r="R452" s="1"/>
-    </row>
-    <row r="453" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A453"/>
-      <c r="B453"/>
-      <c r="C453"/>
-      <c r="D453"/>
-      <c r="E453"/>
-      <c r="F453"/>
-      <c r="H453"/>
-      <c r="I453"/>
-      <c r="J453"/>
-      <c r="K453"/>
-      <c r="L453"/>
-      <c r="M453"/>
-      <c r="N453"/>
-      <c r="P453"/>
-      <c r="Q453"/>
-      <c r="R453" s="1"/>
-    </row>
-    <row r="454" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A454"/>
-      <c r="B454"/>
-      <c r="C454"/>
-      <c r="D454"/>
-      <c r="E454"/>
-      <c r="F454"/>
-      <c r="H454"/>
-      <c r="I454"/>
-      <c r="J454"/>
-      <c r="K454"/>
-      <c r="L454"/>
-      <c r="M454"/>
-      <c r="P454"/>
-      <c r="Q454"/>
-      <c r="R454" s="1"/>
-    </row>
-    <row r="455" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A455"/>
-      <c r="B455"/>
-      <c r="C455"/>
-      <c r="D455"/>
-      <c r="E455"/>
-      <c r="F455"/>
-      <c r="H455"/>
-      <c r="I455"/>
-      <c r="J455"/>
-      <c r="K455"/>
-      <c r="L455"/>
-      <c r="M455"/>
-      <c r="P455"/>
-      <c r="Q455"/>
-      <c r="R455" s="1"/>
-    </row>
-    <row r="456" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A456"/>
-      <c r="B456"/>
-      <c r="C456"/>
-      <c r="D456"/>
-      <c r="E456"/>
-      <c r="F456"/>
-      <c r="H456"/>
-      <c r="I456"/>
-      <c r="J456"/>
-      <c r="K456"/>
-      <c r="L456"/>
-      <c r="M456"/>
-      <c r="P456"/>
-      <c r="Q456"/>
-      <c r="R456" s="1"/>
-    </row>
-    <row r="457" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A457"/>
-      <c r="B457"/>
-      <c r="C457"/>
-      <c r="D457"/>
-      <c r="E457"/>
-      <c r="F457"/>
-      <c r="H457"/>
-      <c r="I457"/>
-      <c r="J457"/>
-      <c r="K457"/>
-      <c r="L457"/>
-      <c r="M457"/>
-      <c r="P457"/>
-      <c r="Q457"/>
-      <c r="R457" s="1"/>
-    </row>
-    <row r="458" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A458"/>
-      <c r="B458"/>
-      <c r="C458"/>
-      <c r="D458"/>
-      <c r="E458"/>
-      <c r="F458"/>
-      <c r="H458"/>
-      <c r="I458"/>
-      <c r="J458"/>
-      <c r="K458"/>
-      <c r="L458"/>
-      <c r="M458"/>
-      <c r="P458"/>
-      <c r="Q458"/>
-      <c r="R458" s="1"/>
-    </row>
-    <row r="459" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A459"/>
-      <c r="B459"/>
-      <c r="C459"/>
-      <c r="D459"/>
-      <c r="E459"/>
-      <c r="F459"/>
-      <c r="H459"/>
-      <c r="I459"/>
-      <c r="J459"/>
-      <c r="K459"/>
-      <c r="L459"/>
-      <c r="M459"/>
-      <c r="P459"/>
-      <c r="Q459"/>
-      <c r="R459" s="1"/>
-    </row>
-    <row r="460" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A460"/>
-      <c r="B460"/>
-      <c r="C460"/>
-      <c r="D460"/>
-      <c r="E460"/>
-      <c r="F460"/>
-      <c r="H460"/>
-      <c r="I460"/>
-      <c r="J460"/>
-      <c r="K460"/>
-      <c r="L460"/>
-      <c r="M460"/>
-      <c r="P460"/>
-      <c r="Q460"/>
-      <c r="R460" s="1"/>
-    </row>
-    <row r="461" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A461"/>
-      <c r="B461"/>
-      <c r="C461"/>
-      <c r="D461"/>
-      <c r="E461"/>
-      <c r="F461"/>
-      <c r="H461"/>
-      <c r="I461"/>
-      <c r="J461"/>
-      <c r="K461"/>
-      <c r="L461"/>
-      <c r="M461"/>
-      <c r="P461"/>
-      <c r="Q461"/>
-      <c r="R461" s="1"/>
-    </row>
-    <row r="462" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A462"/>
-      <c r="B462"/>
-      <c r="C462"/>
-      <c r="D462"/>
-      <c r="E462"/>
-      <c r="F462"/>
-      <c r="H462"/>
-      <c r="I462"/>
-      <c r="J462"/>
-      <c r="K462"/>
-      <c r="L462"/>
-      <c r="M462"/>
-      <c r="P462"/>
-      <c r="Q462"/>
-      <c r="R462" s="1"/>
-    </row>
-    <row r="463" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A463"/>
-      <c r="B463"/>
-      <c r="C463"/>
-      <c r="D463"/>
-      <c r="E463"/>
-      <c r="F463"/>
-      <c r="H463"/>
-      <c r="I463"/>
-      <c r="J463"/>
-      <c r="K463"/>
-      <c r="L463"/>
-      <c r="M463"/>
-      <c r="P463"/>
-      <c r="Q463"/>
-      <c r="R463" s="1"/>
-    </row>
-    <row r="464" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A464"/>
-      <c r="B464"/>
-      <c r="C464"/>
-      <c r="D464"/>
-      <c r="E464"/>
-      <c r="F464"/>
-      <c r="H464"/>
-      <c r="I464"/>
-      <c r="J464"/>
-      <c r="K464"/>
-      <c r="L464"/>
-      <c r="M464"/>
-      <c r="P464"/>
-      <c r="Q464"/>
-      <c r="R464" s="1"/>
-    </row>
-    <row r="465" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A465"/>
-      <c r="B465"/>
-      <c r="C465"/>
-      <c r="D465"/>
-      <c r="E465"/>
-      <c r="F465"/>
-      <c r="H465"/>
-      <c r="I465"/>
-      <c r="J465"/>
-      <c r="K465"/>
-      <c r="L465"/>
-      <c r="M465"/>
-      <c r="P465"/>
-      <c r="Q465"/>
-      <c r="R465" s="1"/>
-    </row>
-    <row r="466" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A466"/>
-      <c r="B466"/>
-      <c r="C466"/>
-      <c r="D466"/>
-      <c r="E466"/>
-      <c r="F466"/>
-      <c r="H466"/>
-      <c r="I466"/>
-      <c r="J466"/>
-      <c r="K466"/>
-      <c r="L466"/>
-      <c r="M466"/>
-      <c r="P466"/>
-      <c r="Q466"/>
-      <c r="R466" s="1"/>
-    </row>
-    <row r="467" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A467"/>
-      <c r="B467"/>
-      <c r="C467"/>
-      <c r="D467"/>
-      <c r="E467"/>
-      <c r="F467"/>
-      <c r="H467"/>
-      <c r="I467"/>
-      <c r="J467"/>
-      <c r="K467"/>
-      <c r="L467"/>
-      <c r="M467"/>
-      <c r="P467"/>
-      <c r="Q467"/>
-      <c r="R467" s="1"/>
-    </row>
-    <row r="468" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A468"/>
-      <c r="B468"/>
-      <c r="C468"/>
-      <c r="D468"/>
-      <c r="E468"/>
-      <c r="F468"/>
-      <c r="H468"/>
-      <c r="I468"/>
-      <c r="J468"/>
-      <c r="K468"/>
-      <c r="L468"/>
-      <c r="M468"/>
-      <c r="P468"/>
-      <c r="Q468"/>
-      <c r="R468" s="1"/>
-    </row>
-    <row r="469" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A469"/>
-      <c r="B469"/>
-      <c r="C469"/>
-      <c r="D469"/>
-      <c r="E469"/>
-      <c r="F469"/>
-      <c r="H469"/>
-      <c r="I469"/>
-      <c r="J469"/>
-      <c r="K469"/>
-      <c r="L469"/>
-      <c r="M469"/>
-      <c r="P469"/>
-      <c r="Q469"/>
-      <c r="R469" s="1"/>
-    </row>
-    <row r="470" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A470"/>
-      <c r="B470"/>
-      <c r="C470"/>
-      <c r="D470"/>
-      <c r="E470"/>
-      <c r="F470"/>
-      <c r="H470"/>
-      <c r="I470"/>
-      <c r="J470"/>
-      <c r="K470"/>
-      <c r="L470"/>
-      <c r="M470"/>
-      <c r="P470"/>
-      <c r="Q470"/>
-      <c r="R470" s="1"/>
-    </row>
-    <row r="471" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A471"/>
-      <c r="B471"/>
-      <c r="C471"/>
-      <c r="D471"/>
-      <c r="E471"/>
-      <c r="F471"/>
-      <c r="H471"/>
-      <c r="I471"/>
-      <c r="J471"/>
-      <c r="K471"/>
-      <c r="L471"/>
-      <c r="M471"/>
-      <c r="P471"/>
-      <c r="Q471"/>
-      <c r="R471" s="1"/>
-    </row>
-    <row r="472" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A472"/>
-      <c r="B472"/>
-      <c r="C472"/>
-      <c r="D472"/>
-      <c r="E472"/>
-      <c r="F472"/>
-      <c r="H472"/>
-      <c r="I472"/>
-      <c r="J472"/>
-      <c r="K472"/>
-      <c r="L472"/>
-      <c r="M472"/>
-      <c r="P472"/>
-      <c r="Q472"/>
-      <c r="R472" s="1"/>
-    </row>
-    <row r="473" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A473"/>
-      <c r="B473"/>
-      <c r="C473"/>
-      <c r="D473"/>
-      <c r="E473"/>
-      <c r="F473"/>
-      <c r="H473"/>
-      <c r="I473"/>
-      <c r="J473"/>
-      <c r="K473"/>
-      <c r="L473"/>
-      <c r="M473"/>
-      <c r="P473"/>
-      <c r="Q473"/>
-      <c r="R473" s="1"/>
-    </row>
-    <row r="474" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A474"/>
-      <c r="B474"/>
-      <c r="C474"/>
-      <c r="D474"/>
-      <c r="E474"/>
-      <c r="F474"/>
-      <c r="H474"/>
-      <c r="I474"/>
-      <c r="J474"/>
-      <c r="K474"/>
-      <c r="L474"/>
-      <c r="M474"/>
-      <c r="P474"/>
-      <c r="Q474"/>
-      <c r="R474" s="1"/>
-    </row>
-    <row r="475" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A475"/>
-      <c r="B475"/>
-      <c r="C475"/>
-      <c r="D475"/>
-      <c r="E475"/>
-      <c r="F475"/>
-      <c r="K475"/>
-      <c r="L475"/>
-      <c r="M475"/>
-      <c r="P475"/>
-      <c r="Q475"/>
-      <c r="R475" s="1"/>
-    </row>
-    <row r="476" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A476"/>
-      <c r="B476"/>
-      <c r="C476"/>
-      <c r="D476"/>
-      <c r="E476"/>
-      <c r="I476"/>
-      <c r="K476"/>
-      <c r="L476"/>
-      <c r="M476"/>
-      <c r="N476"/>
-      <c r="P476"/>
-      <c r="Q476"/>
-      <c r="R476" s="1"/>
-    </row>
-    <row r="477" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A477"/>
-      <c r="B477"/>
-      <c r="C477"/>
-      <c r="D477"/>
-      <c r="E477"/>
-      <c r="I477"/>
-      <c r="K477"/>
-      <c r="L477"/>
-      <c r="M477"/>
-      <c r="N477"/>
-      <c r="P477"/>
-      <c r="Q477"/>
-      <c r="R477" s="1"/>
-    </row>
-    <row r="478" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A478"/>
-      <c r="B478"/>
-      <c r="C478"/>
-      <c r="D478"/>
-      <c r="E478"/>
-      <c r="F478"/>
-      <c r="H478"/>
-      <c r="I478"/>
-      <c r="J478"/>
-      <c r="K478"/>
-      <c r="L478"/>
-      <c r="M478"/>
-      <c r="N478"/>
-      <c r="P478"/>
-      <c r="Q478"/>
-      <c r="R478" s="1"/>
-    </row>
-    <row r="479" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A479"/>
-      <c r="B479"/>
-      <c r="C479"/>
-      <c r="D479"/>
-      <c r="E479"/>
-      <c r="F479"/>
-      <c r="I479"/>
-      <c r="K479"/>
-      <c r="L479"/>
-      <c r="M479"/>
-      <c r="N479"/>
-      <c r="P479"/>
-      <c r="Q479"/>
-      <c r="R479" s="1"/>
-    </row>
-    <row r="480" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A480"/>
-      <c r="B480"/>
-      <c r="C480"/>
-      <c r="D480"/>
-      <c r="E480"/>
-      <c r="F480"/>
-      <c r="I480"/>
-      <c r="K480"/>
-      <c r="L480"/>
-      <c r="M480"/>
-      <c r="N480"/>
-      <c r="P480"/>
-      <c r="Q480"/>
-      <c r="R480" s="1"/>
-    </row>
-    <row r="481" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A481"/>
-      <c r="B481"/>
-      <c r="C481"/>
-      <c r="D481"/>
-      <c r="E481"/>
-      <c r="F481"/>
-      <c r="H481"/>
-      <c r="I481"/>
-      <c r="J481"/>
-      <c r="K481"/>
-      <c r="L481"/>
-      <c r="M481"/>
-      <c r="P481"/>
-      <c r="Q481"/>
-      <c r="R481" s="1"/>
-    </row>
-    <row r="482" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A482"/>
-      <c r="B482"/>
-      <c r="C482"/>
-      <c r="D482"/>
-      <c r="E482"/>
-      <c r="F482"/>
-      <c r="H482"/>
-      <c r="I482"/>
-      <c r="J482"/>
-      <c r="K482"/>
-      <c r="L482"/>
-      <c r="M482"/>
-      <c r="P482"/>
-      <c r="Q482"/>
-      <c r="R482" s="1"/>
-    </row>
-    <row r="483" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A483"/>
-      <c r="B483"/>
-      <c r="C483"/>
-      <c r="D483"/>
-      <c r="E483"/>
-      <c r="F483"/>
-      <c r="H483"/>
-      <c r="I483"/>
-      <c r="K483"/>
-      <c r="L483"/>
-      <c r="N483"/>
-      <c r="P483"/>
-      <c r="Q483"/>
-      <c r="R483" s="1"/>
-    </row>
-    <row r="484" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A484"/>
-      <c r="B484"/>
-      <c r="C484"/>
-      <c r="D484"/>
-      <c r="E484"/>
-      <c r="F484"/>
-      <c r="H484"/>
-      <c r="I484"/>
-      <c r="K484"/>
-      <c r="L484"/>
-      <c r="N484"/>
-      <c r="P484"/>
-      <c r="Q484"/>
-      <c r="R484" s="1"/>
-    </row>
-    <row r="485" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A485"/>
-      <c r="B485"/>
-      <c r="C485"/>
-      <c r="D485"/>
-      <c r="E485"/>
-      <c r="F485"/>
-      <c r="H485"/>
-      <c r="I485"/>
-      <c r="K485"/>
-      <c r="L485"/>
-      <c r="N485"/>
-      <c r="P485"/>
-      <c r="Q485"/>
-      <c r="R485" s="1"/>
-    </row>
-    <row r="486" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A486"/>
-      <c r="B486"/>
-      <c r="C486"/>
-      <c r="D486"/>
-      <c r="E486"/>
-      <c r="F486"/>
-      <c r="H486"/>
-      <c r="I486"/>
-      <c r="K486"/>
-      <c r="L486"/>
-      <c r="N486"/>
-      <c r="P486"/>
-      <c r="Q486"/>
-      <c r="R486" s="1"/>
-    </row>
-    <row r="487" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A487"/>
-      <c r="B487"/>
-      <c r="C487"/>
-      <c r="D487"/>
-      <c r="E487"/>
-      <c r="F487"/>
-      <c r="H487"/>
-      <c r="I487"/>
-      <c r="K487"/>
-      <c r="L487"/>
-      <c r="N487"/>
-      <c r="P487"/>
-      <c r="Q487"/>
-      <c r="R487" s="1"/>
-    </row>
-    <row r="488" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A488"/>
-      <c r="B488"/>
-      <c r="C488"/>
-      <c r="D488"/>
-      <c r="E488"/>
-      <c r="F488"/>
-      <c r="H488"/>
-      <c r="I488"/>
-      <c r="K488"/>
-      <c r="L488"/>
-      <c r="M488"/>
-      <c r="P488"/>
-      <c r="Q488"/>
-      <c r="R488" s="1"/>
-    </row>
-    <row r="489" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A489"/>
-      <c r="B489"/>
-      <c r="C489"/>
-      <c r="D489"/>
-      <c r="E489"/>
-      <c r="F489"/>
-      <c r="H489"/>
-      <c r="I489"/>
-      <c r="K489"/>
-      <c r="L489"/>
-      <c r="M489"/>
-      <c r="P489"/>
-      <c r="Q489"/>
-      <c r="R489" s="1"/>
-    </row>
-    <row r="490" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A490"/>
-      <c r="B490"/>
-      <c r="C490"/>
-      <c r="D490"/>
-      <c r="E490"/>
-      <c r="F490"/>
-      <c r="H490"/>
-      <c r="I490"/>
-      <c r="K490"/>
-      <c r="L490"/>
-      <c r="M490"/>
-      <c r="P490"/>
-      <c r="Q490"/>
-      <c r="R490" s="1"/>
-    </row>
-    <row r="491" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A491"/>
-      <c r="B491"/>
-      <c r="C491"/>
-      <c r="D491"/>
-      <c r="E491"/>
-      <c r="F491"/>
-      <c r="H491"/>
-      <c r="I491"/>
-      <c r="K491"/>
-      <c r="L491"/>
-      <c r="M491"/>
-      <c r="P491"/>
-      <c r="Q491"/>
-      <c r="R491" s="1"/>
-    </row>
-    <row r="492" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A492"/>
-      <c r="B492"/>
-      <c r="C492"/>
-      <c r="D492"/>
-      <c r="E492"/>
-      <c r="F492"/>
-      <c r="H492"/>
-      <c r="I492"/>
-      <c r="K492"/>
-      <c r="L492"/>
-      <c r="M492"/>
-      <c r="P492"/>
-      <c r="Q492"/>
-      <c r="R492" s="1"/>
-    </row>
-    <row r="493" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A493"/>
-      <c r="B493"/>
-      <c r="C493"/>
-      <c r="D493"/>
-      <c r="E493"/>
-      <c r="F493"/>
-      <c r="H493"/>
-      <c r="I493"/>
-      <c r="J493"/>
-      <c r="K493"/>
-      <c r="L493"/>
-      <c r="M493"/>
-      <c r="P493"/>
-      <c r="Q493"/>
-      <c r="R493" s="1"/>
-    </row>
-    <row r="494" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A494"/>
-      <c r="B494"/>
-      <c r="C494"/>
-      <c r="D494"/>
-      <c r="E494"/>
-      <c r="F494"/>
-      <c r="H494"/>
-      <c r="I494"/>
-      <c r="J494"/>
-      <c r="K494"/>
-      <c r="L494"/>
-      <c r="M494"/>
-      <c r="P494"/>
-      <c r="Q494"/>
-      <c r="R494" s="1"/>
-    </row>
-    <row r="495" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A495"/>
-      <c r="B495"/>
-      <c r="C495"/>
-      <c r="D495"/>
-      <c r="E495"/>
-      <c r="F495"/>
-      <c r="H495"/>
-      <c r="I495"/>
-      <c r="J495"/>
-      <c r="K495"/>
-      <c r="L495"/>
-      <c r="M495"/>
-      <c r="P495"/>
-      <c r="Q495"/>
-      <c r="R495" s="1"/>
-    </row>
-    <row r="496" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A496"/>
-      <c r="B496"/>
-      <c r="C496"/>
-      <c r="D496"/>
-      <c r="E496"/>
-      <c r="F496"/>
-      <c r="H496"/>
-      <c r="I496"/>
-      <c r="J496"/>
-      <c r="K496"/>
-      <c r="L496"/>
-      <c r="M496"/>
-      <c r="N496"/>
-      <c r="P496"/>
-      <c r="Q496"/>
-      <c r="R496" s="1"/>
-    </row>
-    <row r="497" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A497"/>
-      <c r="B497"/>
-      <c r="C497"/>
-      <c r="D497"/>
-      <c r="E497"/>
-      <c r="F497"/>
-      <c r="H497"/>
-      <c r="I497"/>
-      <c r="K497"/>
-      <c r="L497"/>
-      <c r="M497"/>
-      <c r="P497"/>
-      <c r="Q497"/>
-      <c r="R497" s="1"/>
-    </row>
-    <row r="498" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A498"/>
-      <c r="B498"/>
-      <c r="C498"/>
-      <c r="D498"/>
-      <c r="E498"/>
-      <c r="F498"/>
-      <c r="H498"/>
-      <c r="I498"/>
-      <c r="K498"/>
-      <c r="L498"/>
-      <c r="M498"/>
-      <c r="P498"/>
-      <c r="Q498"/>
-      <c r="R498" s="1"/>
-    </row>
-    <row r="499" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A499"/>
-      <c r="B499"/>
-      <c r="C499"/>
-      <c r="D499"/>
-      <c r="E499"/>
-      <c r="F499"/>
-      <c r="H499"/>
-      <c r="I499"/>
-      <c r="K499"/>
-      <c r="L499"/>
-      <c r="M499"/>
-      <c r="P499"/>
-      <c r="Q499"/>
-      <c r="R499" s="1"/>
-    </row>
-    <row r="500" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A500"/>
-      <c r="B500"/>
-      <c r="C500"/>
-      <c r="D500"/>
-      <c r="E500"/>
-      <c r="F500"/>
-      <c r="H500"/>
-      <c r="I500"/>
-      <c r="J500"/>
-      <c r="K500"/>
-      <c r="L500"/>
-      <c r="M500"/>
-      <c r="P500"/>
-      <c r="Q500"/>
-      <c r="R500" s="1"/>
-    </row>
-    <row r="501" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A501"/>
-      <c r="B501"/>
-      <c r="C501"/>
-      <c r="D501"/>
-      <c r="E501"/>
-      <c r="F501"/>
-      <c r="H501"/>
-      <c r="I501"/>
-      <c r="J501"/>
-      <c r="K501"/>
-      <c r="L501"/>
-      <c r="M501"/>
-      <c r="P501"/>
-      <c r="Q501"/>
-      <c r="R501" s="1"/>
-    </row>
-    <row r="502" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A502"/>
-      <c r="B502"/>
-      <c r="C502"/>
-      <c r="D502"/>
-      <c r="E502"/>
-      <c r="F502"/>
-      <c r="H502"/>
-      <c r="I502"/>
-      <c r="J502"/>
-      <c r="K502"/>
-      <c r="L502"/>
-      <c r="M502"/>
-      <c r="P502"/>
-      <c r="Q502"/>
-      <c r="R502" s="1"/>
-    </row>
-    <row r="503" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A503"/>
-      <c r="B503"/>
-      <c r="C503"/>
-      <c r="D503"/>
-      <c r="E503"/>
-      <c r="F503"/>
-      <c r="H503"/>
-      <c r="I503"/>
-      <c r="J503"/>
-      <c r="K503"/>
-      <c r="L503"/>
-      <c r="M503"/>
-      <c r="P503"/>
-      <c r="Q503"/>
-      <c r="R503" s="1"/>
-    </row>
-    <row r="504" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A504"/>
-      <c r="B504"/>
-      <c r="C504"/>
-      <c r="D504"/>
-      <c r="E504"/>
-      <c r="F504"/>
-      <c r="H504"/>
-      <c r="I504"/>
-      <c r="J504"/>
-      <c r="K504"/>
-      <c r="L504"/>
-      <c r="M504"/>
-      <c r="P504"/>
-      <c r="Q504"/>
-      <c r="R504" s="1"/>
-    </row>
-    <row r="505" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A505"/>
-      <c r="B505"/>
-      <c r="C505"/>
-      <c r="D505"/>
-      <c r="E505"/>
-      <c r="F505"/>
-      <c r="H505"/>
-      <c r="I505"/>
-      <c r="J505"/>
-      <c r="K505"/>
-      <c r="L505"/>
-      <c r="M505"/>
-      <c r="P505"/>
-      <c r="Q505"/>
-      <c r="R505" s="1"/>
-    </row>
-    <row r="506" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A506"/>
-      <c r="B506"/>
-      <c r="C506"/>
-      <c r="D506"/>
-      <c r="E506"/>
-      <c r="F506"/>
-      <c r="H506"/>
-      <c r="I506"/>
-      <c r="J506"/>
-      <c r="K506"/>
-      <c r="L506"/>
-      <c r="M506"/>
-      <c r="P506"/>
-      <c r="Q506"/>
-      <c r="R506" s="1"/>
-    </row>
-    <row r="507" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A507"/>
-      <c r="B507"/>
-      <c r="C507"/>
-      <c r="D507"/>
-      <c r="E507"/>
-      <c r="F507"/>
-      <c r="H507"/>
-      <c r="I507"/>
-      <c r="J507"/>
-      <c r="K507"/>
-      <c r="L507"/>
-      <c r="M507"/>
-      <c r="P507"/>
-      <c r="Q507"/>
-      <c r="R507" s="1"/>
-    </row>
-    <row r="508" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A508"/>
-      <c r="B508"/>
-      <c r="C508"/>
-      <c r="D508"/>
-      <c r="E508"/>
-      <c r="F508"/>
-      <c r="H508"/>
-      <c r="I508"/>
-      <c r="J508"/>
-      <c r="K508"/>
-      <c r="L508"/>
-      <c r="M508"/>
-      <c r="P508"/>
-      <c r="Q508"/>
-      <c r="R508" s="1"/>
-    </row>
-    <row r="509" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A509"/>
-      <c r="B509"/>
-      <c r="C509"/>
-      <c r="D509"/>
-      <c r="E509"/>
-      <c r="F509"/>
-      <c r="H509"/>
-      <c r="I509"/>
-      <c r="J509"/>
-      <c r="K509"/>
-      <c r="L509"/>
-      <c r="M509"/>
-      <c r="P509"/>
-      <c r="Q509"/>
-      <c r="R509" s="1"/>
-    </row>
-    <row r="510" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A510"/>
-      <c r="B510"/>
-      <c r="C510"/>
-      <c r="D510"/>
-      <c r="E510"/>
-      <c r="F510"/>
-      <c r="H510"/>
-      <c r="I510"/>
-      <c r="J510"/>
-      <c r="K510"/>
-      <c r="L510"/>
-      <c r="M510"/>
-      <c r="P510"/>
-      <c r="Q510"/>
-      <c r="R510" s="1"/>
-    </row>
-    <row r="511" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A511"/>
-      <c r="B511"/>
-      <c r="C511"/>
-      <c r="D511"/>
-      <c r="E511"/>
-      <c r="F511"/>
-      <c r="H511"/>
-      <c r="I511"/>
-      <c r="J511"/>
-      <c r="K511"/>
-      <c r="L511"/>
-      <c r="M511"/>
-      <c r="P511"/>
-      <c r="Q511"/>
-      <c r="R511" s="1"/>
-    </row>
-    <row r="512" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A512"/>
-      <c r="B512"/>
-      <c r="C512"/>
-      <c r="D512"/>
-      <c r="E512"/>
-      <c r="F512"/>
-      <c r="H512"/>
-      <c r="I512"/>
-      <c r="J512"/>
-      <c r="K512"/>
-      <c r="L512"/>
-      <c r="M512"/>
-      <c r="P512"/>
-      <c r="Q512"/>
-      <c r="R512" s="1"/>
-    </row>
-    <row r="513" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A513"/>
-      <c r="B513"/>
-      <c r="C513"/>
-      <c r="D513"/>
-      <c r="E513"/>
-      <c r="F513"/>
-      <c r="H513"/>
-      <c r="I513"/>
-      <c r="J513"/>
-      <c r="K513"/>
-      <c r="L513"/>
-      <c r="M513"/>
-      <c r="P513"/>
-      <c r="Q513"/>
-      <c r="R513" s="1"/>
-    </row>
-    <row r="514" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A514"/>
-      <c r="B514"/>
-      <c r="C514"/>
-      <c r="D514"/>
-      <c r="E514"/>
-      <c r="F514"/>
-      <c r="H514"/>
-      <c r="I514"/>
-      <c r="J514"/>
-      <c r="K514"/>
-      <c r="L514"/>
-      <c r="M514"/>
-      <c r="P514"/>
-      <c r="Q514"/>
-      <c r="R514" s="1"/>
-    </row>
-    <row r="515" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A515"/>
-      <c r="B515"/>
-      <c r="C515"/>
-      <c r="D515"/>
-      <c r="E515"/>
-      <c r="F515"/>
-      <c r="H515"/>
-      <c r="I515"/>
-      <c r="J515"/>
-      <c r="K515"/>
-      <c r="L515"/>
-      <c r="M515"/>
-      <c r="P515"/>
-      <c r="Q515"/>
-      <c r="R515" s="1"/>
-    </row>
-    <row r="516" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A516"/>
-      <c r="B516"/>
-      <c r="C516"/>
-      <c r="D516"/>
-      <c r="E516"/>
-      <c r="F516"/>
-      <c r="H516"/>
-      <c r="I516"/>
-      <c r="J516"/>
-      <c r="K516"/>
-      <c r="L516"/>
-      <c r="M516"/>
-      <c r="P516"/>
-      <c r="Q516"/>
-      <c r="R516" s="1"/>
-    </row>
-    <row r="517" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A517"/>
-      <c r="B517"/>
-      <c r="C517"/>
-      <c r="D517"/>
-      <c r="E517"/>
-      <c r="F517"/>
-      <c r="H517"/>
-      <c r="I517"/>
-      <c r="J517"/>
-      <c r="K517"/>
-      <c r="L517"/>
-      <c r="M517"/>
-      <c r="P517"/>
-      <c r="Q517"/>
-      <c r="R517" s="1"/>
-    </row>
-    <row r="518" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A518"/>
-      <c r="B518"/>
-      <c r="C518"/>
-      <c r="D518"/>
-      <c r="E518"/>
-      <c r="F518"/>
-      <c r="H518"/>
-      <c r="I518"/>
-      <c r="J518"/>
-      <c r="K518"/>
-      <c r="L518"/>
-      <c r="M518"/>
-      <c r="P518"/>
-      <c r="Q518"/>
-      <c r="R518" s="1"/>
-    </row>
-    <row r="519" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A519"/>
-      <c r="B519"/>
-      <c r="C519"/>
-      <c r="D519"/>
-      <c r="E519"/>
-      <c r="F519"/>
-      <c r="H519"/>
-      <c r="I519"/>
-      <c r="J519"/>
-      <c r="K519"/>
-      <c r="L519"/>
-      <c r="M519"/>
-      <c r="P519"/>
-      <c r="Q519"/>
-      <c r="R519" s="1"/>
-    </row>
-    <row r="520" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A520"/>
-      <c r="B520"/>
-      <c r="C520"/>
-      <c r="D520"/>
-      <c r="E520"/>
-      <c r="F520"/>
-      <c r="H520"/>
-      <c r="I520"/>
-      <c r="J520"/>
-      <c r="K520"/>
-      <c r="L520"/>
-      <c r="M520"/>
-      <c r="P520"/>
-      <c r="Q520"/>
-      <c r="R520" s="1"/>
-    </row>
-    <row r="521" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A521"/>
-      <c r="B521"/>
-      <c r="C521"/>
-      <c r="D521"/>
-      <c r="E521"/>
-      <c r="F521"/>
-      <c r="H521"/>
-      <c r="I521"/>
-      <c r="J521"/>
-      <c r="K521"/>
-      <c r="L521"/>
-      <c r="M521"/>
-      <c r="P521"/>
-      <c r="Q521"/>
-      <c r="R521" s="1"/>
-    </row>
-    <row r="522" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A522"/>
-      <c r="B522"/>
-      <c r="C522"/>
-      <c r="D522"/>
-      <c r="E522"/>
-      <c r="F522"/>
-      <c r="H522"/>
-      <c r="I522"/>
-      <c r="J522"/>
-      <c r="K522"/>
-      <c r="L522"/>
-      <c r="M522"/>
-      <c r="P522"/>
-      <c r="Q522"/>
-      <c r="R522" s="1"/>
-    </row>
-    <row r="523" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A523"/>
-      <c r="B523"/>
-      <c r="C523"/>
-      <c r="D523"/>
-      <c r="E523"/>
-      <c r="F523"/>
-      <c r="H523"/>
-      <c r="I523"/>
-      <c r="J523"/>
-      <c r="K523"/>
-      <c r="L523"/>
-      <c r="M523"/>
-      <c r="P523"/>
-      <c r="Q523"/>
-      <c r="R523" s="1"/>
-    </row>
-    <row r="524" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A524"/>
-      <c r="B524"/>
-      <c r="C524"/>
-      <c r="D524"/>
-      <c r="E524"/>
-      <c r="F524"/>
-      <c r="H524"/>
-      <c r="I524"/>
-      <c r="J524"/>
-      <c r="K524"/>
-      <c r="L524"/>
-      <c r="M524"/>
-      <c r="P524"/>
-      <c r="Q524"/>
-      <c r="R524" s="1"/>
-    </row>
-    <row r="525" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A525"/>
-      <c r="B525"/>
-      <c r="C525"/>
-      <c r="D525"/>
-      <c r="E525"/>
-      <c r="F525"/>
-      <c r="H525"/>
-      <c r="I525"/>
-      <c r="J525"/>
-      <c r="K525"/>
-      <c r="L525"/>
-      <c r="M525"/>
-      <c r="P525"/>
-      <c r="Q525"/>
-      <c r="R525" s="1"/>
-    </row>
-    <row r="526" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A526"/>
-      <c r="B526"/>
-      <c r="C526"/>
-      <c r="D526"/>
-      <c r="E526"/>
-      <c r="F526"/>
-      <c r="H526"/>
-      <c r="I526"/>
-      <c r="J526"/>
-      <c r="K526"/>
-      <c r="L526"/>
-      <c r="M526"/>
-      <c r="P526"/>
-      <c r="Q526"/>
-      <c r="R526" s="1"/>
-    </row>
-    <row r="527" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A527"/>
-      <c r="B527"/>
-      <c r="C527"/>
-      <c r="D527"/>
-      <c r="E527"/>
-      <c r="F527"/>
-      <c r="G527"/>
-      <c r="H527"/>
-      <c r="I527"/>
-      <c r="J527"/>
-      <c r="K527"/>
-      <c r="L527"/>
-      <c r="M527"/>
-      <c r="N527"/>
-      <c r="P527"/>
-      <c r="Q527"/>
-      <c r="R527" s="1"/>
-    </row>
-    <row r="528" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A528"/>
-      <c r="B528"/>
-      <c r="C528"/>
-      <c r="D528"/>
-      <c r="E528"/>
-      <c r="F528"/>
-      <c r="G528"/>
-      <c r="H528"/>
-      <c r="I528"/>
-      <c r="J528"/>
-      <c r="K528"/>
-      <c r="L528"/>
-      <c r="M528"/>
-      <c r="N528"/>
-      <c r="P528"/>
-      <c r="Q528"/>
-      <c r="R528" s="1"/>
-    </row>
-    <row r="529" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A529"/>
-      <c r="B529"/>
-      <c r="C529"/>
-      <c r="D529"/>
-      <c r="E529"/>
-      <c r="F529"/>
-      <c r="G529"/>
-      <c r="H529"/>
-      <c r="I529"/>
-      <c r="J529"/>
-      <c r="K529"/>
-      <c r="L529"/>
-      <c r="M529"/>
-      <c r="N529"/>
-      <c r="P529"/>
-      <c r="Q529"/>
-      <c r="R529" s="1"/>
-    </row>
-    <row r="530" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A530"/>
-      <c r="B530"/>
-      <c r="C530"/>
-      <c r="D530"/>
-      <c r="E530"/>
-      <c r="F530"/>
-      <c r="H530"/>
-      <c r="I530"/>
-      <c r="K530"/>
-      <c r="L530"/>
-      <c r="M530"/>
-      <c r="P530"/>
-      <c r="Q530"/>
-      <c r="R530" s="1"/>
-    </row>
-    <row r="531" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A531"/>
-      <c r="B531"/>
-      <c r="C531"/>
-      <c r="D531"/>
-      <c r="E531"/>
-      <c r="F531"/>
-      <c r="H531"/>
-      <c r="I531"/>
-      <c r="J531"/>
-      <c r="K531"/>
-      <c r="L531"/>
-      <c r="M531"/>
-      <c r="P531"/>
-      <c r="Q531"/>
-      <c r="R531" s="1"/>
-    </row>
-    <row r="532" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A532"/>
-      <c r="B532"/>
-      <c r="C532"/>
-      <c r="D532"/>
-      <c r="E532"/>
-      <c r="F532"/>
-      <c r="H532"/>
-      <c r="I532"/>
-      <c r="K532"/>
-      <c r="L532"/>
-      <c r="M532"/>
-      <c r="P532"/>
-      <c r="Q532"/>
-      <c r="R532" s="1"/>
-    </row>
-    <row r="533" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A533"/>
-      <c r="B533"/>
-      <c r="C533"/>
-      <c r="D533"/>
-      <c r="E533"/>
-      <c r="F533"/>
-      <c r="H533"/>
-      <c r="I533"/>
-      <c r="K533"/>
-      <c r="L533"/>
-      <c r="M533"/>
-      <c r="P533"/>
-      <c r="Q533"/>
-      <c r="R533" s="1"/>
-    </row>
-    <row r="534" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A534"/>
-      <c r="B534"/>
-      <c r="C534"/>
-      <c r="D534"/>
-      <c r="E534"/>
-      <c r="F534"/>
-      <c r="H534"/>
-      <c r="I534"/>
-      <c r="K534"/>
-      <c r="L534"/>
-      <c r="M534"/>
-      <c r="P534"/>
-      <c r="Q534"/>
-      <c r="R534" s="1"/>
-    </row>
-    <row r="535" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A535"/>
-      <c r="B535"/>
-      <c r="C535"/>
-      <c r="D535"/>
-      <c r="E535"/>
-      <c r="F535"/>
-      <c r="H535"/>
-      <c r="I535"/>
-      <c r="K535"/>
-      <c r="L535"/>
-      <c r="M535"/>
-      <c r="P535"/>
-      <c r="Q535"/>
-      <c r="R535" s="1"/>
-    </row>
-    <row r="536" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A536"/>
-      <c r="B536"/>
-      <c r="C536"/>
-      <c r="D536"/>
-      <c r="E536"/>
-      <c r="F536"/>
-      <c r="H536"/>
-      <c r="I536"/>
-      <c r="J536"/>
-      <c r="K536"/>
-      <c r="L536"/>
-      <c r="M536"/>
-      <c r="P536"/>
-      <c r="Q536"/>
-      <c r="R536" s="1"/>
-    </row>
-    <row r="537" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A537"/>
-      <c r="B537"/>
-      <c r="C537"/>
-      <c r="D537"/>
-      <c r="E537"/>
-      <c r="F537"/>
-      <c r="H537"/>
-      <c r="I537"/>
-      <c r="J537"/>
-      <c r="K537"/>
-      <c r="L537"/>
-      <c r="M537"/>
-      <c r="P537"/>
-      <c r="Q537"/>
-      <c r="R537" s="1"/>
-    </row>
-    <row r="538" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A538"/>
-      <c r="B538"/>
-      <c r="C538"/>
-      <c r="D538"/>
-      <c r="E538"/>
-      <c r="F538"/>
-      <c r="H538"/>
-      <c r="I538"/>
-      <c r="J538"/>
-      <c r="K538"/>
-      <c r="L538"/>
-      <c r="M538"/>
-      <c r="P538"/>
-      <c r="Q538"/>
-      <c r="R538" s="1"/>
-    </row>
-    <row r="539" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A539"/>
-      <c r="B539"/>
-      <c r="C539"/>
-      <c r="D539"/>
-      <c r="E539"/>
-      <c r="F539"/>
-      <c r="H539"/>
-      <c r="I539"/>
-      <c r="J539"/>
-      <c r="K539"/>
-      <c r="L539"/>
-      <c r="M539"/>
-      <c r="P539"/>
-      <c r="Q539"/>
-      <c r="R539" s="1"/>
-    </row>
-    <row r="540" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A540"/>
-      <c r="B540"/>
-      <c r="C540"/>
-      <c r="D540"/>
-      <c r="E540"/>
-      <c r="F540"/>
-      <c r="H540"/>
-      <c r="I540"/>
-      <c r="J540"/>
-      <c r="K540"/>
-      <c r="L540"/>
-      <c r="M540"/>
-      <c r="P540"/>
-      <c r="Q540"/>
-      <c r="R540" s="1"/>
-    </row>
-    <row r="541" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A541"/>
-      <c r="B541"/>
-      <c r="C541"/>
-      <c r="D541"/>
-      <c r="E541"/>
-      <c r="F541"/>
-      <c r="H541"/>
-      <c r="I541"/>
-      <c r="J541"/>
-      <c r="K541"/>
-      <c r="L541"/>
-      <c r="M541"/>
-      <c r="P541"/>
-      <c r="Q541"/>
-      <c r="R541" s="1"/>
-    </row>
-    <row r="542" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A542"/>
-      <c r="B542"/>
-      <c r="C542"/>
-      <c r="D542"/>
-      <c r="E542"/>
-      <c r="F542"/>
-      <c r="H542"/>
-      <c r="I542"/>
-      <c r="J542"/>
-      <c r="K542"/>
-      <c r="L542"/>
-      <c r="M542"/>
-      <c r="P542"/>
-      <c r="Q542"/>
-      <c r="R542" s="1"/>
-    </row>
-    <row r="543" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A543"/>
-      <c r="B543"/>
-      <c r="C543"/>
-      <c r="D543"/>
-      <c r="E543"/>
-      <c r="F543"/>
-      <c r="G543"/>
-      <c r="H543"/>
-      <c r="I543"/>
-      <c r="J543"/>
-      <c r="K543"/>
-      <c r="L543"/>
-      <c r="M543"/>
-      <c r="N543"/>
-      <c r="P543"/>
-      <c r="Q543"/>
-      <c r="R543" s="1"/>
-    </row>
-    <row r="544" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A544"/>
-      <c r="B544"/>
-      <c r="C544"/>
-      <c r="D544"/>
-      <c r="E544"/>
-      <c r="F544"/>
-      <c r="G544"/>
-      <c r="H544"/>
-      <c r="I544"/>
-      <c r="J544"/>
-      <c r="K544"/>
-      <c r="L544"/>
-      <c r="M544"/>
-      <c r="N544"/>
-      <c r="P544"/>
-      <c r="Q544"/>
-      <c r="R544" s="1"/>
-    </row>
-    <row r="545" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A545"/>
-      <c r="B545"/>
-      <c r="C545"/>
-      <c r="D545"/>
-      <c r="E545"/>
-      <c r="F545"/>
-      <c r="H545"/>
-      <c r="I545"/>
-      <c r="J545"/>
-      <c r="K545"/>
-      <c r="L545"/>
-      <c r="M545"/>
-      <c r="P545"/>
-      <c r="Q545"/>
-      <c r="R545" s="1"/>
-    </row>
-    <row r="546" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A546"/>
-      <c r="B546"/>
-      <c r="C546"/>
-      <c r="D546"/>
-      <c r="E546"/>
-      <c r="F546"/>
-      <c r="H546"/>
-      <c r="I546"/>
-      <c r="J546"/>
-      <c r="K546"/>
-      <c r="L546"/>
-      <c r="M546"/>
-      <c r="P546"/>
-      <c r="Q546"/>
-      <c r="R546" s="1"/>
-    </row>
-    <row r="547" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A547"/>
-      <c r="B547"/>
-      <c r="C547"/>
-      <c r="D547"/>
-      <c r="E547"/>
-      <c r="F547"/>
-      <c r="H547"/>
-      <c r="I547"/>
-      <c r="J547"/>
-      <c r="K547"/>
-      <c r="L547"/>
-      <c r="M547"/>
-      <c r="P547"/>
-      <c r="Q547"/>
-      <c r="R547" s="1"/>
-    </row>
-    <row r="548" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A548"/>
-      <c r="B548"/>
-      <c r="C548"/>
-      <c r="D548"/>
-      <c r="E548"/>
-      <c r="F548"/>
-      <c r="H548"/>
-      <c r="I548"/>
-      <c r="J548"/>
-      <c r="K548"/>
-      <c r="L548"/>
-      <c r="M548"/>
-      <c r="P548"/>
-      <c r="Q548"/>
-      <c r="R548" s="1"/>
-    </row>
-    <row r="549" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A549"/>
-      <c r="B549"/>
-      <c r="C549"/>
-      <c r="D549"/>
-      <c r="E549"/>
-      <c r="F549"/>
-      <c r="H549"/>
-      <c r="I549"/>
-      <c r="J549"/>
-      <c r="K549"/>
-      <c r="L549"/>
-      <c r="M549"/>
-      <c r="P549"/>
-      <c r="Q549"/>
-      <c r="R549" s="1"/>
-    </row>
-    <row r="550" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A550"/>
-      <c r="B550"/>
-      <c r="C550"/>
-      <c r="D550"/>
-      <c r="E550"/>
-      <c r="F550"/>
-      <c r="H550"/>
-      <c r="I550"/>
-      <c r="J550"/>
-      <c r="K550"/>
-      <c r="L550"/>
-      <c r="M550"/>
-      <c r="P550"/>
-      <c r="Q550"/>
-      <c r="R550" s="1"/>
-    </row>
-    <row r="551" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A551"/>
-      <c r="B551"/>
-      <c r="C551"/>
-      <c r="D551"/>
-      <c r="E551"/>
-      <c r="F551"/>
-      <c r="H551"/>
-      <c r="I551"/>
-      <c r="K551"/>
-      <c r="L551"/>
-      <c r="M551"/>
-      <c r="P551"/>
-      <c r="Q551"/>
-      <c r="R551" s="1"/>
-    </row>
-    <row r="552" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A552"/>
-      <c r="B552"/>
-      <c r="C552"/>
-      <c r="D552"/>
-      <c r="E552"/>
-      <c r="F552"/>
-      <c r="H552"/>
-      <c r="I552"/>
-      <c r="K552"/>
-      <c r="L552"/>
-      <c r="N552"/>
-      <c r="P552"/>
-      <c r="Q552"/>
-      <c r="R552" s="1"/>
-    </row>
-    <row r="553" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A553"/>
-      <c r="B553"/>
-      <c r="C553"/>
-      <c r="D553"/>
-      <c r="E553"/>
-      <c r="F553"/>
-      <c r="H553"/>
-      <c r="I553"/>
-      <c r="K553"/>
-      <c r="L553"/>
-      <c r="M553"/>
-      <c r="P553"/>
-      <c r="Q553"/>
-      <c r="R553" s="1"/>
-    </row>
-    <row r="554" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A554"/>
-      <c r="B554"/>
-      <c r="C554"/>
-      <c r="D554"/>
-      <c r="E554"/>
-      <c r="F554"/>
-      <c r="H554"/>
-      <c r="I554"/>
-      <c r="J554"/>
-      <c r="K554"/>
-      <c r="L554"/>
-      <c r="M554"/>
-      <c r="P554"/>
-      <c r="Q554"/>
-      <c r="R554" s="1"/>
-    </row>
-    <row r="555" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A555"/>
-      <c r="B555"/>
-      <c r="C555"/>
-      <c r="D555"/>
-      <c r="E555"/>
-      <c r="F555"/>
-      <c r="H555"/>
-      <c r="I555"/>
-      <c r="J555"/>
-      <c r="K555"/>
-      <c r="L555"/>
-      <c r="M555"/>
-      <c r="P555"/>
-      <c r="Q555"/>
-      <c r="R555" s="1"/>
-    </row>
-    <row r="556" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A556"/>
-      <c r="B556"/>
-      <c r="C556"/>
-      <c r="D556"/>
-      <c r="E556"/>
-      <c r="F556"/>
-      <c r="H556"/>
-      <c r="I556"/>
-      <c r="K556"/>
-      <c r="L556"/>
-      <c r="N556"/>
-      <c r="P556"/>
-      <c r="Q556"/>
-      <c r="R556" s="1"/>
-    </row>
-    <row r="557" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A557"/>
-      <c r="B557"/>
-      <c r="C557"/>
-      <c r="D557"/>
-      <c r="E557"/>
-      <c r="F557"/>
-      <c r="G557"/>
-      <c r="H557"/>
-      <c r="I557"/>
-      <c r="J557"/>
-      <c r="K557"/>
-      <c r="L557"/>
-      <c r="M557"/>
-      <c r="N557"/>
-      <c r="P557"/>
-      <c r="Q557"/>
-      <c r="R557" s="1"/>
-    </row>
-    <row r="558" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A558"/>
-      <c r="B558"/>
-      <c r="C558"/>
-      <c r="D558"/>
-      <c r="E558"/>
-      <c r="F558"/>
-      <c r="H558"/>
-      <c r="I558"/>
-      <c r="K558"/>
-      <c r="L558"/>
-      <c r="N558"/>
-      <c r="P558"/>
-      <c r="Q558"/>
-      <c r="R558" s="1"/>
-    </row>
-    <row r="559" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A559"/>
-      <c r="B559"/>
-      <c r="C559"/>
-      <c r="D559"/>
-      <c r="E559"/>
-      <c r="F559"/>
-      <c r="H559"/>
-      <c r="I559"/>
-      <c r="J559"/>
-      <c r="K559"/>
-      <c r="L559"/>
-      <c r="M559"/>
-      <c r="P559"/>
-      <c r="Q559"/>
-      <c r="R559" s="1"/>
-    </row>
-    <row r="560" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A560"/>
-      <c r="B560"/>
-      <c r="C560"/>
-      <c r="D560"/>
-      <c r="E560"/>
-      <c r="F560"/>
-      <c r="H560"/>
-      <c r="I560"/>
-      <c r="J560"/>
-      <c r="K560"/>
-      <c r="L560"/>
-      <c r="M560"/>
-      <c r="N560"/>
-      <c r="P560"/>
-      <c r="Q560"/>
-      <c r="R560" s="1"/>
-    </row>
-    <row r="561" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A561"/>
-      <c r="B561"/>
-      <c r="C561"/>
-      <c r="D561"/>
-      <c r="E561"/>
-      <c r="F561"/>
-      <c r="H561"/>
-      <c r="I561"/>
-      <c r="J561"/>
-      <c r="K561"/>
-      <c r="L561"/>
-      <c r="M561"/>
-      <c r="P561"/>
-      <c r="Q561"/>
-      <c r="R561" s="1"/>
-    </row>
-    <row r="562" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A562"/>
-      <c r="B562"/>
-      <c r="C562"/>
-      <c r="D562"/>
-      <c r="E562"/>
-      <c r="F562"/>
-      <c r="G562"/>
-      <c r="H562"/>
-      <c r="I562"/>
-      <c r="J562"/>
-      <c r="K562"/>
-      <c r="L562"/>
-      <c r="M562"/>
-      <c r="N562"/>
-      <c r="P562"/>
-      <c r="Q562"/>
-      <c r="R562" s="1"/>
-    </row>
-    <row r="563" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A563"/>
-      <c r="B563"/>
-      <c r="C563"/>
-      <c r="D563"/>
-      <c r="E563"/>
-      <c r="F563"/>
-      <c r="H563"/>
-      <c r="I563"/>
-      <c r="J563"/>
-      <c r="K563"/>
-      <c r="L563"/>
-      <c r="M563"/>
-      <c r="P563"/>
-      <c r="Q563"/>
-      <c r="R563" s="1"/>
-    </row>
-    <row r="564" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A564"/>
-      <c r="B564"/>
-      <c r="C564"/>
-      <c r="D564"/>
-      <c r="E564"/>
-      <c r="F564"/>
-      <c r="H564"/>
-      <c r="I564"/>
-      <c r="J564"/>
-      <c r="K564"/>
-      <c r="L564"/>
-      <c r="M564"/>
-      <c r="P564"/>
-      <c r="Q564"/>
-      <c r="R564" s="1"/>
-    </row>
-    <row r="565" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A565"/>
-      <c r="B565"/>
-      <c r="C565"/>
-      <c r="D565"/>
-      <c r="E565"/>
-      <c r="F565"/>
-      <c r="H565"/>
-      <c r="I565"/>
-      <c r="J565"/>
-      <c r="K565"/>
-      <c r="L565"/>
-      <c r="M565"/>
-      <c r="P565"/>
-      <c r="Q565"/>
-      <c r="R565" s="1"/>
-    </row>
-    <row r="566" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A566"/>
-      <c r="B566"/>
-      <c r="C566"/>
-      <c r="D566"/>
-      <c r="E566"/>
-      <c r="F566"/>
-      <c r="H566"/>
-      <c r="I566"/>
-      <c r="J566"/>
-      <c r="K566"/>
-      <c r="L566"/>
-      <c r="M566"/>
-      <c r="P566"/>
-      <c r="Q566"/>
-      <c r="R566" s="1"/>
-    </row>
-    <row r="567" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A567"/>
-      <c r="B567"/>
-      <c r="C567"/>
-      <c r="D567"/>
-      <c r="E567"/>
-      <c r="F567"/>
-      <c r="H567"/>
-      <c r="I567"/>
-      <c r="J567"/>
-      <c r="K567"/>
-      <c r="L567"/>
-      <c r="M567"/>
-      <c r="P567"/>
-      <c r="Q567"/>
-      <c r="R567" s="1"/>
-    </row>
-    <row r="568" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A568"/>
-      <c r="B568"/>
-      <c r="C568"/>
-      <c r="D568"/>
-      <c r="E568"/>
-      <c r="F568"/>
-      <c r="H568"/>
-      <c r="I568"/>
-      <c r="J568"/>
-      <c r="K568"/>
-      <c r="L568"/>
-      <c r="M568"/>
-      <c r="P568"/>
-      <c r="Q568"/>
-      <c r="R568" s="1"/>
-    </row>
-    <row r="569" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A569"/>
-      <c r="S569"/>
-      <c r="T569"/>
-      <c r="U569"/>
-    </row>
-    <row r="570" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A570"/>
-      <c r="S570"/>
-      <c r="T570"/>
-      <c r="U570"/>
-    </row>
-    <row r="571" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A571"/>
-      <c r="S571"/>
-      <c r="T571"/>
-      <c r="U571"/>
-    </row>
-    <row r="572" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S572"/>
-      <c r="T572"/>
-      <c r="U572"/>
-    </row>
-    <row r="573" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S573"/>
-      <c r="T573"/>
-      <c r="U573"/>
-    </row>
-    <row r="574" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S574"/>
-      <c r="T574"/>
-    </row>
-    <row r="575" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S575"/>
-      <c r="T575"/>
-    </row>
-    <row r="576" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="V576"/>
-    </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A577"/>
-    </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A578"/>
-    </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A579"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9923,10 +6794,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9977,8 +6848,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>7490</v>
+      </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -9988,11 +6862,41 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>7380</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>7390</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>7280</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7290</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/findmylaptop.xlsx
+++ b/findmylaptop.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" tabRatio="796" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" tabRatio="796"/>
   </bookViews>
   <sheets>
     <sheet name="Latitude Web Data" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Input Selection" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="latitude?c_au_l_en_s_dfo" localSheetId="0">'Latitude Web Data'!$A$1:$W$399</definedName>
+    <definedName name="latitude?c_au_l_en_s_dfo" localSheetId="0">'Latitude Web Data'!$A$1:$W$384</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Laptop Designation</t>
   </si>
@@ -315,8 +315,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="F1:F2" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="F1:F2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="F1:F3" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="F1:F3"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Keyboard"/>
   </tableColumns>
@@ -631,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V399"/>
+  <dimension ref="A1:V384"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:C395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,7 +1444,6 @@
       <c r="F70"/>
       <c r="H70"/>
       <c r="I70"/>
-      <c r="J70"/>
       <c r="K70"/>
       <c r="L70"/>
       <c r="M70"/>
@@ -1460,10 +1459,6 @@
       <c r="D71"/>
       <c r="E71"/>
       <c r="F71"/>
-      <c r="H71"/>
-      <c r="I71"/>
-      <c r="J71"/>
-      <c r="K71"/>
       <c r="L71"/>
       <c r="M71"/>
       <c r="P71"/>
@@ -1477,12 +1472,8 @@
       <c r="D72"/>
       <c r="E72"/>
       <c r="F72"/>
-      <c r="H72"/>
-      <c r="I72"/>
-      <c r="K72"/>
       <c r="L72"/>
       <c r="M72"/>
-      <c r="N72"/>
       <c r="P72"/>
       <c r="Q72"/>
       <c r="R72" s="1"/>
@@ -1533,6 +1524,10 @@
       <c r="D76"/>
       <c r="E76"/>
       <c r="F76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
       <c r="L76"/>
       <c r="M76"/>
       <c r="P76"/>
@@ -1546,6 +1541,10 @@
       <c r="D77"/>
       <c r="E77"/>
       <c r="F77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
       <c r="L77"/>
       <c r="M77"/>
       <c r="P77"/>
@@ -1731,7 +1730,6 @@
       <c r="F88"/>
       <c r="H88"/>
       <c r="I88"/>
-      <c r="J88"/>
       <c r="K88"/>
       <c r="L88"/>
       <c r="M88"/>
@@ -1748,7 +1746,6 @@
       <c r="F89"/>
       <c r="H89"/>
       <c r="I89"/>
-      <c r="J89"/>
       <c r="K89"/>
       <c r="L89"/>
       <c r="M89"/>
@@ -1831,7 +1828,6 @@
       <c r="I94"/>
       <c r="K94"/>
       <c r="L94"/>
-      <c r="M94"/>
       <c r="P94"/>
       <c r="Q94"/>
       <c r="R94" s="1"/>
@@ -1859,10 +1855,13 @@
       <c r="D96"/>
       <c r="E96"/>
       <c r="F96"/>
+      <c r="G96"/>
       <c r="H96"/>
       <c r="I96"/>
+      <c r="J96"/>
       <c r="K96"/>
       <c r="L96"/>
+      <c r="M96"/>
       <c r="P96"/>
       <c r="Q96"/>
       <c r="R96" s="1"/>
@@ -1876,6 +1875,7 @@
       <c r="F97"/>
       <c r="H97"/>
       <c r="I97"/>
+      <c r="J97"/>
       <c r="K97"/>
       <c r="L97"/>
       <c r="M97"/>
@@ -1890,10 +1890,8 @@
       <c r="D98"/>
       <c r="E98"/>
       <c r="F98"/>
-      <c r="G98"/>
       <c r="H98"/>
       <c r="I98"/>
-      <c r="J98"/>
       <c r="K98"/>
       <c r="L98"/>
       <c r="M98"/>
@@ -1927,6 +1925,7 @@
       <c r="F100"/>
       <c r="H100"/>
       <c r="I100"/>
+      <c r="J100"/>
       <c r="K100"/>
       <c r="L100"/>
       <c r="M100"/>
@@ -2028,10 +2027,8 @@
       <c r="F106"/>
       <c r="H106"/>
       <c r="I106"/>
-      <c r="J106"/>
       <c r="K106"/>
       <c r="L106"/>
-      <c r="M106"/>
       <c r="P106"/>
       <c r="Q106"/>
       <c r="R106" s="1"/>
@@ -2045,7 +2042,6 @@
       <c r="F107"/>
       <c r="H107"/>
       <c r="I107"/>
-      <c r="J107"/>
       <c r="K107"/>
       <c r="L107"/>
       <c r="M107"/>
@@ -2064,6 +2060,7 @@
       <c r="I108"/>
       <c r="K108"/>
       <c r="L108"/>
+      <c r="M108"/>
       <c r="P108"/>
       <c r="Q108"/>
       <c r="R108" s="1"/>
@@ -2081,7 +2078,6 @@
       <c r="K109"/>
       <c r="L109"/>
       <c r="M109"/>
-      <c r="N109"/>
       <c r="P109"/>
       <c r="Q109"/>
       <c r="R109" s="1"/>
@@ -2095,6 +2091,7 @@
       <c r="F110"/>
       <c r="H110"/>
       <c r="I110"/>
+      <c r="J110"/>
       <c r="K110"/>
       <c r="L110"/>
       <c r="M110"/>
@@ -2111,6 +2108,7 @@
       <c r="F111"/>
       <c r="H111"/>
       <c r="I111"/>
+      <c r="J111"/>
       <c r="K111"/>
       <c r="L111"/>
       <c r="M111"/>
@@ -2127,6 +2125,7 @@
       <c r="F112"/>
       <c r="H112"/>
       <c r="I112"/>
+      <c r="J112"/>
       <c r="K112"/>
       <c r="L112"/>
       <c r="M112"/>
@@ -2143,6 +2142,7 @@
       <c r="F113"/>
       <c r="H113"/>
       <c r="I113"/>
+      <c r="J113"/>
       <c r="K113"/>
       <c r="L113"/>
       <c r="M113"/>
@@ -2159,6 +2159,7 @@
       <c r="F114"/>
       <c r="H114"/>
       <c r="I114"/>
+      <c r="J114"/>
       <c r="K114"/>
       <c r="L114"/>
       <c r="M114"/>
@@ -2242,8 +2243,6 @@
       <c r="E119"/>
       <c r="F119"/>
       <c r="H119"/>
-      <c r="I119"/>
-      <c r="J119"/>
       <c r="K119"/>
       <c r="L119"/>
       <c r="M119"/>
@@ -2260,7 +2259,6 @@
       <c r="F120"/>
       <c r="H120"/>
       <c r="I120"/>
-      <c r="J120"/>
       <c r="K120"/>
       <c r="L120"/>
       <c r="M120"/>
@@ -2277,7 +2275,6 @@
       <c r="F121"/>
       <c r="H121"/>
       <c r="I121"/>
-      <c r="J121"/>
       <c r="K121"/>
       <c r="L121"/>
       <c r="M121"/>
@@ -2294,10 +2291,9 @@
       <c r="F122"/>
       <c r="H122"/>
       <c r="I122"/>
-      <c r="J122"/>
       <c r="K122"/>
       <c r="L122"/>
-      <c r="M122"/>
+      <c r="N122"/>
       <c r="P122"/>
       <c r="Q122"/>
       <c r="R122" s="1"/>
@@ -2361,6 +2357,8 @@
       <c r="E126"/>
       <c r="F126"/>
       <c r="H126"/>
+      <c r="I126"/>
+      <c r="J126"/>
       <c r="K126"/>
       <c r="L126"/>
       <c r="M126"/>
@@ -2377,6 +2375,7 @@
       <c r="F127"/>
       <c r="H127"/>
       <c r="I127"/>
+      <c r="J127"/>
       <c r="K127"/>
       <c r="L127"/>
       <c r="M127"/>
@@ -2393,6 +2392,7 @@
       <c r="F128"/>
       <c r="H128"/>
       <c r="I128"/>
+      <c r="J128"/>
       <c r="K128"/>
       <c r="L128"/>
       <c r="M128"/>
@@ -2409,9 +2409,10 @@
       <c r="F129"/>
       <c r="H129"/>
       <c r="I129"/>
+      <c r="J129"/>
       <c r="K129"/>
       <c r="L129"/>
-      <c r="N129"/>
+      <c r="M129"/>
       <c r="P129"/>
       <c r="Q129"/>
       <c r="R129" s="1"/>
@@ -2422,13 +2423,11 @@
       <c r="C130"/>
       <c r="D130"/>
       <c r="E130"/>
-      <c r="F130"/>
-      <c r="H130"/>
       <c r="I130"/>
-      <c r="J130"/>
       <c r="K130"/>
       <c r="L130"/>
       <c r="M130"/>
+      <c r="N130"/>
       <c r="P130"/>
       <c r="Q130"/>
       <c r="R130" s="1"/>
@@ -2439,13 +2438,11 @@
       <c r="C131"/>
       <c r="D131"/>
       <c r="E131"/>
-      <c r="F131"/>
-      <c r="H131"/>
       <c r="I131"/>
-      <c r="J131"/>
       <c r="K131"/>
       <c r="L131"/>
       <c r="M131"/>
+      <c r="N131"/>
       <c r="P131"/>
       <c r="Q131"/>
       <c r="R131" s="1"/>
@@ -2456,13 +2453,11 @@
       <c r="C132"/>
       <c r="D132"/>
       <c r="E132"/>
-      <c r="F132"/>
-      <c r="H132"/>
       <c r="I132"/>
-      <c r="J132"/>
       <c r="K132"/>
       <c r="L132"/>
       <c r="M132"/>
+      <c r="N132"/>
       <c r="P132"/>
       <c r="Q132"/>
       <c r="R132" s="1"/>
@@ -2476,10 +2471,8 @@
       <c r="F133"/>
       <c r="H133"/>
       <c r="I133"/>
-      <c r="J133"/>
       <c r="K133"/>
       <c r="L133"/>
-      <c r="M133"/>
       <c r="P133"/>
       <c r="Q133"/>
       <c r="R133" s="1"/>
@@ -2493,10 +2486,8 @@
       <c r="F134"/>
       <c r="H134"/>
       <c r="I134"/>
-      <c r="J134"/>
       <c r="K134"/>
       <c r="L134"/>
-      <c r="M134"/>
       <c r="P134"/>
       <c r="Q134"/>
       <c r="R134" s="1"/>
@@ -2510,10 +2501,8 @@
       <c r="F135"/>
       <c r="H135"/>
       <c r="I135"/>
-      <c r="J135"/>
       <c r="K135"/>
       <c r="L135"/>
-      <c r="M135"/>
       <c r="P135"/>
       <c r="Q135"/>
       <c r="R135" s="1"/>
@@ -2531,6 +2520,7 @@
       <c r="K136"/>
       <c r="L136"/>
       <c r="M136"/>
+      <c r="N136"/>
       <c r="P136"/>
       <c r="Q136"/>
       <c r="R136" s="1"/>
@@ -2541,7 +2531,10 @@
       <c r="C137"/>
       <c r="D137"/>
       <c r="E137"/>
+      <c r="F137"/>
+      <c r="H137"/>
       <c r="I137"/>
+      <c r="J137"/>
       <c r="K137"/>
       <c r="L137"/>
       <c r="M137"/>
@@ -2556,6 +2549,7 @@
       <c r="C138"/>
       <c r="D138"/>
       <c r="E138"/>
+      <c r="F138"/>
       <c r="I138"/>
       <c r="K138"/>
       <c r="L138"/>
@@ -2571,7 +2565,9 @@
       <c r="C139"/>
       <c r="D139"/>
       <c r="E139"/>
+      <c r="F139"/>
       <c r="I139"/>
+      <c r="J139"/>
       <c r="K139"/>
       <c r="L139"/>
       <c r="M139"/>
@@ -2587,10 +2583,12 @@
       <c r="D140"/>
       <c r="E140"/>
       <c r="F140"/>
-      <c r="H140"/>
       <c r="I140"/>
+      <c r="J140"/>
       <c r="K140"/>
       <c r="L140"/>
+      <c r="M140"/>
+      <c r="N140"/>
       <c r="P140"/>
       <c r="Q140"/>
       <c r="R140" s="1"/>
@@ -2604,8 +2602,10 @@
       <c r="F141"/>
       <c r="H141"/>
       <c r="I141"/>
+      <c r="J141"/>
       <c r="K141"/>
       <c r="L141"/>
+      <c r="M141"/>
       <c r="P141"/>
       <c r="Q141"/>
       <c r="R141" s="1"/>
@@ -2619,8 +2619,10 @@
       <c r="F142"/>
       <c r="H142"/>
       <c r="I142"/>
+      <c r="J142"/>
       <c r="K142"/>
       <c r="L142"/>
+      <c r="M142"/>
       <c r="P142"/>
       <c r="Q142"/>
       <c r="R142" s="1"/>
@@ -2634,10 +2636,8 @@
       <c r="F143"/>
       <c r="H143"/>
       <c r="I143"/>
-      <c r="J143"/>
       <c r="K143"/>
       <c r="L143"/>
-      <c r="M143"/>
       <c r="N143"/>
       <c r="P143"/>
       <c r="Q143"/>
@@ -2652,10 +2652,8 @@
       <c r="F144"/>
       <c r="H144"/>
       <c r="I144"/>
-      <c r="J144"/>
       <c r="K144"/>
       <c r="L144"/>
-      <c r="M144"/>
       <c r="N144"/>
       <c r="P144"/>
       <c r="Q144"/>
@@ -2668,10 +2666,10 @@
       <c r="D145"/>
       <c r="E145"/>
       <c r="F145"/>
+      <c r="H145"/>
       <c r="I145"/>
       <c r="K145"/>
       <c r="L145"/>
-      <c r="M145"/>
       <c r="N145"/>
       <c r="P145"/>
       <c r="Q145"/>
@@ -2684,11 +2682,10 @@
       <c r="D146"/>
       <c r="E146"/>
       <c r="F146"/>
+      <c r="H146"/>
       <c r="I146"/>
-      <c r="J146"/>
       <c r="K146"/>
       <c r="L146"/>
-      <c r="M146"/>
       <c r="N146"/>
       <c r="P146"/>
       <c r="Q146"/>
@@ -2701,11 +2698,10 @@
       <c r="D147"/>
       <c r="E147"/>
       <c r="F147"/>
+      <c r="H147"/>
       <c r="I147"/>
-      <c r="J147"/>
       <c r="K147"/>
       <c r="L147"/>
-      <c r="M147"/>
       <c r="N147"/>
       <c r="P147"/>
       <c r="Q147"/>
@@ -2720,10 +2716,9 @@
       <c r="F148"/>
       <c r="H148"/>
       <c r="I148"/>
-      <c r="J148"/>
       <c r="K148"/>
       <c r="L148"/>
-      <c r="M148"/>
+      <c r="N148"/>
       <c r="P148"/>
       <c r="Q148"/>
       <c r="R148" s="1"/>
@@ -2737,10 +2732,9 @@
       <c r="F149"/>
       <c r="H149"/>
       <c r="I149"/>
-      <c r="J149"/>
       <c r="K149"/>
       <c r="L149"/>
-      <c r="M149"/>
+      <c r="N149"/>
       <c r="P149"/>
       <c r="Q149"/>
       <c r="R149" s="1"/>
@@ -2932,7 +2926,7 @@
       <c r="I161"/>
       <c r="K161"/>
       <c r="L161"/>
-      <c r="N161"/>
+      <c r="M161"/>
       <c r="P161"/>
       <c r="Q161"/>
       <c r="R161" s="1"/>
@@ -2948,7 +2942,7 @@
       <c r="I162"/>
       <c r="K162"/>
       <c r="L162"/>
-      <c r="N162"/>
+      <c r="M162"/>
       <c r="P162"/>
       <c r="Q162"/>
       <c r="R162" s="1"/>
@@ -2964,7 +2958,7 @@
       <c r="I163"/>
       <c r="K163"/>
       <c r="L163"/>
-      <c r="N163"/>
+      <c r="M163"/>
       <c r="P163"/>
       <c r="Q163"/>
       <c r="R163" s="1"/>
@@ -2980,7 +2974,7 @@
       <c r="I164"/>
       <c r="K164"/>
       <c r="L164"/>
-      <c r="N164"/>
+      <c r="M164"/>
       <c r="P164"/>
       <c r="Q164"/>
       <c r="R164" s="1"/>
@@ -2996,7 +2990,7 @@
       <c r="I165"/>
       <c r="K165"/>
       <c r="L165"/>
-      <c r="N165"/>
+      <c r="M165"/>
       <c r="P165"/>
       <c r="Q165"/>
       <c r="R165" s="1"/>
@@ -3012,7 +3006,7 @@
       <c r="I166"/>
       <c r="K166"/>
       <c r="L166"/>
-      <c r="N166"/>
+      <c r="M166"/>
       <c r="P166"/>
       <c r="Q166"/>
       <c r="R166" s="1"/>
@@ -3028,7 +3022,7 @@
       <c r="I167"/>
       <c r="K167"/>
       <c r="L167"/>
-      <c r="N167"/>
+      <c r="M167"/>
       <c r="P167"/>
       <c r="Q167"/>
       <c r="R167" s="1"/>
@@ -3170,6 +3164,7 @@
       <c r="F176"/>
       <c r="H176"/>
       <c r="I176"/>
+      <c r="J176"/>
       <c r="K176"/>
       <c r="L176"/>
       <c r="M176"/>
@@ -3186,6 +3181,7 @@
       <c r="F177"/>
       <c r="H177"/>
       <c r="I177"/>
+      <c r="J177"/>
       <c r="K177"/>
       <c r="L177"/>
       <c r="M177"/>
@@ -3202,6 +3198,7 @@
       <c r="F178"/>
       <c r="H178"/>
       <c r="I178"/>
+      <c r="J178"/>
       <c r="K178"/>
       <c r="L178"/>
       <c r="M178"/>
@@ -3218,6 +3215,7 @@
       <c r="F179"/>
       <c r="H179"/>
       <c r="I179"/>
+      <c r="J179"/>
       <c r="K179"/>
       <c r="L179"/>
       <c r="M179"/>
@@ -3232,11 +3230,11 @@
       <c r="D180"/>
       <c r="E180"/>
       <c r="F180"/>
+      <c r="G180"/>
       <c r="H180"/>
       <c r="I180"/>
       <c r="K180"/>
       <c r="L180"/>
-      <c r="M180"/>
       <c r="P180"/>
       <c r="Q180"/>
       <c r="R180" s="1"/>
@@ -3252,7 +3250,6 @@
       <c r="I181"/>
       <c r="K181"/>
       <c r="L181"/>
-      <c r="M181"/>
       <c r="P181"/>
       <c r="Q181"/>
       <c r="R181" s="1"/>
@@ -3268,7 +3265,6 @@
       <c r="I182"/>
       <c r="K182"/>
       <c r="L182"/>
-      <c r="M182"/>
       <c r="P182"/>
       <c r="Q182"/>
       <c r="R182" s="1"/>
@@ -3282,10 +3278,8 @@
       <c r="F183"/>
       <c r="H183"/>
       <c r="I183"/>
-      <c r="J183"/>
       <c r="K183"/>
       <c r="L183"/>
-      <c r="M183"/>
       <c r="P183"/>
       <c r="Q183"/>
       <c r="R183" s="1"/>
@@ -3299,10 +3293,8 @@
       <c r="F184"/>
       <c r="H184"/>
       <c r="I184"/>
-      <c r="J184"/>
       <c r="K184"/>
       <c r="L184"/>
-      <c r="M184"/>
       <c r="P184"/>
       <c r="Q184"/>
       <c r="R184" s="1"/>
@@ -3316,10 +3308,8 @@
       <c r="F185"/>
       <c r="H185"/>
       <c r="I185"/>
-      <c r="J185"/>
       <c r="K185"/>
       <c r="L185"/>
-      <c r="M185"/>
       <c r="P185"/>
       <c r="Q185"/>
       <c r="R185" s="1"/>
@@ -3333,10 +3323,8 @@
       <c r="F186"/>
       <c r="H186"/>
       <c r="I186"/>
-      <c r="J186"/>
       <c r="K186"/>
       <c r="L186"/>
-      <c r="M186"/>
       <c r="P186"/>
       <c r="Q186"/>
       <c r="R186" s="1"/>
@@ -3348,7 +3336,6 @@
       <c r="D187"/>
       <c r="E187"/>
       <c r="F187"/>
-      <c r="G187"/>
       <c r="H187"/>
       <c r="I187"/>
       <c r="K187"/>
@@ -3398,6 +3385,8 @@
       <c r="I190"/>
       <c r="K190"/>
       <c r="L190"/>
+      <c r="M190"/>
+      <c r="N190"/>
       <c r="P190"/>
       <c r="Q190"/>
       <c r="R190" s="1"/>
@@ -3411,8 +3400,11 @@
       <c r="F191"/>
       <c r="H191"/>
       <c r="I191"/>
+      <c r="J191"/>
       <c r="K191"/>
       <c r="L191"/>
+      <c r="M191"/>
+      <c r="N191"/>
       <c r="P191"/>
       <c r="Q191"/>
       <c r="R191" s="1"/>
@@ -3426,8 +3418,11 @@
       <c r="F192"/>
       <c r="H192"/>
       <c r="I192"/>
+      <c r="J192"/>
       <c r="K192"/>
       <c r="L192"/>
+      <c r="M192"/>
+      <c r="N192"/>
       <c r="P192"/>
       <c r="Q192"/>
       <c r="R192" s="1"/>
@@ -3441,8 +3436,11 @@
       <c r="F193"/>
       <c r="H193"/>
       <c r="I193"/>
+      <c r="J193"/>
       <c r="K193"/>
       <c r="L193"/>
+      <c r="M193"/>
+      <c r="N193"/>
       <c r="P193"/>
       <c r="Q193"/>
       <c r="R193" s="1"/>
@@ -3458,6 +3456,7 @@
       <c r="I194"/>
       <c r="K194"/>
       <c r="L194"/>
+      <c r="M194"/>
       <c r="P194"/>
       <c r="Q194"/>
       <c r="R194" s="1"/>
@@ -3473,6 +3472,7 @@
       <c r="I195"/>
       <c r="K195"/>
       <c r="L195"/>
+      <c r="M195"/>
       <c r="P195"/>
       <c r="Q195"/>
       <c r="R195" s="1"/>
@@ -3488,6 +3488,7 @@
       <c r="I196"/>
       <c r="K196"/>
       <c r="L196"/>
+      <c r="M196"/>
       <c r="P196"/>
       <c r="Q196"/>
       <c r="R196" s="1"/>
@@ -3522,7 +3523,6 @@
       <c r="K198"/>
       <c r="L198"/>
       <c r="M198"/>
-      <c r="N198"/>
       <c r="P198"/>
       <c r="Q198"/>
       <c r="R198" s="1"/>
@@ -3540,7 +3540,6 @@
       <c r="K199"/>
       <c r="L199"/>
       <c r="M199"/>
-      <c r="N199"/>
       <c r="P199"/>
       <c r="Q199"/>
       <c r="R199" s="1"/>
@@ -3558,7 +3557,6 @@
       <c r="K200"/>
       <c r="L200"/>
       <c r="M200"/>
-      <c r="N200"/>
       <c r="P200"/>
       <c r="Q200"/>
       <c r="R200" s="1"/>
@@ -3576,7 +3574,6 @@
       <c r="K201"/>
       <c r="L201"/>
       <c r="M201"/>
-      <c r="N201"/>
       <c r="P201"/>
       <c r="Q201"/>
       <c r="R201" s="1"/>
@@ -3590,6 +3587,7 @@
       <c r="F202"/>
       <c r="H202"/>
       <c r="I202"/>
+      <c r="J202"/>
       <c r="K202"/>
       <c r="L202"/>
       <c r="M202"/>
@@ -3606,6 +3604,7 @@
       <c r="F203"/>
       <c r="H203"/>
       <c r="I203"/>
+      <c r="J203"/>
       <c r="K203"/>
       <c r="L203"/>
       <c r="M203"/>
@@ -3622,6 +3621,7 @@
       <c r="F204"/>
       <c r="H204"/>
       <c r="I204"/>
+      <c r="J204"/>
       <c r="K204"/>
       <c r="L204"/>
       <c r="M204"/>
@@ -3638,6 +3638,7 @@
       <c r="F205"/>
       <c r="H205"/>
       <c r="I205"/>
+      <c r="J205"/>
       <c r="K205"/>
       <c r="L205"/>
       <c r="M205"/>
@@ -3654,10 +3655,10 @@
       <c r="F206"/>
       <c r="H206"/>
       <c r="I206"/>
+      <c r="J206"/>
       <c r="K206"/>
       <c r="L206"/>
       <c r="M206"/>
-      <c r="N206"/>
       <c r="P206"/>
       <c r="Q206"/>
       <c r="R206" s="1"/>
@@ -3669,6 +3670,7 @@
       <c r="D207"/>
       <c r="E207"/>
       <c r="F207"/>
+      <c r="G207"/>
       <c r="H207"/>
       <c r="I207"/>
       <c r="J207"/>
@@ -3839,7 +3841,6 @@
       <c r="D217"/>
       <c r="E217"/>
       <c r="F217"/>
-      <c r="G217"/>
       <c r="H217"/>
       <c r="I217"/>
       <c r="J217"/>
@@ -4029,10 +4030,8 @@
       <c r="F228"/>
       <c r="H228"/>
       <c r="I228"/>
-      <c r="J228"/>
       <c r="K228"/>
       <c r="L228"/>
-      <c r="M228"/>
       <c r="P228"/>
       <c r="Q228"/>
       <c r="R228" s="1"/>
@@ -4046,10 +4045,8 @@
       <c r="F229"/>
       <c r="H229"/>
       <c r="I229"/>
-      <c r="J229"/>
       <c r="K229"/>
       <c r="L229"/>
-      <c r="M229"/>
       <c r="P229"/>
       <c r="Q229"/>
       <c r="R229" s="1"/>
@@ -4063,10 +4060,8 @@
       <c r="F230"/>
       <c r="H230"/>
       <c r="I230"/>
-      <c r="J230"/>
       <c r="K230"/>
       <c r="L230"/>
-      <c r="M230"/>
       <c r="P230"/>
       <c r="Q230"/>
       <c r="R230" s="1"/>
@@ -4084,6 +4079,7 @@
       <c r="K231"/>
       <c r="L231"/>
       <c r="M231"/>
+      <c r="N231"/>
       <c r="P231"/>
       <c r="Q231"/>
       <c r="R231" s="1"/>
@@ -4101,6 +4097,7 @@
       <c r="K232"/>
       <c r="L232"/>
       <c r="M232"/>
+      <c r="N232"/>
       <c r="P232"/>
       <c r="Q232"/>
       <c r="R232" s="1"/>
@@ -4112,12 +4109,11 @@
       <c r="D233"/>
       <c r="E233"/>
       <c r="F233"/>
-      <c r="H233"/>
       <c r="I233"/>
-      <c r="J233"/>
       <c r="K233"/>
       <c r="L233"/>
       <c r="M233"/>
+      <c r="N233"/>
       <c r="P233"/>
       <c r="Q233"/>
       <c r="R233" s="1"/>
@@ -4129,12 +4125,12 @@
       <c r="D234"/>
       <c r="E234"/>
       <c r="F234"/>
-      <c r="H234"/>
       <c r="I234"/>
       <c r="J234"/>
       <c r="K234"/>
       <c r="L234"/>
       <c r="M234"/>
+      <c r="N234"/>
       <c r="P234"/>
       <c r="Q234"/>
       <c r="R234" s="1"/>
@@ -4146,12 +4142,12 @@
       <c r="D235"/>
       <c r="E235"/>
       <c r="F235"/>
-      <c r="H235"/>
       <c r="I235"/>
       <c r="J235"/>
       <c r="K235"/>
       <c r="L235"/>
       <c r="M235"/>
+      <c r="N235"/>
       <c r="P235"/>
       <c r="Q235"/>
       <c r="R235" s="1"/>
@@ -4199,10 +4195,9 @@
       <c r="F238"/>
       <c r="H238"/>
       <c r="I238"/>
-      <c r="J238"/>
       <c r="K238"/>
       <c r="L238"/>
-      <c r="M238"/>
+      <c r="N238"/>
       <c r="P238"/>
       <c r="Q238"/>
       <c r="R238" s="1"/>
@@ -4218,6 +4213,7 @@
       <c r="I239"/>
       <c r="K239"/>
       <c r="L239"/>
+      <c r="N239"/>
       <c r="P239"/>
       <c r="Q239"/>
       <c r="R239" s="1"/>
@@ -4233,6 +4229,7 @@
       <c r="I240"/>
       <c r="K240"/>
       <c r="L240"/>
+      <c r="N240"/>
       <c r="P240"/>
       <c r="Q240"/>
       <c r="R240" s="1"/>
@@ -4248,6 +4245,7 @@
       <c r="I241"/>
       <c r="K241"/>
       <c r="L241"/>
+      <c r="N241"/>
       <c r="P241"/>
       <c r="Q241"/>
       <c r="R241" s="1"/>
@@ -4261,10 +4259,8 @@
       <c r="F242"/>
       <c r="H242"/>
       <c r="I242"/>
-      <c r="J242"/>
       <c r="K242"/>
       <c r="L242"/>
-      <c r="M242"/>
       <c r="N242"/>
       <c r="P242"/>
       <c r="Q242"/>
@@ -4279,10 +4275,8 @@
       <c r="F243"/>
       <c r="H243"/>
       <c r="I243"/>
-      <c r="J243"/>
       <c r="K243"/>
       <c r="L243"/>
-      <c r="M243"/>
       <c r="N243"/>
       <c r="P243"/>
       <c r="Q243"/>
@@ -4295,10 +4289,10 @@
       <c r="D244"/>
       <c r="E244"/>
       <c r="F244"/>
+      <c r="H244"/>
       <c r="I244"/>
       <c r="K244"/>
       <c r="L244"/>
-      <c r="M244"/>
       <c r="N244"/>
       <c r="P244"/>
       <c r="Q244"/>
@@ -4311,11 +4305,10 @@
       <c r="D245"/>
       <c r="E245"/>
       <c r="F245"/>
+      <c r="H245"/>
       <c r="I245"/>
-      <c r="J245"/>
       <c r="K245"/>
       <c r="L245"/>
-      <c r="M245"/>
       <c r="N245"/>
       <c r="P245"/>
       <c r="Q245"/>
@@ -4328,11 +4321,10 @@
       <c r="D246"/>
       <c r="E246"/>
       <c r="F246"/>
+      <c r="H246"/>
       <c r="I246"/>
-      <c r="J246"/>
       <c r="K246"/>
       <c r="L246"/>
-      <c r="M246"/>
       <c r="N246"/>
       <c r="P246"/>
       <c r="Q246"/>
@@ -4347,10 +4339,9 @@
       <c r="F247"/>
       <c r="H247"/>
       <c r="I247"/>
-      <c r="J247"/>
       <c r="K247"/>
       <c r="L247"/>
-      <c r="M247"/>
+      <c r="N247"/>
       <c r="P247"/>
       <c r="Q247"/>
       <c r="R247" s="1"/>
@@ -4364,10 +4355,9 @@
       <c r="F248"/>
       <c r="H248"/>
       <c r="I248"/>
-      <c r="J248"/>
       <c r="K248"/>
       <c r="L248"/>
-      <c r="M248"/>
+      <c r="N248"/>
       <c r="P248"/>
       <c r="Q248"/>
       <c r="R248" s="1"/>
@@ -4495,7 +4485,7 @@
       <c r="I256"/>
       <c r="K256"/>
       <c r="L256"/>
-      <c r="N256"/>
+      <c r="M256"/>
       <c r="P256"/>
       <c r="Q256"/>
       <c r="R256" s="1"/>
@@ -4511,7 +4501,7 @@
       <c r="I257"/>
       <c r="K257"/>
       <c r="L257"/>
-      <c r="N257"/>
+      <c r="M257"/>
       <c r="P257"/>
       <c r="Q257"/>
       <c r="R257" s="1"/>
@@ -4527,7 +4517,7 @@
       <c r="I258"/>
       <c r="K258"/>
       <c r="L258"/>
-      <c r="N258"/>
+      <c r="M258"/>
       <c r="P258"/>
       <c r="Q258"/>
       <c r="R258" s="1"/>
@@ -4543,7 +4533,7 @@
       <c r="I259"/>
       <c r="K259"/>
       <c r="L259"/>
-      <c r="N259"/>
+      <c r="M259"/>
       <c r="P259"/>
       <c r="Q259"/>
       <c r="R259" s="1"/>
@@ -4559,7 +4549,7 @@
       <c r="I260"/>
       <c r="K260"/>
       <c r="L260"/>
-      <c r="N260"/>
+      <c r="M260"/>
       <c r="P260"/>
       <c r="Q260"/>
       <c r="R260" s="1"/>
@@ -4575,7 +4565,7 @@
       <c r="I261"/>
       <c r="K261"/>
       <c r="L261"/>
-      <c r="N261"/>
+      <c r="M261"/>
       <c r="P261"/>
       <c r="Q261"/>
       <c r="R261" s="1"/>
@@ -4591,7 +4581,7 @@
       <c r="I262"/>
       <c r="K262"/>
       <c r="L262"/>
-      <c r="N262"/>
+      <c r="M262"/>
       <c r="P262"/>
       <c r="Q262"/>
       <c r="R262" s="1"/>
@@ -4607,7 +4597,7 @@
       <c r="I263"/>
       <c r="K263"/>
       <c r="L263"/>
-      <c r="N263"/>
+      <c r="M263"/>
       <c r="P263"/>
       <c r="Q263"/>
       <c r="R263" s="1"/>
@@ -4623,7 +4613,7 @@
       <c r="I264"/>
       <c r="K264"/>
       <c r="L264"/>
-      <c r="N264"/>
+      <c r="M264"/>
       <c r="P264"/>
       <c r="Q264"/>
       <c r="R264" s="1"/>
@@ -4639,7 +4629,7 @@
       <c r="I265"/>
       <c r="K265"/>
       <c r="L265"/>
-      <c r="N265"/>
+      <c r="M265"/>
       <c r="P265"/>
       <c r="Q265"/>
       <c r="R265" s="1"/>
@@ -4655,7 +4645,7 @@
       <c r="I266"/>
       <c r="K266"/>
       <c r="L266"/>
-      <c r="N266"/>
+      <c r="M266"/>
       <c r="P266"/>
       <c r="Q266"/>
       <c r="R266" s="1"/>
@@ -4733,6 +4723,7 @@
       <c r="F271"/>
       <c r="H271"/>
       <c r="I271"/>
+      <c r="J271"/>
       <c r="K271"/>
       <c r="L271"/>
       <c r="M271"/>
@@ -4749,6 +4740,7 @@
       <c r="F272"/>
       <c r="H272"/>
       <c r="I272"/>
+      <c r="J272"/>
       <c r="K272"/>
       <c r="L272"/>
       <c r="M272"/>
@@ -4765,6 +4757,7 @@
       <c r="F273"/>
       <c r="H273"/>
       <c r="I273"/>
+      <c r="J273"/>
       <c r="K273"/>
       <c r="L273"/>
       <c r="M273"/>
@@ -4781,6 +4774,7 @@
       <c r="F274"/>
       <c r="H274"/>
       <c r="I274"/>
+      <c r="J274"/>
       <c r="K274"/>
       <c r="L274"/>
       <c r="M274"/>
@@ -4795,11 +4789,11 @@
       <c r="D275"/>
       <c r="E275"/>
       <c r="F275"/>
+      <c r="G275"/>
       <c r="H275"/>
       <c r="I275"/>
       <c r="K275"/>
       <c r="L275"/>
-      <c r="M275"/>
       <c r="P275"/>
       <c r="Q275"/>
       <c r="R275" s="1"/>
@@ -4815,7 +4809,6 @@
       <c r="I276"/>
       <c r="K276"/>
       <c r="L276"/>
-      <c r="M276"/>
       <c r="P276"/>
       <c r="Q276"/>
       <c r="R276" s="1"/>
@@ -4831,7 +4824,6 @@
       <c r="I277"/>
       <c r="K277"/>
       <c r="L277"/>
-      <c r="M277"/>
       <c r="P277"/>
       <c r="Q277"/>
       <c r="R277" s="1"/>
@@ -4847,7 +4839,6 @@
       <c r="I278"/>
       <c r="K278"/>
       <c r="L278"/>
-      <c r="M278"/>
       <c r="P278"/>
       <c r="Q278"/>
       <c r="R278" s="1"/>
@@ -4863,7 +4854,6 @@
       <c r="I279"/>
       <c r="K279"/>
       <c r="L279"/>
-      <c r="M279"/>
       <c r="P279"/>
       <c r="Q279"/>
       <c r="R279" s="1"/>
@@ -4879,7 +4869,6 @@
       <c r="I280"/>
       <c r="K280"/>
       <c r="L280"/>
-      <c r="M280"/>
       <c r="P280"/>
       <c r="Q280"/>
       <c r="R280" s="1"/>
@@ -4895,7 +4884,6 @@
       <c r="I281"/>
       <c r="K281"/>
       <c r="L281"/>
-      <c r="M281"/>
       <c r="P281"/>
       <c r="Q281"/>
       <c r="R281" s="1"/>
@@ -4909,10 +4897,8 @@
       <c r="F282"/>
       <c r="H282"/>
       <c r="I282"/>
-      <c r="J282"/>
       <c r="K282"/>
       <c r="L282"/>
-      <c r="M282"/>
       <c r="P282"/>
       <c r="Q282"/>
       <c r="R282" s="1"/>
@@ -4926,10 +4912,8 @@
       <c r="F283"/>
       <c r="H283"/>
       <c r="I283"/>
-      <c r="J283"/>
       <c r="K283"/>
       <c r="L283"/>
-      <c r="M283"/>
       <c r="P283"/>
       <c r="Q283"/>
       <c r="R283" s="1"/>
@@ -4943,10 +4927,8 @@
       <c r="F284"/>
       <c r="H284"/>
       <c r="I284"/>
-      <c r="J284"/>
       <c r="K284"/>
       <c r="L284"/>
-      <c r="M284"/>
       <c r="P284"/>
       <c r="Q284"/>
       <c r="R284" s="1"/>
@@ -4960,10 +4942,10 @@
       <c r="F285"/>
       <c r="H285"/>
       <c r="I285"/>
-      <c r="J285"/>
       <c r="K285"/>
       <c r="L285"/>
       <c r="M285"/>
+      <c r="N285"/>
       <c r="P285"/>
       <c r="Q285"/>
       <c r="R285" s="1"/>
@@ -4975,11 +4957,13 @@
       <c r="D286"/>
       <c r="E286"/>
       <c r="F286"/>
-      <c r="G286"/>
       <c r="H286"/>
       <c r="I286"/>
+      <c r="J286"/>
       <c r="K286"/>
       <c r="L286"/>
+      <c r="M286"/>
+      <c r="N286"/>
       <c r="P286"/>
       <c r="Q286"/>
       <c r="R286" s="1"/>
@@ -4993,8 +4977,11 @@
       <c r="F287"/>
       <c r="H287"/>
       <c r="I287"/>
+      <c r="J287"/>
       <c r="K287"/>
       <c r="L287"/>
+      <c r="M287"/>
+      <c r="N287"/>
       <c r="P287"/>
       <c r="Q287"/>
       <c r="R287" s="1"/>
@@ -5008,8 +4995,11 @@
       <c r="F288"/>
       <c r="H288"/>
       <c r="I288"/>
+      <c r="J288"/>
       <c r="K288"/>
       <c r="L288"/>
+      <c r="M288"/>
+      <c r="N288"/>
       <c r="P288"/>
       <c r="Q288"/>
       <c r="R288" s="1"/>
@@ -5025,6 +5015,7 @@
       <c r="I289"/>
       <c r="K289"/>
       <c r="L289"/>
+      <c r="M289"/>
       <c r="P289"/>
       <c r="Q289"/>
       <c r="R289" s="1"/>
@@ -5040,6 +5031,7 @@
       <c r="I290"/>
       <c r="K290"/>
       <c r="L290"/>
+      <c r="M290"/>
       <c r="P290"/>
       <c r="Q290"/>
       <c r="R290" s="1"/>
@@ -5055,6 +5047,7 @@
       <c r="I291"/>
       <c r="K291"/>
       <c r="L291"/>
+      <c r="M291"/>
       <c r="P291"/>
       <c r="Q291"/>
       <c r="R291" s="1"/>
@@ -5070,6 +5063,8 @@
       <c r="I292"/>
       <c r="K292"/>
       <c r="L292"/>
+      <c r="M292"/>
+      <c r="N292"/>
       <c r="P292"/>
       <c r="Q292"/>
       <c r="R292" s="1"/>
@@ -5083,8 +5078,10 @@
       <c r="F293"/>
       <c r="H293"/>
       <c r="I293"/>
+      <c r="J293"/>
       <c r="K293"/>
       <c r="L293"/>
+      <c r="M293"/>
       <c r="P293"/>
       <c r="Q293"/>
       <c r="R293" s="1"/>
@@ -5098,8 +5095,10 @@
       <c r="F294"/>
       <c r="H294"/>
       <c r="I294"/>
+      <c r="J294"/>
       <c r="K294"/>
       <c r="L294"/>
+      <c r="M294"/>
       <c r="P294"/>
       <c r="Q294"/>
       <c r="R294" s="1"/>
@@ -5113,8 +5112,10 @@
       <c r="F295"/>
       <c r="H295"/>
       <c r="I295"/>
+      <c r="J295"/>
       <c r="K295"/>
       <c r="L295"/>
+      <c r="M295"/>
       <c r="P295"/>
       <c r="Q295"/>
       <c r="R295" s="1"/>
@@ -5128,10 +5129,10 @@
       <c r="F296"/>
       <c r="H296"/>
       <c r="I296"/>
+      <c r="J296"/>
       <c r="K296"/>
       <c r="L296"/>
       <c r="M296"/>
-      <c r="N296"/>
       <c r="P296"/>
       <c r="Q296"/>
       <c r="R296" s="1"/>
@@ -5149,7 +5150,6 @@
       <c r="K297"/>
       <c r="L297"/>
       <c r="M297"/>
-      <c r="N297"/>
       <c r="P297"/>
       <c r="Q297"/>
       <c r="R297" s="1"/>
@@ -5167,7 +5167,6 @@
       <c r="K298"/>
       <c r="L298"/>
       <c r="M298"/>
-      <c r="N298"/>
       <c r="P298"/>
       <c r="Q298"/>
       <c r="R298" s="1"/>
@@ -5185,7 +5184,6 @@
       <c r="K299"/>
       <c r="L299"/>
       <c r="M299"/>
-      <c r="N299"/>
       <c r="P299"/>
       <c r="Q299"/>
       <c r="R299" s="1"/>
@@ -5203,7 +5201,6 @@
       <c r="K300"/>
       <c r="L300"/>
       <c r="M300"/>
-      <c r="N300"/>
       <c r="P300"/>
       <c r="Q300"/>
       <c r="R300" s="1"/>
@@ -5217,6 +5214,7 @@
       <c r="F301"/>
       <c r="H301"/>
       <c r="I301"/>
+      <c r="J301"/>
       <c r="K301"/>
       <c r="L301"/>
       <c r="M301"/>
@@ -5231,8 +5229,10 @@
       <c r="D302"/>
       <c r="E302"/>
       <c r="F302"/>
+      <c r="G302"/>
       <c r="H302"/>
       <c r="I302"/>
+      <c r="J302"/>
       <c r="K302"/>
       <c r="L302"/>
       <c r="M302"/>
@@ -5249,6 +5249,7 @@
       <c r="F303"/>
       <c r="H303"/>
       <c r="I303"/>
+      <c r="J303"/>
       <c r="K303"/>
       <c r="L303"/>
       <c r="M303"/>
@@ -5265,6 +5266,7 @@
       <c r="F304"/>
       <c r="H304"/>
       <c r="I304"/>
+      <c r="J304"/>
       <c r="K304"/>
       <c r="L304"/>
       <c r="M304"/>
@@ -5281,10 +5283,10 @@
       <c r="F305"/>
       <c r="H305"/>
       <c r="I305"/>
+      <c r="J305"/>
       <c r="K305"/>
       <c r="L305"/>
       <c r="M305"/>
-      <c r="N305"/>
       <c r="P305"/>
       <c r="Q305"/>
       <c r="R305" s="1"/>
@@ -5466,7 +5468,6 @@
       <c r="D316"/>
       <c r="E316"/>
       <c r="F316"/>
-      <c r="G316"/>
       <c r="H316"/>
       <c r="I316"/>
       <c r="J316"/>
@@ -5977,12 +5978,14 @@
       <c r="D346"/>
       <c r="E346"/>
       <c r="F346"/>
+      <c r="G346"/>
       <c r="H346"/>
       <c r="I346"/>
       <c r="J346"/>
       <c r="K346"/>
       <c r="L346"/>
       <c r="M346"/>
+      <c r="N346"/>
       <c r="P346"/>
       <c r="Q346"/>
       <c r="R346" s="1"/>
@@ -5994,12 +5997,14 @@
       <c r="D347"/>
       <c r="E347"/>
       <c r="F347"/>
+      <c r="G347"/>
       <c r="H347"/>
       <c r="I347"/>
       <c r="J347"/>
       <c r="K347"/>
       <c r="L347"/>
       <c r="M347"/>
+      <c r="N347"/>
       <c r="P347"/>
       <c r="Q347"/>
       <c r="R347" s="1"/>
@@ -6011,12 +6016,14 @@
       <c r="D348"/>
       <c r="E348"/>
       <c r="F348"/>
+      <c r="G348"/>
       <c r="H348"/>
       <c r="I348"/>
       <c r="J348"/>
       <c r="K348"/>
       <c r="L348"/>
       <c r="M348"/>
+      <c r="N348"/>
       <c r="P348"/>
       <c r="Q348"/>
       <c r="R348" s="1"/>
@@ -6028,12 +6035,14 @@
       <c r="D349"/>
       <c r="E349"/>
       <c r="F349"/>
+      <c r="G349"/>
       <c r="H349"/>
       <c r="I349"/>
       <c r="J349"/>
       <c r="K349"/>
       <c r="L349"/>
       <c r="M349"/>
+      <c r="N349"/>
       <c r="P349"/>
       <c r="Q349"/>
       <c r="R349" s="1"/>
@@ -6045,12 +6054,14 @@
       <c r="D350"/>
       <c r="E350"/>
       <c r="F350"/>
+      <c r="G350"/>
       <c r="H350"/>
       <c r="I350"/>
       <c r="J350"/>
       <c r="K350"/>
       <c r="L350"/>
       <c r="M350"/>
+      <c r="N350"/>
       <c r="P350"/>
       <c r="Q350"/>
       <c r="R350" s="1"/>
@@ -6232,14 +6243,12 @@
       <c r="D361"/>
       <c r="E361"/>
       <c r="F361"/>
-      <c r="G361"/>
       <c r="H361"/>
       <c r="I361"/>
       <c r="J361"/>
       <c r="K361"/>
       <c r="L361"/>
       <c r="M361"/>
-      <c r="N361"/>
       <c r="P361"/>
       <c r="Q361"/>
       <c r="R361" s="1"/>
@@ -6251,14 +6260,12 @@
       <c r="D362"/>
       <c r="E362"/>
       <c r="F362"/>
-      <c r="G362"/>
       <c r="H362"/>
       <c r="I362"/>
       <c r="J362"/>
       <c r="K362"/>
       <c r="L362"/>
       <c r="M362"/>
-      <c r="N362"/>
       <c r="P362"/>
       <c r="Q362"/>
       <c r="R362" s="1"/>
@@ -6270,14 +6277,12 @@
       <c r="D363"/>
       <c r="E363"/>
       <c r="F363"/>
-      <c r="G363"/>
       <c r="H363"/>
       <c r="I363"/>
       <c r="J363"/>
       <c r="K363"/>
       <c r="L363"/>
       <c r="M363"/>
-      <c r="N363"/>
       <c r="P363"/>
       <c r="Q363"/>
       <c r="R363" s="1"/>
@@ -6289,14 +6294,12 @@
       <c r="D364"/>
       <c r="E364"/>
       <c r="F364"/>
-      <c r="G364"/>
       <c r="H364"/>
       <c r="I364"/>
       <c r="J364"/>
       <c r="K364"/>
       <c r="L364"/>
       <c r="M364"/>
-      <c r="N364"/>
       <c r="P364"/>
       <c r="Q364"/>
       <c r="R364" s="1"/>
@@ -6308,14 +6311,12 @@
       <c r="D365"/>
       <c r="E365"/>
       <c r="F365"/>
-      <c r="G365"/>
       <c r="H365"/>
       <c r="I365"/>
       <c r="J365"/>
       <c r="K365"/>
       <c r="L365"/>
       <c r="M365"/>
-      <c r="N365"/>
       <c r="P365"/>
       <c r="Q365"/>
       <c r="R365" s="1"/>
@@ -6327,12 +6328,14 @@
       <c r="D366"/>
       <c r="E366"/>
       <c r="F366"/>
+      <c r="G366"/>
       <c r="H366"/>
       <c r="I366"/>
       <c r="J366"/>
       <c r="K366"/>
       <c r="L366"/>
       <c r="M366"/>
+      <c r="N366"/>
       <c r="P366"/>
       <c r="Q366"/>
       <c r="R366" s="1"/>
@@ -6344,12 +6347,14 @@
       <c r="D367"/>
       <c r="E367"/>
       <c r="F367"/>
+      <c r="G367"/>
       <c r="H367"/>
       <c r="I367"/>
       <c r="J367"/>
       <c r="K367"/>
       <c r="L367"/>
       <c r="M367"/>
+      <c r="N367"/>
       <c r="P367"/>
       <c r="Q367"/>
       <c r="R367" s="1"/>
@@ -6361,430 +6366,171 @@
       <c r="D368"/>
       <c r="E368"/>
       <c r="F368"/>
+      <c r="G368"/>
       <c r="H368"/>
       <c r="I368"/>
       <c r="J368"/>
       <c r="K368"/>
       <c r="L368"/>
       <c r="M368"/>
+      <c r="N368"/>
       <c r="P368"/>
       <c r="Q368"/>
       <c r="R368" s="1"/>
     </row>
-    <row r="369" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A369"/>
       <c r="B369"/>
       <c r="C369"/>
       <c r="D369"/>
       <c r="E369"/>
       <c r="F369"/>
+      <c r="G369"/>
       <c r="H369"/>
       <c r="I369"/>
       <c r="J369"/>
       <c r="K369"/>
       <c r="L369"/>
       <c r="M369"/>
+      <c r="N369"/>
       <c r="P369"/>
       <c r="Q369"/>
       <c r="R369" s="1"/>
     </row>
-    <row r="370" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A370"/>
       <c r="B370"/>
       <c r="C370"/>
       <c r="D370"/>
       <c r="E370"/>
       <c r="F370"/>
+      <c r="G370"/>
       <c r="H370"/>
       <c r="I370"/>
       <c r="J370"/>
       <c r="K370"/>
       <c r="L370"/>
       <c r="M370"/>
+      <c r="N370"/>
       <c r="P370"/>
       <c r="Q370"/>
       <c r="R370" s="1"/>
     </row>
-    <row r="371" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A371"/>
       <c r="B371"/>
       <c r="C371"/>
       <c r="D371"/>
       <c r="E371"/>
       <c r="F371"/>
+      <c r="G371"/>
       <c r="H371"/>
       <c r="I371"/>
       <c r="J371"/>
       <c r="K371"/>
       <c r="L371"/>
       <c r="M371"/>
+      <c r="N371"/>
       <c r="P371"/>
       <c r="Q371"/>
       <c r="R371" s="1"/>
     </row>
-    <row r="372" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A372"/>
       <c r="B372"/>
       <c r="C372"/>
       <c r="D372"/>
       <c r="E372"/>
       <c r="F372"/>
+      <c r="G372"/>
       <c r="H372"/>
       <c r="I372"/>
       <c r="J372"/>
       <c r="K372"/>
       <c r="L372"/>
       <c r="M372"/>
+      <c r="N372"/>
       <c r="P372"/>
       <c r="Q372"/>
       <c r="R372" s="1"/>
     </row>
-    <row r="373" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A373"/>
       <c r="B373"/>
       <c r="C373"/>
       <c r="D373"/>
       <c r="E373"/>
       <c r="F373"/>
+      <c r="G373"/>
       <c r="H373"/>
       <c r="I373"/>
       <c r="J373"/>
       <c r="K373"/>
       <c r="L373"/>
       <c r="M373"/>
+      <c r="N373"/>
       <c r="P373"/>
       <c r="Q373"/>
       <c r="R373" s="1"/>
     </row>
-    <row r="374" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A374"/>
-      <c r="B374"/>
-      <c r="C374"/>
-      <c r="D374"/>
-      <c r="E374"/>
-      <c r="F374"/>
-      <c r="H374"/>
-      <c r="I374"/>
-      <c r="J374"/>
-      <c r="K374"/>
-      <c r="L374"/>
-      <c r="M374"/>
-      <c r="P374"/>
-      <c r="Q374"/>
       <c r="R374" s="1"/>
-    </row>
-    <row r="375" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S374"/>
+      <c r="T374"/>
+      <c r="U374"/>
+    </row>
+    <row r="375" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A375"/>
-      <c r="B375"/>
-      <c r="C375"/>
-      <c r="D375"/>
-      <c r="E375"/>
-      <c r="F375"/>
-      <c r="H375"/>
-      <c r="I375"/>
-      <c r="J375"/>
-      <c r="K375"/>
-      <c r="L375"/>
-      <c r="M375"/>
-      <c r="P375"/>
-      <c r="Q375"/>
       <c r="R375" s="1"/>
-    </row>
-    <row r="376" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S375"/>
+      <c r="T375"/>
+      <c r="U375"/>
+    </row>
+    <row r="376" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A376"/>
-      <c r="B376"/>
-      <c r="C376"/>
-      <c r="D376"/>
-      <c r="E376"/>
-      <c r="F376"/>
-      <c r="H376"/>
-      <c r="I376"/>
-      <c r="J376"/>
-      <c r="K376"/>
-      <c r="L376"/>
-      <c r="M376"/>
-      <c r="P376"/>
-      <c r="Q376"/>
       <c r="R376" s="1"/>
-    </row>
-    <row r="377" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A377"/>
-      <c r="B377"/>
-      <c r="C377"/>
-      <c r="D377"/>
-      <c r="E377"/>
-      <c r="F377"/>
-      <c r="H377"/>
-      <c r="I377"/>
-      <c r="J377"/>
-      <c r="K377"/>
-      <c r="L377"/>
-      <c r="M377"/>
-      <c r="P377"/>
-      <c r="Q377"/>
+      <c r="S376"/>
+      <c r="T376"/>
+      <c r="U376"/>
+    </row>
+    <row r="377" spans="1:22" x14ac:dyDescent="0.25">
       <c r="R377" s="1"/>
-    </row>
-    <row r="378" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A378"/>
-      <c r="B378"/>
-      <c r="C378"/>
-      <c r="D378"/>
-      <c r="E378"/>
-      <c r="F378"/>
-      <c r="H378"/>
-      <c r="I378"/>
-      <c r="J378"/>
-      <c r="K378"/>
-      <c r="L378"/>
-      <c r="M378"/>
-      <c r="P378"/>
-      <c r="Q378"/>
+      <c r="S377"/>
+      <c r="T377"/>
+      <c r="U377"/>
+    </row>
+    <row r="378" spans="1:22" x14ac:dyDescent="0.25">
       <c r="R378" s="1"/>
-    </row>
-    <row r="379" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A379"/>
-      <c r="B379"/>
-      <c r="C379"/>
-      <c r="D379"/>
-      <c r="E379"/>
-      <c r="F379"/>
-      <c r="H379"/>
-      <c r="I379"/>
-      <c r="J379"/>
-      <c r="K379"/>
-      <c r="L379"/>
-      <c r="M379"/>
-      <c r="P379"/>
-      <c r="Q379"/>
+      <c r="S378"/>
+      <c r="T378"/>
+      <c r="U378"/>
+    </row>
+    <row r="379" spans="1:22" x14ac:dyDescent="0.25">
       <c r="R379" s="1"/>
-    </row>
-    <row r="380" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A380"/>
-      <c r="B380"/>
-      <c r="C380"/>
-      <c r="D380"/>
-      <c r="E380"/>
-      <c r="F380"/>
-      <c r="H380"/>
-      <c r="I380"/>
-      <c r="J380"/>
-      <c r="K380"/>
-      <c r="L380"/>
-      <c r="M380"/>
-      <c r="P380"/>
-      <c r="Q380"/>
+      <c r="S379"/>
+      <c r="T379"/>
+    </row>
+    <row r="380" spans="1:22" x14ac:dyDescent="0.25">
       <c r="R380" s="1"/>
-    </row>
-    <row r="381" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A381"/>
-      <c r="B381"/>
-      <c r="C381"/>
-      <c r="D381"/>
-      <c r="E381"/>
-      <c r="F381"/>
-      <c r="G381"/>
-      <c r="H381"/>
-      <c r="I381"/>
-      <c r="J381"/>
-      <c r="K381"/>
-      <c r="L381"/>
-      <c r="M381"/>
-      <c r="N381"/>
-      <c r="P381"/>
-      <c r="Q381"/>
+      <c r="S380"/>
+      <c r="T380"/>
+    </row>
+    <row r="381" spans="1:22" x14ac:dyDescent="0.25">
       <c r="R381" s="1"/>
-    </row>
-    <row r="382" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V381"/>
+    </row>
+    <row r="382" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A382"/>
-      <c r="B382"/>
-      <c r="C382"/>
-      <c r="D382"/>
-      <c r="E382"/>
-      <c r="F382"/>
-      <c r="G382"/>
-      <c r="H382"/>
-      <c r="I382"/>
-      <c r="J382"/>
-      <c r="K382"/>
-      <c r="L382"/>
-      <c r="M382"/>
-      <c r="N382"/>
-      <c r="P382"/>
-      <c r="Q382"/>
       <c r="R382" s="1"/>
     </row>
-    <row r="383" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A383"/>
-      <c r="B383"/>
-      <c r="C383"/>
-      <c r="D383"/>
-      <c r="E383"/>
-      <c r="F383"/>
-      <c r="G383"/>
-      <c r="H383"/>
-      <c r="I383"/>
-      <c r="J383"/>
-      <c r="K383"/>
-      <c r="L383"/>
-      <c r="M383"/>
-      <c r="N383"/>
-      <c r="P383"/>
-      <c r="Q383"/>
       <c r="R383" s="1"/>
     </row>
-    <row r="384" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A384"/>
-      <c r="B384"/>
-      <c r="C384"/>
-      <c r="D384"/>
-      <c r="E384"/>
-      <c r="F384"/>
-      <c r="G384"/>
-      <c r="H384"/>
-      <c r="I384"/>
-      <c r="J384"/>
-      <c r="K384"/>
-      <c r="L384"/>
-      <c r="M384"/>
-      <c r="N384"/>
-      <c r="P384"/>
-      <c r="Q384"/>
       <c r="R384" s="1"/>
-    </row>
-    <row r="385" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A385"/>
-      <c r="B385"/>
-      <c r="C385"/>
-      <c r="D385"/>
-      <c r="E385"/>
-      <c r="F385"/>
-      <c r="G385"/>
-      <c r="H385"/>
-      <c r="I385"/>
-      <c r="J385"/>
-      <c r="K385"/>
-      <c r="L385"/>
-      <c r="M385"/>
-      <c r="N385"/>
-      <c r="P385"/>
-      <c r="Q385"/>
-      <c r="R385" s="1"/>
-    </row>
-    <row r="386" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A386"/>
-      <c r="B386"/>
-      <c r="C386"/>
-      <c r="D386"/>
-      <c r="E386"/>
-      <c r="F386"/>
-      <c r="G386"/>
-      <c r="H386"/>
-      <c r="I386"/>
-      <c r="J386"/>
-      <c r="K386"/>
-      <c r="L386"/>
-      <c r="M386"/>
-      <c r="N386"/>
-      <c r="P386"/>
-      <c r="Q386"/>
-      <c r="R386" s="1"/>
-    </row>
-    <row r="387" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A387"/>
-      <c r="B387"/>
-      <c r="C387"/>
-      <c r="D387"/>
-      <c r="E387"/>
-      <c r="F387"/>
-      <c r="G387"/>
-      <c r="H387"/>
-      <c r="I387"/>
-      <c r="J387"/>
-      <c r="K387"/>
-      <c r="L387"/>
-      <c r="M387"/>
-      <c r="N387"/>
-      <c r="P387"/>
-      <c r="Q387"/>
-      <c r="R387" s="1"/>
-    </row>
-    <row r="388" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A388"/>
-      <c r="B388"/>
-      <c r="C388"/>
-      <c r="D388"/>
-      <c r="E388"/>
-      <c r="F388"/>
-      <c r="G388"/>
-      <c r="H388"/>
-      <c r="I388"/>
-      <c r="J388"/>
-      <c r="K388"/>
-      <c r="L388"/>
-      <c r="M388"/>
-      <c r="N388"/>
-      <c r="P388"/>
-      <c r="Q388"/>
-      <c r="R388" s="1"/>
-    </row>
-    <row r="389" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A389"/>
-      <c r="R389" s="1"/>
-      <c r="S389"/>
-      <c r="T389"/>
-      <c r="U389"/>
-    </row>
-    <row r="390" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A390"/>
-      <c r="R390" s="1"/>
-      <c r="S390"/>
-      <c r="T390"/>
-      <c r="U390"/>
-    </row>
-    <row r="391" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A391"/>
-      <c r="R391" s="1"/>
-      <c r="S391"/>
-      <c r="T391"/>
-      <c r="U391"/>
-    </row>
-    <row r="392" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="R392" s="1"/>
-      <c r="S392"/>
-      <c r="T392"/>
-      <c r="U392"/>
-    </row>
-    <row r="393" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="R393" s="1"/>
-      <c r="S393"/>
-      <c r="T393"/>
-      <c r="U393"/>
-    </row>
-    <row r="394" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="R394" s="1"/>
-      <c r="S394"/>
-      <c r="T394"/>
-    </row>
-    <row r="395" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="R395" s="1"/>
-      <c r="S395"/>
-      <c r="T395"/>
-    </row>
-    <row r="396" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="R396" s="1"/>
-      <c r="V396"/>
-    </row>
-    <row r="397" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A397"/>
-      <c r="R397" s="1"/>
-    </row>
-    <row r="398" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A398"/>
-      <c r="R398" s="1"/>
-    </row>
-    <row r="399" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A399"/>
-      <c r="R399" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6796,8 +6542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6832,7 +6578,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>7480</v>
+        <v>7280</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -6849,7 +6595,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>7490</v>
+        <v>7380</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -6863,7 +6609,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>7380</v>
+        <v>7480</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -6877,7 +6623,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>7390</v>
+        <v>7290</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -6885,7 +6631,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>7280</v>
+        <v>7390</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -6893,7 +6639,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>7290</v>
+        <v>7490</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
@@ -6914,10 +6660,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6926,37 +6672,74 @@
     <col min="2" max="2" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>7480</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B1">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Input Lists'!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Input Lists'!$B$2:$B$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Input Lists'!$C$2:$C$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>B3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Input Lists'!$D$2:$D$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>